--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F62EE-60D1-47FD-9297-C1F14809DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D73D14A-3A91-41D8-9777-8243A978097B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="328">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -1014,9 +1014,6 @@
     <t>https://ar.m.wikisource.org/wiki/الإبانة_عن_أصول_الديانة</t>
   </si>
   <si>
-    <t>طبعة @ 2023/06/05 م - 1444/11/16 هـ</t>
-  </si>
-  <si>
     <t>https://api.bing.microsoft.com/v7.0/entities?cc=SA&amp;mkt=en-US&amp;setLang=ar&amp;responseFilter=entities&amp;safeSearch=strict&amp;q=</t>
   </si>
   <si>
@@ -1024,6 +1021,9 @@
   </si>
   <si>
     <t>WebAppendix</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/06/09 م - 1444/11/20 هـ</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2681,7 +2681,9 @@
       <c r="M27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="3"/>
+      <c r="N27" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
@@ -4042,7 +4044,7 @@
         <v>296</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>228</v>
@@ -4632,7 +4634,7 @@
         <v>283</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>300</v>
@@ -4645,10 +4647,10 @@
       </c>
       <c r="F2" s="16">
         <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
-        <v>45082</v>
+        <v>45086</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D73D14A-3A91-41D8-9777-8243A978097B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF229EE1-2DA5-40C7-A48E-2F0B29A1D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="329">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -1023,7 +1023,10 @@
     <t>WebAppendix</t>
   </si>
   <si>
-    <t>طبعة @ 2023/06/09 م - 1444/11/20 هـ</t>
+    <t>https://fm6oa.org/coran/</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/06/10 م - 1444/11/21 هـ</t>
   </si>
 </sst>
 </file>
@@ -2638,7 +2641,9 @@
       <c r="M26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="3" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
@@ -4044,7 +4049,7 @@
         <v>296</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>228</v>
@@ -4580,10 +4585,11 @@
     <hyperlink ref="M66" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="N62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="N7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="N26" r:id="rId25" xr:uid="{742E1151-3CAD-44FB-BC3B-4D9A38239DCF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId25"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId26"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -4647,7 +4653,7 @@
       </c>
       <c r="F2" s="16">
         <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>325</v>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -5,42 +5,32 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohamedK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF229EE1-2DA5-40C7-A48E-2F0B29A1D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F481A5-D013-438A-9ECD-D6423AD4518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
     <sheet name="Complements" sheetId="2" r:id="rId2"/>
+    <sheet name="Calendars" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Calendars!$A$1:$W$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Complements!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$70</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Calendars!$A:$A,Calendars!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="478">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -1027,6 +1017,453 @@
   </si>
   <si>
     <t>طبعة @ 2023/06/10 م - 1444/11/21 هـ</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Day_Ar</t>
+  </si>
+  <si>
+    <t>Day_En</t>
+  </si>
+  <si>
+    <t>Day_Fr</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>dimanche</t>
+  </si>
+  <si>
+    <t>Muharram</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>janvier</t>
+  </si>
+  <si>
+    <t>Thout</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>Safar</t>
+  </si>
+  <si>
+    <t>Februray</t>
+  </si>
+  <si>
+    <t>février</t>
+  </si>
+  <si>
+    <t>Paopi</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>Rabi' al-awwal</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>marche</t>
+  </si>
+  <si>
+    <t>Hathor</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>Rabi' al-thani</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>avril</t>
+  </si>
+  <si>
+    <t>Koiak</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>jeudi</t>
+  </si>
+  <si>
+    <t>Jumada al-awwal</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>Tobi</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t>Jumada al-than</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>juin</t>
+  </si>
+  <si>
+    <t>Meshir</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>samedi</t>
+  </si>
+  <si>
+    <t>Rajab</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>juillet</t>
+  </si>
+  <si>
+    <t>Paremhat</t>
+  </si>
+  <si>
+    <t>Sha'aban</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>auguste</t>
+  </si>
+  <si>
+    <t>Paremoude</t>
+  </si>
+  <si>
+    <t>Ramadan</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>septembre</t>
+  </si>
+  <si>
+    <t>Pashons</t>
+  </si>
+  <si>
+    <t>Shawwal</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>octobre</t>
+  </si>
+  <si>
+    <t>Paoni</t>
+  </si>
+  <si>
+    <t>Dhu al-Qi'dah</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>novembre</t>
+  </si>
+  <si>
+    <t>Epip</t>
+  </si>
+  <si>
+    <t>Dhu al-Hijjah</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>décembre</t>
+  </si>
+  <si>
+    <t>Mesori</t>
+  </si>
+  <si>
+    <t>Pi Kogi Enavot</t>
+  </si>
+  <si>
+    <t>الأحد</t>
+  </si>
+  <si>
+    <t>محرم</t>
+  </si>
+  <si>
+    <t>كانون الثاني</t>
+  </si>
+  <si>
+    <t>يناير</t>
+  </si>
+  <si>
+    <t>جانفييه</t>
+  </si>
+  <si>
+    <t>توت</t>
+  </si>
+  <si>
+    <t>الإثنين</t>
+  </si>
+  <si>
+    <t>صفر</t>
+  </si>
+  <si>
+    <t>شباط</t>
+  </si>
+  <si>
+    <t>فبراير</t>
+  </si>
+  <si>
+    <t>فيفرييه</t>
+  </si>
+  <si>
+    <t>بابة</t>
+  </si>
+  <si>
+    <t>الثلاثاء</t>
+  </si>
+  <si>
+    <t>ربيع الأول</t>
+  </si>
+  <si>
+    <t>آذار</t>
+  </si>
+  <si>
+    <t>مارس</t>
+  </si>
+  <si>
+    <t>هاتور</t>
+  </si>
+  <si>
+    <t>الأربعاء</t>
+  </si>
+  <si>
+    <t>ربيع الآخر</t>
+  </si>
+  <si>
+    <t>نيسان</t>
+  </si>
+  <si>
+    <t>أبريل</t>
+  </si>
+  <si>
+    <t>أفريل</t>
+  </si>
+  <si>
+    <t>كيهك</t>
+  </si>
+  <si>
+    <t>الخميس</t>
+  </si>
+  <si>
+    <t>جمادي الأول</t>
+  </si>
+  <si>
+    <t>أيار</t>
+  </si>
+  <si>
+    <t>مايو</t>
+  </si>
+  <si>
+    <t>مي</t>
+  </si>
+  <si>
+    <t>طوبة</t>
+  </si>
+  <si>
+    <t>الجمعة</t>
+  </si>
+  <si>
+    <t>جمادي الآخرة</t>
+  </si>
+  <si>
+    <t>حزيران</t>
+  </si>
+  <si>
+    <t>يونيو</t>
+  </si>
+  <si>
+    <t>جوان</t>
+  </si>
+  <si>
+    <t>امشير</t>
+  </si>
+  <si>
+    <t>السبت</t>
+  </si>
+  <si>
+    <t>رجب</t>
+  </si>
+  <si>
+    <t>تموز</t>
+  </si>
+  <si>
+    <t>يوليو</t>
+  </si>
+  <si>
+    <t>جوييه</t>
+  </si>
+  <si>
+    <t>برمهات</t>
+  </si>
+  <si>
+    <t>شعبان</t>
+  </si>
+  <si>
+    <t>آب</t>
+  </si>
+  <si>
+    <t>أغسطس</t>
+  </si>
+  <si>
+    <t>أوت</t>
+  </si>
+  <si>
+    <t>برمودة</t>
+  </si>
+  <si>
+    <t>رمضان</t>
+  </si>
+  <si>
+    <t>أيلول</t>
+  </si>
+  <si>
+    <t>سبتمبر</t>
+  </si>
+  <si>
+    <t>بشنس</t>
+  </si>
+  <si>
+    <t>شوال</t>
+  </si>
+  <si>
+    <t>تشرين الأول</t>
+  </si>
+  <si>
+    <t>أكتوبر</t>
+  </si>
+  <si>
+    <t>بؤونة</t>
+  </si>
+  <si>
+    <t>ذو القعدة</t>
+  </si>
+  <si>
+    <t>تشرين الثاني</t>
+  </si>
+  <si>
+    <t>نوفمبر</t>
+  </si>
+  <si>
+    <t>ابيب</t>
+  </si>
+  <si>
+    <t>ذو الحجة</t>
+  </si>
+  <si>
+    <t>كانون الأول</t>
+  </si>
+  <si>
+    <t>ديسمبر</t>
+  </si>
+  <si>
+    <t>مسرى</t>
+  </si>
+  <si>
+    <t>نسئ</t>
+  </si>
+  <si>
+    <t>Month_Hijri_Ar</t>
+  </si>
+  <si>
+    <t>Month_Hijri_En</t>
+  </si>
+  <si>
+    <t>DaysCount_Hijri</t>
+  </si>
+  <si>
+    <t>Month_Gregorian(Ar)_Ar</t>
+  </si>
+  <si>
+    <t>Month_Gregorian(Ar)_En</t>
+  </si>
+  <si>
+    <t>Month_Gregorian(En)_Ar</t>
+  </si>
+  <si>
+    <t>Month_Gregorian(En)_En</t>
+  </si>
+  <si>
+    <t>Month_Gregorian(Fr)_Ar</t>
+  </si>
+  <si>
+    <t>Month_Gregorian(Fr)_Fr</t>
+  </si>
+  <si>
+    <t>DaysCount_Gregorian</t>
+  </si>
+  <si>
+    <t>DaysCount_Gregorian(Leap)</t>
+  </si>
+  <si>
+    <t>Month_Coptic_Ar</t>
+  </si>
+  <si>
+    <t>Month_Coptic_En</t>
+  </si>
+  <si>
+    <t>DaysCount_Coptic</t>
+  </si>
+  <si>
+    <t>DaysCount_Coptic(Leap)</t>
+  </si>
+  <si>
+    <t>Coptic_StartDate_Gregorian</t>
+  </si>
+  <si>
+    <t>Coptic_StartDate_Gregorian(Leap)</t>
+  </si>
+  <si>
+    <t>Coptic_EndDate_Gregorian</t>
+  </si>
+  <si>
+    <t>Coptic_EndDate_Gregorian(Leap)</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1195,6 +1632,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4603,7 +5043,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4695,4 +5135,914 @@
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C174FB9-107C-4B3A-B5CD-4C8C607A3429}">
+  <dimension ref="A1:W14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="N2" s="20">
+        <v>31</v>
+      </c>
+      <c r="O2" s="20">
+        <v>31</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="R2" s="20">
+        <v>30</v>
+      </c>
+      <c r="S2" s="20">
+        <v>30</v>
+      </c>
+      <c r="T2" s="16">
+        <v>45180</v>
+      </c>
+      <c r="U2" s="16">
+        <v>45181</v>
+      </c>
+      <c r="V2" s="16">
+        <v>45209</v>
+      </c>
+      <c r="W2" s="16">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="N3" s="20">
+        <v>28</v>
+      </c>
+      <c r="O3" s="20">
+        <v>29</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="R3" s="20">
+        <v>30</v>
+      </c>
+      <c r="S3" s="20">
+        <v>30</v>
+      </c>
+      <c r="T3" s="16">
+        <v>45210</v>
+      </c>
+      <c r="U3" s="16">
+        <v>45211</v>
+      </c>
+      <c r="V3" s="16">
+        <v>45239</v>
+      </c>
+      <c r="W3" s="16">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="N4" s="20">
+        <v>31</v>
+      </c>
+      <c r="O4" s="20">
+        <v>31</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="R4" s="20">
+        <v>30</v>
+      </c>
+      <c r="S4" s="20">
+        <v>30</v>
+      </c>
+      <c r="T4" s="16">
+        <v>45240</v>
+      </c>
+      <c r="U4" s="16">
+        <v>45241</v>
+      </c>
+      <c r="V4" s="16">
+        <v>45269</v>
+      </c>
+      <c r="W4" s="16">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="N5" s="20">
+        <v>30</v>
+      </c>
+      <c r="O5" s="20">
+        <v>30</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="R5" s="20">
+        <v>30</v>
+      </c>
+      <c r="S5" s="20">
+        <v>30</v>
+      </c>
+      <c r="T5" s="16">
+        <v>45270</v>
+      </c>
+      <c r="U5" s="16">
+        <v>45271</v>
+      </c>
+      <c r="V5" s="16">
+        <v>44934</v>
+      </c>
+      <c r="W5" s="16">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="N6" s="20">
+        <v>31</v>
+      </c>
+      <c r="O6" s="20">
+        <v>31</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="R6" s="20">
+        <v>30</v>
+      </c>
+      <c r="S6" s="20">
+        <v>30</v>
+      </c>
+      <c r="T6" s="16">
+        <v>44935</v>
+      </c>
+      <c r="U6" s="16">
+        <v>44936</v>
+      </c>
+      <c r="V6" s="16">
+        <v>44964</v>
+      </c>
+      <c r="W6" s="16">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="N7" s="20">
+        <v>30</v>
+      </c>
+      <c r="O7" s="20">
+        <v>30</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="R7" s="20">
+        <v>30</v>
+      </c>
+      <c r="S7" s="20">
+        <v>30</v>
+      </c>
+      <c r="T7" s="16">
+        <v>44965</v>
+      </c>
+      <c r="U7" s="16">
+        <v>44966</v>
+      </c>
+      <c r="V7" s="16">
+        <v>44994</v>
+      </c>
+      <c r="W7" s="16">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="N8" s="20">
+        <v>31</v>
+      </c>
+      <c r="O8" s="20">
+        <v>31</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="R8" s="20">
+        <v>30</v>
+      </c>
+      <c r="S8" s="20">
+        <v>30</v>
+      </c>
+      <c r="T8" s="16">
+        <v>44995</v>
+      </c>
+      <c r="U8" s="16">
+        <v>44995</v>
+      </c>
+      <c r="V8" s="16">
+        <v>45024</v>
+      </c>
+      <c r="W8" s="16">
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="N9" s="20">
+        <v>31</v>
+      </c>
+      <c r="O9" s="20">
+        <v>31</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="R9" s="20">
+        <v>30</v>
+      </c>
+      <c r="S9" s="20">
+        <v>30</v>
+      </c>
+      <c r="T9" s="16">
+        <v>45025</v>
+      </c>
+      <c r="U9" s="16">
+        <v>45025</v>
+      </c>
+      <c r="V9" s="16">
+        <v>45054</v>
+      </c>
+      <c r="W9" s="16">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="N10" s="20">
+        <v>30</v>
+      </c>
+      <c r="O10" s="20">
+        <v>30</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="R10" s="20">
+        <v>30</v>
+      </c>
+      <c r="S10" s="20">
+        <v>30</v>
+      </c>
+      <c r="T10" s="16">
+        <v>45055</v>
+      </c>
+      <c r="U10" s="16">
+        <v>45055</v>
+      </c>
+      <c r="V10" s="16">
+        <v>45084</v>
+      </c>
+      <c r="W10" s="16">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="N11" s="20">
+        <v>31</v>
+      </c>
+      <c r="O11" s="20">
+        <v>31</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="R11" s="20">
+        <v>30</v>
+      </c>
+      <c r="S11" s="20">
+        <v>30</v>
+      </c>
+      <c r="T11" s="16">
+        <v>45085</v>
+      </c>
+      <c r="U11" s="16">
+        <v>45085</v>
+      </c>
+      <c r="V11" s="16">
+        <v>45114</v>
+      </c>
+      <c r="W11" s="16">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="N12" s="20">
+        <v>30</v>
+      </c>
+      <c r="O12" s="20">
+        <v>30</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="R12" s="20">
+        <v>30</v>
+      </c>
+      <c r="S12" s="20">
+        <v>30</v>
+      </c>
+      <c r="T12" s="16">
+        <v>45115</v>
+      </c>
+      <c r="U12" s="16">
+        <v>45115</v>
+      </c>
+      <c r="V12" s="16">
+        <v>45144</v>
+      </c>
+      <c r="W12" s="16">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="N13" s="20">
+        <v>31</v>
+      </c>
+      <c r="O13" s="20">
+        <v>31</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="R13" s="20">
+        <v>30</v>
+      </c>
+      <c r="S13" s="20">
+        <v>30</v>
+      </c>
+      <c r="T13" s="16">
+        <v>45145</v>
+      </c>
+      <c r="U13" s="16">
+        <v>45145</v>
+      </c>
+      <c r="V13" s="16">
+        <v>45174</v>
+      </c>
+      <c r="W13" s="16">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="R14" s="20">
+        <v>5</v>
+      </c>
+      <c r="S14" s="20">
+        <v>6</v>
+      </c>
+      <c r="T14" s="16">
+        <v>45175</v>
+      </c>
+      <c r="U14" s="16">
+        <v>45175</v>
+      </c>
+      <c r="V14" s="16">
+        <v>45179</v>
+      </c>
+      <c r="W14" s="16">
+        <v>45179</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:W14" xr:uid="{2C174FB9-107C-4B3A-B5CD-4C8C607A3429}"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohamedK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F481A5-D013-438A-9ECD-D6423AD4518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6067733-CB8F-4AAF-ACF9-E5C846ED5E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Calendars!$A$1:$W$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Complements!$A$1:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Complements!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$71</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Calendars!$A:$A,Calendars!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="482">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -335,9 +335,6 @@
     <t>https://fatwaacademyportal.com/</t>
   </si>
   <si>
-    <t>منصة هداية</t>
-  </si>
-  <si>
     <t>HedayahLearning</t>
   </si>
   <si>
@@ -884,9 +881,6 @@
     <t>https://ui.customsearch.ai/hosted-page?customconfig=d3efdda4-ebef-4847-8f35-16a03286e2d0&amp;version=latest&amp;market=ar-SA&amp;setLang=AR&amp;safesearch=Strict&amp;q=</t>
   </si>
   <si>
-    <t>* Don’t delete record in online DB as its ID is used in App!</t>
-  </si>
-  <si>
     <t>Edition</t>
   </si>
   <si>
@@ -1016,12 +1010,6 @@
     <t>https://fm6oa.org/coran/</t>
   </si>
   <si>
-    <t>طبعة @ 2023/06/10 م - 1444/11/21 هـ</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Day_Ar</t>
   </si>
   <si>
@@ -1464,6 +1452,30 @@
   </si>
   <si>
     <t>Coptic_EndDate_Gregorian(Leap)</t>
+  </si>
+  <si>
+    <t>IslamicHeritage</t>
+  </si>
+  <si>
+    <t>https://www.islamic-heritage.com/</t>
+  </si>
+  <si>
+    <t>«منصة حفظ التراث الإسلامي»</t>
+  </si>
+  <si>
+    <t>«منصة هداية»</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/06/13 م - 1444/11/24 هـ</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>* Don’t delete record in online DB as its "ID" is used in App!</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1965,7 +1977,7 @@
         <v>93</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>86</v>
@@ -2001,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2016,10 +2028,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F2" s="9">
         <v>1.1200000000000001</v>
@@ -2059,19 +2071,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" s="9">
         <v>1.01</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>4</v>
@@ -2102,37 +2114,37 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F4" s="9">
         <v>1.1100000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2147,22 +2159,22 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F5" s="9">
         <v>10.02</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>83</v>
@@ -2174,7 +2186,7 @@
         <v>85</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -2199,25 +2211,25 @@
         <v>4.04</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N6" s="3"/>
     </row>
@@ -2251,19 +2263,19 @@
         <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2278,34 +2290,34 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F8" s="9">
         <v>2.08</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N8" s="3"/>
     </row>
@@ -2321,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F9" s="9">
         <v>2.0099999999999998</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>94</v>
@@ -2364,34 +2376,34 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F10" s="9">
         <v>8.0299999999999994</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N10" s="3"/>
     </row>
@@ -2407,10 +2419,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="F11" s="9">
         <v>7.03</v>
@@ -2450,10 +2462,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F12" s="9">
         <v>8.07</v>
@@ -2465,7 +2477,7 @@
         <v>55</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>56</v>
@@ -2493,34 +2505,34 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F13" s="9">
         <v>8.08</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N13" s="3"/>
     </row>
@@ -2536,34 +2548,34 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F14" s="9">
         <v>8.09</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="N14" s="8"/>
     </row>
@@ -2579,22 +2591,22 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="F15" s="9">
-        <v>7.07</v>
+        <v>7.08</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>100</v>
@@ -2622,34 +2634,34 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F16" s="9">
         <v>8.0399999999999991</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N16" s="3"/>
     </row>
@@ -2665,34 +2677,34 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="F17" s="9">
         <v>7.06</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N17" s="3"/>
     </row>
@@ -2708,10 +2720,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F18" s="9">
         <v>8.0500000000000007</v>
@@ -2720,7 +2732,7 @@
         <v>82</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>77</v>
@@ -2751,34 +2763,34 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="F19" s="9">
-        <v>7.05</v>
+        <v>7.07</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>99</v>
+        <v>474</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>249</v>
+        <v>476</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>15</v>
+        <v>478</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>98</v>
+        <v>475</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>98</v>
+        <v>475</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>98</v>
+        <v>475</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>98</v>
+        <v>475</v>
       </c>
       <c r="N19" s="3"/>
     </row>
@@ -2794,10 +2806,10 @@
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="F20" s="9">
         <v>7.02</v>
@@ -2821,7 +2833,7 @@
         <v>54</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N20" s="3"/>
     </row>
@@ -2846,10 +2858,10 @@
         <v>4.01</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>4</v>
@@ -2858,13 +2870,13 @@
         <v>32</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N21" s="3"/>
     </row>
@@ -2880,10 +2892,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F22" s="9">
         <v>5.01</v>
@@ -2935,22 +2947,22 @@
         <v>76</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N23" s="3"/>
     </row>
@@ -2975,10 +2987,10 @@
         <v>6.02</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>4</v>
@@ -2987,13 +2999,13 @@
         <v>74</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>75</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N24" s="3"/>
     </row>
@@ -3009,10 +3021,10 @@
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="F25" s="9">
         <v>7.01</v>
@@ -3036,7 +3048,7 @@
         <v>48</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N25" s="3"/>
     </row>
@@ -3052,19 +3064,19 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F26" s="9">
         <v>1.02</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>4</v>
@@ -3082,7 +3094,7 @@
         <v>97</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -3097,10 +3109,10 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F27" s="9">
         <v>2.0499999999999998</v>
@@ -3112,7 +3124,7 @@
         <v>21</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>19</v>
@@ -3151,25 +3163,25 @@
         <v>4.05</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N28" s="3"/>
     </row>
@@ -3194,25 +3206,25 @@
         <v>6.9640000000000004</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N29" s="8"/>
     </row>
@@ -3237,25 +3249,25 @@
         <v>6.2690000000000001</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N30" s="8"/>
     </row>
@@ -3271,10 +3283,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F31" s="9">
         <v>5.0199999999999996</v>
@@ -3289,16 +3301,16 @@
         <v>15</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N31" s="3"/>
     </row>
@@ -3323,25 +3335,25 @@
         <v>6.2489999999999997</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N32" s="8"/>
     </row>
@@ -3366,25 +3378,25 @@
         <v>6.9740000000000002</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N33" s="8"/>
     </row>
@@ -3409,25 +3421,25 @@
         <v>6.218</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J34" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L34" s="8" t="s">
+      <c r="M34" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="N34" s="8"/>
     </row>
@@ -3452,25 +3464,25 @@
         <v>6.9630000000000001</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="K35" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N35" s="8"/>
     </row>
@@ -3495,25 +3507,25 @@
         <v>6.2119999999999997</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J36" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L36" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="K36" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L36" s="8" t="s">
+      <c r="M36" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="N36" s="8"/>
     </row>
@@ -3538,25 +3550,25 @@
         <v>6.2160000000000002</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N37" s="8"/>
     </row>
@@ -3581,25 +3593,25 @@
         <v>6.9660000000000002</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J38" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L38" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="K38" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="L38" s="8" t="s">
+      <c r="M38" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="N38" s="8"/>
     </row>
@@ -3624,25 +3636,25 @@
         <v>6.9610000000000003</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N39" s="8"/>
     </row>
@@ -3667,25 +3679,25 @@
         <v>6.2130000000000001</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N40" s="8"/>
     </row>
@@ -3710,25 +3722,25 @@
         <v>6.97</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N41" s="8"/>
     </row>
@@ -3753,25 +3765,25 @@
         <v>6.9619999999999997</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L42" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L42" s="8" t="s">
+      <c r="M42" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="N42" s="8"/>
     </row>
@@ -3796,10 +3808,10 @@
         <v>6.9649999999999999</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>4</v>
@@ -3808,13 +3820,13 @@
         <v>32</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N43" s="8"/>
     </row>
@@ -3839,25 +3851,25 @@
         <v>6.2519999999999998</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N44" s="8"/>
     </row>
@@ -3882,25 +3894,25 @@
         <v>6.2530000000000001</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N45" s="8"/>
     </row>
@@ -3925,25 +3937,25 @@
         <v>6.9710000000000001</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J46" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L46" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="K46" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="L46" s="8" t="s">
+      <c r="M46" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="N46" s="8"/>
     </row>
@@ -3968,25 +3980,25 @@
         <v>6.968</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N47" s="8"/>
     </row>
@@ -4011,25 +4023,25 @@
         <v>6.9729999999999999</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N48" s="8"/>
     </row>
@@ -4054,25 +4066,25 @@
         <v>6.2220000000000004</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N49" s="8"/>
     </row>
@@ -4088,22 +4100,22 @@
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F50" s="9">
         <v>8.02</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>91</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>65</v>
@@ -4131,10 +4143,10 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F51" s="9">
         <v>8.01</v>
@@ -4146,7 +4158,7 @@
         <v>90</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>60</v>
@@ -4183,25 +4195,25 @@
         <v>4.03</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="N52" s="3"/>
     </row>
@@ -4226,25 +4238,25 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N53" s="3"/>
     </row>
@@ -4269,28 +4281,28 @@
         <v>3.03</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="I54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="J54" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -4305,34 +4317,34 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F55" s="9">
         <v>5.03</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="I55" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="J55" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N55" s="3"/>
     </row>
@@ -4348,10 +4360,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="F56" s="9">
         <v>7.04</v>
@@ -4360,7 +4372,7 @@
         <v>43</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>15</v>
@@ -4391,10 +4403,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F57" s="9">
         <v>8.06</v>
@@ -4403,10 +4415,10 @@
         <v>68</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>69</v>
@@ -4443,25 +4455,25 @@
         <v>6.9669999999999996</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N58" s="8"/>
     </row>
@@ -4477,40 +4489,40 @@
         <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F59" s="9">
         <v>10.039999999999999</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>328</v>
+        <v>479</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B60" s="12">
         <f t="shared" si="1"/>
@@ -4520,34 +4532,34 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F60" s="9">
         <v>2.04</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N60" s="3"/>
     </row>
@@ -4563,34 +4575,34 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F61" s="9">
         <v>2.02</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N61" s="3"/>
     </row>
@@ -4606,19 +4618,19 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F62" s="9">
         <v>1.03</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>4</v>
@@ -4636,7 +4648,7 @@
         <v>96</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -4651,34 +4663,34 @@
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F63" s="9">
         <v>2.06</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N63" s="3"/>
     </row>
@@ -4694,34 +4706,34 @@
         <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F64" s="9">
         <v>10.01</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H64" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="I64" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="J64" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N64" s="3"/>
     </row>
@@ -4737,40 +4749,40 @@
         <v>10</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F65" s="9">
         <v>10.029999999999999</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="I65" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="K65" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B66" s="12">
         <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N66))),NOT(ISERROR(SEARCH("app.box.com",N66))),NOT(ISERROR(SEARCH("islamway.net",N66))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N66))),NOT(ISERROR(SEARCH("tanzil.net",N66))),NOT(ISERROR(SEARCH("alsirah.com",N66))),NOT(ISERROR(SEARCH("i36",N66))),(RIGHT(N66,4)=".pdf"),C66=6,C66=8,C66=9),0,1)</f>
@@ -4780,34 +4792,34 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F66" s="9">
         <v>2.0699999999999998</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N66" s="3"/>
     </row>
@@ -4823,34 +4835,34 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F67" s="9">
         <v>1.1299999999999999</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="I67" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J67" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="K67" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N67" s="3"/>
     </row>
@@ -4866,34 +4878,34 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F68" s="9">
         <v>9.02</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N68" s="3"/>
     </row>
@@ -4909,40 +4921,40 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F69" s="9">
         <v>9.01</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N69" s="3"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B70" s="12">
         <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N70))),NOT(ISERROR(SEARCH("app.box.com",N70))),NOT(ISERROR(SEARCH("islamway.net",N70))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N70))),NOT(ISERROR(SEARCH("tanzil.net",N70))),NOT(ISERROR(SEARCH("alsirah.com",N70))),NOT(ISERROR(SEARCH("i36",N70))),(RIGHT(N70,4)=".pdf"),C70=6,C70=8,C70=9),0,1)</f>
@@ -4952,49 +4964,92 @@
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F70" s="9">
         <v>2.0299999999999998</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N70" s="3"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="13">
-        <f>SUBTOTAL(2,A2:A70)</f>
-        <v>69</v>
-      </c>
-      <c r="B71" s="14">
-        <f>SUBTOTAL(9,B2:B70)</f>
-        <v>34</v>
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+      <c r="B71" s="12">
+        <f t="shared" ref="B71" si="3">IF(OR(NOT(ISERROR(SEARCH("archive.org",N71))),NOT(ISERROR(SEARCH("app.box.com",N71))),NOT(ISERROR(SEARCH("islamway.net",N71))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N71))),NOT(ISERROR(SEARCH("tanzil.net",N71))),NOT(ISERROR(SEARCH("alsirah.com",N71))),NOT(ISERROR(SEARCH("i36",N71))),(RIGHT(N71,4)=".pdf"),C71=6,C71=8,C71=9),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C71" s="7">
+        <v>7</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F71" s="9">
+        <v>7.05</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="13">
+        <f>SUBTOTAL(2,A2:A71)</f>
+        <v>70</v>
+      </c>
+      <c r="B72" s="14">
+        <f>SUBTOTAL(9,B2:B71)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N70" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:N71" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
@@ -5026,10 +5081,14 @@
     <hyperlink ref="N62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="N7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="N26" r:id="rId25" xr:uid="{742E1151-3CAD-44FB-BC3B-4D9A38239DCF}"/>
+    <hyperlink ref="M19" r:id="rId26" xr:uid="{46526B82-B3BC-4D6D-95A4-561FC44D73E6}"/>
+    <hyperlink ref="L19" r:id="rId27" xr:uid="{FE52B1B3-3179-44EF-9C81-D1566AFC8E21}"/>
+    <hyperlink ref="K19" r:id="rId28" xr:uid="{944057B4-8AD0-4EB4-A491-B6CDDE8EF363}"/>
+    <hyperlink ref="J19" r:id="rId29" xr:uid="{6847797F-4B44-4D75-B7B6-20C36859B747}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId26"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId30"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -5039,11 +5098,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5052,75 +5111,81 @@
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="F2" s="16">
         <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
-        <v>45087</v>
+        <v>45090</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>284</v>
+        <v>481</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:H2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -5147,73 +5212,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>480</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -5221,36 +5286,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N2" s="20">
         <v>31</v>
@@ -5259,10 +5324,10 @@
         <v>31</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="R2" s="20">
         <v>30</v>
@@ -5288,36 +5353,36 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="N3" s="20">
         <v>28</v>
@@ -5326,10 +5391,10 @@
         <v>29</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="R3" s="20">
         <v>30</v>
@@ -5355,36 +5420,36 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N4" s="20">
         <v>31</v>
@@ -5393,10 +5458,10 @@
         <v>31</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="R4" s="20">
         <v>30</v>
@@ -5422,36 +5487,36 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N5" s="20">
         <v>30</v>
@@ -5460,10 +5525,10 @@
         <v>30</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="R5" s="20">
         <v>30</v>
@@ -5489,36 +5554,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N6" s="20">
         <v>31</v>
@@ -5527,10 +5592,10 @@
         <v>31</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="R6" s="20">
         <v>30</v>
@@ -5556,36 +5621,36 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N7" s="20">
         <v>30</v>
@@ -5594,10 +5659,10 @@
         <v>30</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="R7" s="20">
         <v>30</v>
@@ -5623,36 +5688,36 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N8" s="20">
         <v>31</v>
@@ -5661,10 +5726,10 @@
         <v>31</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="R8" s="20">
         <v>30</v>
@@ -5693,27 +5758,27 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N9" s="20">
         <v>31</v>
@@ -5722,10 +5787,10 @@
         <v>31</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="R9" s="20">
         <v>30</v>
@@ -5754,27 +5819,27 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N10" s="20">
         <v>30</v>
@@ -5783,10 +5848,10 @@
         <v>30</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R10" s="20">
         <v>30</v>
@@ -5815,27 +5880,27 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N11" s="20">
         <v>31</v>
@@ -5844,10 +5909,10 @@
         <v>31</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R11" s="20">
         <v>30</v>
@@ -5876,27 +5941,27 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N12" s="20">
         <v>30</v>
@@ -5905,10 +5970,10 @@
         <v>30</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="R12" s="20">
         <v>30</v>
@@ -5937,27 +6002,27 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N13" s="20">
         <v>31</v>
@@ -5966,10 +6031,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R13" s="20">
         <v>30</v>
@@ -6011,10 +6076,10 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R14" s="20">
         <v>5</v>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohamedK\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6067733-CB8F-4AAF-ACF9-E5C846ED5E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -20,17 +14,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Calendars!$A$1:$W$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Complements!$A$1:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$74</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Calendars!$A:$A,Calendars!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="114210" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="491">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -743,12 +737,6 @@
     <t>شتى</t>
   </si>
   <si>
-    <t>الأخلاق و الرقائق</t>
-  </si>
-  <si>
-    <t>Ethics&amp;Tenders</t>
-  </si>
-  <si>
     <t>https://shamela.ws/book/84</t>
   </si>
   <si>
@@ -797,9 +785,6 @@
     <t>«مصنف ابن أبي شيبة»</t>
   </si>
   <si>
-    <t>«الجامع الكبير» المسمى «جمع الجوامع»</t>
-  </si>
-  <si>
     <t>ماسح الأطعمة (حلال)</t>
   </si>
   <si>
@@ -1469,25 +1454,61 @@
     <t>history</t>
   </si>
   <si>
-    <t>طبعة @ 2023/06/13 م - 1444/11/24 هـ</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
     <t>* Don’t delete record in online DB as its "ID" is used in App!</t>
+  </si>
+  <si>
+    <t>التجويد</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/22929</t>
+  </si>
+  <si>
+    <t>«جمع الجوامع» = «الجامع الكبير»</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/06/14 م - 1444/11/25 هـ</t>
+  </si>
+  <si>
+    <t>التزكية</t>
+  </si>
+  <si>
+    <t>Zacchaeus</t>
+  </si>
+  <si>
+    <t>QuranIntonation</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/102541</t>
+  </si>
+  <si>
+    <t>سير الصحابة العشرة</t>
+  </si>
+  <si>
+    <t>CompanionsBiography</t>
+  </si>
+  <si>
+    <t>HistoryBrief</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/5780</t>
+  </si>
+  <si>
+    <t>«الشماريخ في علم التاريخ»</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1655,21 +1676,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1707,7 +1720,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1741,7 +1754,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1776,10 +1788,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1952,8 +1963,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1962,7 +1973,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -1972,12 +1983,12 @@
     <col min="10" max="14" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>86</v>
@@ -2013,10 +2024,10 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2028,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F2" s="9">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>27</v>
@@ -2059,7 +2070,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2071,10 +2082,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F3" s="9">
         <v>1.01</v>
@@ -2102,52 +2113,50 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N4))),NOT(ISERROR(SEARCH("app.box.com",N4))),NOT(ISERROR(SEARCH("islamway.net",N4))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N4))),NOT(ISERROR(SEARCH("tanzil.net",N4))),NOT(ISERROR(SEARCH("alsirah.com",N4))),NOT(ISERROR(SEARCH("i36",N4))),(RIGHT(N4,4)=".pdf"),C4=6,C4=8,C4=9),0,1)</f>
+        <v>1</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F4" s="9">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>199</v>
+        <v>484</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>304</v>
+        <v>478</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>302</v>
+        <v>479</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>302</v>
+        <v>479</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>302</v>
+        <v>479</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>228</v>
@@ -2168,13 +2177,13 @@
         <v>10.02</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>83</v>
@@ -2186,11 +2195,11 @@
         <v>85</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2233,7 +2242,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2263,22 +2272,22 @@
         <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2290,13 +2299,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F8" s="9">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>104</v>
@@ -2321,7 +2330,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2333,16 +2342,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F9" s="9">
         <v>2.0099999999999998</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>94</v>
@@ -2364,7 +2373,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2385,29 +2394,29 @@
         <v>8.0299999999999994</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>194</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2425,7 +2434,7 @@
         <v>236</v>
       </c>
       <c r="F11" s="9">
-        <v>7.03</v>
+        <v>7.01</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>41</v>
@@ -2450,7 +2459,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2493,7 +2502,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2536,7 +2545,7 @@
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2563,7 +2572,7 @@
         <v>189</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>188</v>
@@ -2579,7 +2588,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2597,13 +2606,13 @@
         <v>236</v>
       </c>
       <c r="F15" s="9">
-        <v>7.08</v>
+        <v>7.07</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>102</v>
@@ -2622,7 +2631,7 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2643,34 +2652,34 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N17))),NOT(ISERROR(SEARCH("app.box.com",N17))),NOT(ISERROR(SEARCH("islamway.net",N17))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N17))),NOT(ISERROR(SEARCH("tanzil.net",N17))),NOT(ISERROR(SEARCH("alsirah.com",N17))),NOT(ISERROR(SEARCH("i36",N17))),(RIGHT(N17,4)=".pdf"),C17=6,C17=8,C17=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C17" s="7">
@@ -2683,32 +2692,32 @@
         <v>236</v>
       </c>
       <c r="F17" s="9">
-        <v>7.06</v>
+        <v>7.04</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>230</v>
+        <v>488</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>231</v>
+        <v>490</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>232</v>
+        <v>489</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>232</v>
+        <v>489</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>232</v>
+        <v>489</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>232</v>
+        <v>489</v>
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2732,7 +2741,7 @@
         <v>82</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>77</v>
@@ -2751,7 +2760,7 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2769,75 +2778,75 @@
         <v>236</v>
       </c>
       <c r="F19" s="9">
-        <v>7.07</v>
+        <v>7.06</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N20))),NOT(ISERROR(SEARCH("app.box.com",N20))),NOT(ISERROR(SEARCH("islamway.net",N20))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N20))),NOT(ISERROR(SEARCH("tanzil.net",N20))),NOT(ISERROR(SEARCH("alsirah.com",N20))),NOT(ISERROR(SEARCH("i36",N20))),(RIGHT(N20,4)=".pdf"),C20=6,C20=8,C20=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>235</v>
+        <v>483</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>236</v>
+        <v>482</v>
       </c>
       <c r="F20" s="9">
-        <v>7.02</v>
+        <v>5.04</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>54</v>
+        <v>259</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2870,60 +2879,60 @@
         <v>32</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N22))),NOT(ISERROR(SEARCH("app.box.com",N22))),NOT(ISERROR(SEARCH("islamway.net",N22))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N22))),NOT(ISERROR(SEARCH("tanzil.net",N22))),NOT(ISERROR(SEARCH("alsirah.com",N22))),NOT(ISERROR(SEARCH("i36",N22))),(RIGHT(N22,4)=".pdf"),C22=6,C22=8,C22=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C22" s="7">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>238</v>
+        <v>483</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>237</v>
+        <v>482</v>
       </c>
       <c r="F22" s="9">
         <v>5.01</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2966,7 +2975,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -3009,7 +3018,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3018,41 +3027,41 @@
         <v>1</v>
       </c>
       <c r="C25" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>235</v>
+        <v>483</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>236</v>
+        <v>482</v>
       </c>
       <c r="F25" s="9">
-        <v>7.01</v>
+        <v>5.03</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3064,10 +3073,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F26" s="9">
         <v>1.02</v>
@@ -3094,55 +3103,53 @@
         <v>97</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N27))),NOT(ISERROR(SEARCH("app.box.com",N27))),NOT(ISERROR(SEARCH("islamway.net",N27))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N27))),NOT(ISERROR(SEARCH("tanzil.net",N27))),NOT(ISERROR(SEARCH("alsirah.com",N27))),NOT(ISERROR(SEARCH("i36",N27))),(RIGHT(N27,4)=".pdf"),C27=6,C27=8,C27=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F27" s="9">
-        <v>2.0499999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>487</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>21</v>
+        <v>486</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>19</v>
+        <v>485</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>19</v>
+        <v>485</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>19</v>
+        <v>485</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3185,7 +3192,7 @@
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3212,7 +3219,7 @@
         <v>163</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>130</v>
@@ -3228,7 +3235,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3271,50 +3278,50 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N31))),NOT(ISERROR(SEARCH("app.box.com",N31))),NOT(ISERROR(SEARCH("islamway.net",N31))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N31))),NOT(ISERROR(SEARCH("tanzil.net",N31))),NOT(ISERROR(SEARCH("alsirah.com",N31))),NOT(ISERROR(SEARCH("i36",N31))),(RIGHT(N31,4)=".pdf"),C31=6,C31=8,C31=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C31" s="7">
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>238</v>
+        <v>483</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>237</v>
+        <v>482</v>
       </c>
       <c r="F31" s="9">
         <v>5.0199999999999996</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>262</v>
+        <v>52</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>262</v>
+        <v>54</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -3341,7 +3348,7 @@
         <v>151</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>112</v>
@@ -3357,7 +3364,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -3384,7 +3391,7 @@
         <v>178</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>141</v>
@@ -3400,7 +3407,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -3443,7 +3450,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3470,7 +3477,7 @@
         <v>161</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>162</v>
@@ -3486,7 +3493,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3529,7 +3536,7 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3556,7 +3563,7 @@
         <v>143</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>116</v>
@@ -3572,7 +3579,7 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3615,7 +3622,7 @@
       </c>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3642,7 +3649,7 @@
         <v>156</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>126</v>
@@ -3658,7 +3665,7 @@
       </c>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3685,7 +3692,7 @@
         <v>150</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>117</v>
@@ -3701,7 +3708,7 @@
       </c>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3728,7 +3735,7 @@
         <v>154</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>125</v>
@@ -3744,7 +3751,7 @@
       </c>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3787,7 +3794,7 @@
       </c>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3830,7 +3837,7 @@
       </c>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3857,7 +3864,7 @@
         <v>160</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>123</v>
@@ -3873,7 +3880,7 @@
       </c>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3916,7 +3923,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3959,7 +3966,7 @@
       </c>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -4002,7 +4009,7 @@
       </c>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -4029,7 +4036,7 @@
         <v>176</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>140</v>
@@ -4045,7 +4052,7 @@
       </c>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -4072,7 +4079,7 @@
         <v>146</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>121</v>
@@ -4088,7 +4095,7 @@
       </c>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -4131,7 +4138,7 @@
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -4158,7 +4165,7 @@
         <v>90</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>60</v>
@@ -4174,7 +4181,7 @@
       </c>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -4217,7 +4224,7 @@
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -4260,7 +4267,7 @@
       </c>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -4302,10 +4309,10 @@
         <v>212</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -4317,13 +4324,13 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>238</v>
+        <v>483</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>237</v>
+        <v>482</v>
       </c>
       <c r="F55" s="9">
-        <v>5.03</v>
+        <v>5.05</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>104</v>
@@ -4335,20 +4342,20 @@
         <v>106</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -4366,13 +4373,13 @@
         <v>236</v>
       </c>
       <c r="F56" s="9">
-        <v>7.04</v>
+        <v>7.02</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>15</v>
@@ -4391,7 +4398,7 @@
       </c>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -4415,7 +4422,7 @@
         <v>68</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>197</v>
@@ -4434,7 +4441,7 @@
       </c>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -4477,7 +4484,7 @@
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -4489,7 +4496,7 @@
         <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>228</v>
@@ -4498,10 +4505,10 @@
         <v>10.039999999999999</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>227</v>
@@ -4520,138 +4527,138 @@
       </c>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="11">
         <v>59</v>
       </c>
       <c r="B60" s="12">
-        <f t="shared" si="1"/>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N60))),NOT(ISERROR(SEARCH("app.box.com",N60))),NOT(ISERROR(SEARCH("islamway.net",N60))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N60))),NOT(ISERROR(SEARCH("tanzil.net",N60))),NOT(ISERROR(SEARCH("alsirah.com",N60))),NOT(ISERROR(SEARCH("i36",N60))),(RIGHT(N60,4)=".pdf"),C60=6,C60=8,C60=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C60" s="7">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F60" s="9">
-        <v>2.04</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="11">
         <v>60</v>
       </c>
       <c r="B61" s="12">
-        <f t="shared" si="1"/>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N61))),NOT(ISERROR(SEARCH("app.box.com",N61))),NOT(ISERROR(SEARCH("islamway.net",N61))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N61))),NOT(ISERROR(SEARCH("tanzil.net",N61))),NOT(ISERROR(SEARCH("alsirah.com",N61))),NOT(ISERROR(SEARCH("i36",N61))),(RIGHT(N61,4)=".pdf"),C61=6,C61=8,C61=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C61" s="7">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F61" s="9">
-        <v>2.02</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="H61" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="11">
         <v>61</v>
       </c>
       <c r="B62" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="7">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F62" s="9">
-        <v>1.03</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4663,38 +4670,38 @@
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F63" s="9">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4706,7 +4713,7 @@
         <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>228</v>
@@ -4715,29 +4722,29 @@
         <v>10.01</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4749,7 +4756,7 @@
         <v>10</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>228</v>
@@ -4758,72 +4765,74 @@
         <v>10.029999999999999</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="J65" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="11">
         <v>65</v>
       </c>
       <c r="B66" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N66))),NOT(ISERROR(SEARCH("app.box.com",N66))),NOT(ISERROR(SEARCH("islamway.net",N66))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N66))),NOT(ISERROR(SEARCH("tanzil.net",N66))),NOT(ISERROR(SEARCH("alsirah.com",N66))),NOT(ISERROR(SEARCH("i36",N66))),(RIGHT(N66,4)=".pdf"),C66=6,C66=8,C66=9),0,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C66" s="7">
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F66" s="9">
-        <v>2.0699999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>317</v>
+        <v>21</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4835,13 +4844,13 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F67" s="9">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>104</v>
@@ -4866,7 +4875,7 @@
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4878,129 +4887,129 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F68" s="9">
         <v>9.02</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="11">
         <v>68</v>
       </c>
       <c r="B69" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N69))),NOT(ISERROR(SEARCH("app.box.com",N69))),NOT(ISERROR(SEARCH("islamway.net",N69))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N69))),NOT(ISERROR(SEARCH("tanzil.net",N69))),NOT(ISERROR(SEARCH("alsirah.com",N69))),NOT(ISERROR(SEARCH("i36",N69))),(RIGHT(N69,4)=".pdf"),C69=6,C69=8,C69=9),0,1)</f>
+        <f t="shared" ref="B69:B74" si="3">IF(OR(NOT(ISERROR(SEARCH("archive.org",N69))),NOT(ISERROR(SEARCH("app.box.com",N69))),NOT(ISERROR(SEARCH("islamway.net",N69))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N69))),NOT(ISERROR(SEARCH("tanzil.net",N69))),NOT(ISERROR(SEARCH("alsirah.com",N69))),NOT(ISERROR(SEARCH("i36",N69))),(RIGHT(N69,4)=".pdf"),C69=6,C69=8,C69=9),0,1)</f>
         <v>0</v>
       </c>
       <c r="C69" s="7">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F69" s="9">
         <v>9.01</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="11">
         <v>69</v>
       </c>
       <c r="B70" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N70))),NOT(ISERROR(SEARCH("app.box.com",N70))),NOT(ISERROR(SEARCH("islamway.net",N70))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N70))),NOT(ISERROR(SEARCH("tanzil.net",N70))),NOT(ISERROR(SEARCH("alsirah.com",N70))),NOT(ISERROR(SEARCH("i36",N70))),(RIGHT(N70,4)=".pdf"),C70=6,C70=8,C70=9),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C70" s="7">
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E70" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F70" s="9">
+        <v>2.04</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F70" s="9">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="H70" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="11">
         <v>70</v>
       </c>
       <c r="B71" s="12">
-        <f t="shared" ref="B71" si="3">IF(OR(NOT(ISERROR(SEARCH("archive.org",N71))),NOT(ISERROR(SEARCH("app.box.com",N71))),NOT(ISERROR(SEARCH("islamway.net",N71))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N71))),NOT(ISERROR(SEARCH("tanzil.net",N71))),NOT(ISERROR(SEARCH("alsirah.com",N71))),NOT(ISERROR(SEARCH("i36",N71))),(RIGHT(N71,4)=".pdf"),C71=6,C71=8,C71=9),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C71" s="7">
@@ -5016,79 +5025,222 @@
         <v>7.05</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J71" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F72" s="9">
+        <v>1.03</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C73" s="7">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" s="9">
+        <v>2.02</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C74" s="7">
+        <v>7</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" s="9">
+        <v>7.03</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L71" s="3" t="s">
+      <c r="L74" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M71" s="3" t="s">
+      <c r="M74" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="13">
-        <f>SUBTOTAL(2,A2:A71)</f>
-        <v>70</v>
-      </c>
-      <c r="B72" s="14">
-        <f>SUBTOTAL(9,B2:B71)</f>
-        <v>35</v>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="13">
+        <f>SUBTOTAL(2,A2:A74)</f>
+        <v>73</v>
+      </c>
+      <c r="B75" s="14">
+        <f>SUBTOTAL(9,B2:B74)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N71" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
+  <autoFilter ref="A1:N74">
+    <sortState ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K63" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L63" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M63" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="N4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J68" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J69" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K69" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L69" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M69" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J66" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K66" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L66" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M66" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="N62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="N7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="N26" r:id="rId25" xr:uid="{742E1151-3CAD-44FB-BC3B-4D9A38239DCF}"/>
-    <hyperlink ref="M19" r:id="rId26" xr:uid="{46526B82-B3BC-4D6D-95A4-561FC44D73E6}"/>
-    <hyperlink ref="L19" r:id="rId27" xr:uid="{FE52B1B3-3179-44EF-9C81-D1566AFC8E21}"/>
-    <hyperlink ref="K19" r:id="rId28" xr:uid="{944057B4-8AD0-4EB4-A491-B6CDDE8EF363}"/>
-    <hyperlink ref="J19" r:id="rId29" xr:uid="{6847797F-4B44-4D75-B7B6-20C36859B747}"/>
+    <hyperlink ref="J63" r:id="rId1"/>
+    <hyperlink ref="K63" r:id="rId2"/>
+    <hyperlink ref="L63" r:id="rId3"/>
+    <hyperlink ref="M63" r:id="rId4"/>
+    <hyperlink ref="J7" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="L7" r:id="rId7"/>
+    <hyperlink ref="M7" r:id="rId8"/>
+    <hyperlink ref="J68" r:id="rId9"/>
+    <hyperlink ref="J69" r:id="rId10"/>
+    <hyperlink ref="K69" r:id="rId11"/>
+    <hyperlink ref="L69" r:id="rId12"/>
+    <hyperlink ref="M69" r:id="rId13"/>
+    <hyperlink ref="N7" r:id="rId14"/>
+    <hyperlink ref="N26" r:id="rId15"/>
+    <hyperlink ref="M19" r:id="rId16"/>
+    <hyperlink ref="L19" r:id="rId17"/>
+    <hyperlink ref="K19" r:id="rId18"/>
+    <hyperlink ref="J19" r:id="rId19"/>
+    <hyperlink ref="J4" r:id="rId20"/>
+    <hyperlink ref="K4" r:id="rId21"/>
+    <hyperlink ref="L4" r:id="rId22"/>
+    <hyperlink ref="M4" r:id="rId23"/>
+    <hyperlink ref="L62" r:id="rId24"/>
+    <hyperlink ref="K62" r:id="rId25"/>
+    <hyperlink ref="J62" r:id="rId26"/>
+    <hyperlink ref="M62" r:id="rId27"/>
+    <hyperlink ref="N62" r:id="rId28"/>
+    <hyperlink ref="N72" r:id="rId29"/>
+    <hyperlink ref="J27" r:id="rId30"/>
+    <hyperlink ref="K27" r:id="rId31"/>
+    <hyperlink ref="L27" r:id="rId32"/>
+    <hyperlink ref="M27" r:id="rId33"/>
+    <hyperlink ref="J60" r:id="rId34"/>
+    <hyperlink ref="K60" r:id="rId35"/>
+    <hyperlink ref="L60" r:id="rId36"/>
+    <hyperlink ref="M60" r:id="rId37"/>
+    <hyperlink ref="J17" r:id="rId38"/>
+    <hyperlink ref="K17" r:id="rId39"/>
+    <hyperlink ref="L17" r:id="rId40"/>
+    <hyperlink ref="M17" r:id="rId41"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId30"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId42"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -5097,7 +5249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5105,92 +5257,92 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>280</v>
-      </c>
       <c r="F2" s="16">
-        <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
-        <v>45090</v>
+        <f ca="1">DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
+        <v>45091</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H2" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="C6" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:H2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5203,119 +5355,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C174FB9-107C-4B3A-B5CD-4C8C607A3429}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N2" s="20">
         <v>31</v>
@@ -5324,10 +5476,10 @@
         <v>31</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="R2" s="20">
         <v>30</v>
@@ -5348,41 +5500,41 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N3" s="20">
         <v>28</v>
@@ -5391,10 +5543,10 @@
         <v>29</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="R3" s="20">
         <v>30</v>
@@ -5415,41 +5567,41 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N4" s="20">
         <v>31</v>
@@ -5458,10 +5610,10 @@
         <v>31</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="R4" s="20">
         <v>30</v>
@@ -5482,41 +5634,41 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N5" s="20">
         <v>30</v>
@@ -5525,10 +5677,10 @@
         <v>30</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="R5" s="20">
         <v>30</v>
@@ -5549,41 +5701,41 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N6" s="20">
         <v>31</v>
@@ -5592,10 +5744,10 @@
         <v>31</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="R6" s="20">
         <v>30</v>
@@ -5616,41 +5768,41 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N7" s="20">
         <v>30</v>
@@ -5659,10 +5811,10 @@
         <v>30</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="R7" s="20">
         <v>30</v>
@@ -5683,41 +5835,41 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N8" s="20">
         <v>31</v>
@@ -5726,10 +5878,10 @@
         <v>31</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="R8" s="20">
         <v>30</v>
@@ -5750,7 +5902,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -5758,27 +5910,27 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N9" s="20">
         <v>31</v>
@@ -5787,10 +5939,10 @@
         <v>31</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="R9" s="20">
         <v>30</v>
@@ -5811,7 +5963,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -5819,27 +5971,27 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N10" s="20">
         <v>30</v>
@@ -5848,10 +6000,10 @@
         <v>30</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="R10" s="20">
         <v>30</v>
@@ -5872,7 +6024,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -5880,27 +6032,27 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N11" s="20">
         <v>31</v>
@@ -5909,10 +6061,10 @@
         <v>31</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="R11" s="20">
         <v>30</v>
@@ -5933,7 +6085,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -5941,27 +6093,27 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N12" s="20">
         <v>30</v>
@@ -5970,10 +6122,10 @@
         <v>30</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="R12" s="20">
         <v>30</v>
@@ -5994,7 +6146,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -6002,27 +6154,27 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N13" s="20">
         <v>31</v>
@@ -6031,10 +6183,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="R13" s="20">
         <v>30</v>
@@ -6055,7 +6207,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -6076,10 +6228,10 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="R14" s="20">
         <v>5</v>
@@ -6101,7 +6253,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W14" xr:uid="{2C174FB9-107C-4B3A-B5CD-4C8C607A3429}"/>
+  <autoFilter ref="A1:W14"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -2032,8 +2032,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N2))),NOT(ISERROR(SEARCH("app.box.com",N2))),NOT(ISERROR(SEARCH("islamway.net",N2))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N2))),NOT(ISERROR(SEARCH("tanzil.net",N2))),NOT(ISERROR(SEARCH("alsirah.com",N2))),NOT(ISERROR(SEARCH("i36",N2))),(RIGHT(N2,4)=".pdf"),C2=6,C2=8,C2=9),0,1)</f>
-        <v>1</v>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",M2))),NOT(ISERROR(SEARCH("app.box.com",M2))),NOT(ISERROR(SEARCH("islamway.net",M2))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M2))),NOT(ISERROR(SEARCH("tanzil.net",M2))),NOT(ISERROR(SEARCH("alsirah.com",M2))),NOT(ISERROR(SEARCH("i36",M2))),(RIGHT(M2,4)=".pdf"),C2=6,C2=8,C2=9),0,1)</f>
+        <v>0</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -2075,8 +2075,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <f t="shared" ref="B3:B32" si="0">IF(OR(NOT(ISERROR(SEARCH("archive.org",N3))),NOT(ISERROR(SEARCH("app.box.com",N3))),NOT(ISERROR(SEARCH("islamway.net",N3))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N3))),NOT(ISERROR(SEARCH("tanzil.net",N3))),NOT(ISERROR(SEARCH("alsirah.com",N3))),NOT(ISERROR(SEARCH("i36",N3))),(RIGHT(N3,4)=".pdf"),C3=6,C3=8,C3=9),0,1)</f>
-        <v>1</v>
+        <f t="shared" ref="B3:B66" si="0">IF(OR(NOT(ISERROR(SEARCH("archive.org",M3))),NOT(ISERROR(SEARCH("app.box.com",M3))),NOT(ISERROR(SEARCH("islamway.net",M3))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M3))),NOT(ISERROR(SEARCH("tanzil.net",M3))),NOT(ISERROR(SEARCH("alsirah.com",M3))),NOT(ISERROR(SEARCH("i36",M3))),(RIGHT(M3,4)=".pdf"),C3=6,C3=8,C3=9),0,1)</f>
+        <v>0</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N4))),NOT(ISERROR(SEARCH("app.box.com",N4))),NOT(ISERROR(SEARCH("islamway.net",N4))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N4))),NOT(ISERROR(SEARCH("tanzil.net",N4))),NOT(ISERROR(SEARCH("alsirah.com",N4))),NOT(ISERROR(SEARCH("i36",N4))),(RIGHT(N4,4)=".pdf"),C4=6,C4=8,C4=9),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" s="7">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B5" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B11" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="7">
         <v>7</v>
@@ -2679,7 +2679,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N17))),NOT(ISERROR(SEARCH("app.box.com",N17))),NOT(ISERROR(SEARCH("islamway.net",N17))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N17))),NOT(ISERROR(SEARCH("tanzil.net",N17))),NOT(ISERROR(SEARCH("alsirah.com",N17))),NOT(ISERROR(SEARCH("i36",N17))),(RIGHT(N17,4)=".pdf"),C17=6,C17=8,C17=9),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C17" s="7">
@@ -2808,7 +2808,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N20))),NOT(ISERROR(SEARCH("app.box.com",N20))),NOT(ISERROR(SEARCH("islamway.net",N20))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N20))),NOT(ISERROR(SEARCH("tanzil.net",N20))),NOT(ISERROR(SEARCH("alsirah.com",N20))),NOT(ISERROR(SEARCH("i36",N20))),(RIGHT(N20,4)=".pdf"),C20=6,C20=8,C20=9),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C20" s="7">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N22))),NOT(ISERROR(SEARCH("app.box.com",N22))),NOT(ISERROR(SEARCH("islamway.net",N22))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N22))),NOT(ISERROR(SEARCH("tanzil.net",N22))),NOT(ISERROR(SEARCH("alsirah.com",N22))),NOT(ISERROR(SEARCH("i36",N22))),(RIGHT(N22,4)=".pdf"),C22=6,C22=8,C22=9),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C22" s="7">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B25" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="7">
         <v>5</v>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="B26" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -3111,7 +3111,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N27))),NOT(ISERROR(SEARCH("app.box.com",N27))),NOT(ISERROR(SEARCH("islamway.net",N27))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N27))),NOT(ISERROR(SEARCH("tanzil.net",N27))),NOT(ISERROR(SEARCH("alsirah.com",N27))),NOT(ISERROR(SEARCH("i36",N27))),(RIGHT(N27,4)=".pdf"),C27=6,C27=8,C27=9),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C27" s="7">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B28" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="7">
         <v>4</v>
@@ -3283,8 +3283,8 @@
         <v>30</v>
       </c>
       <c r="B31" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N31))),NOT(ISERROR(SEARCH("app.box.com",N31))),NOT(ISERROR(SEARCH("islamway.net",N31))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N31))),NOT(ISERROR(SEARCH("tanzil.net",N31))),NOT(ISERROR(SEARCH("alsirah.com",N31))),NOT(ISERROR(SEARCH("i36",N31))),(RIGHT(N31,4)=".pdf"),C31=6,C31=8,C31=9),0,1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C31" s="7">
         <v>5</v>
@@ -3369,7 +3369,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="12">
-        <f t="shared" ref="B33:B62" si="1">IF(OR(NOT(ISERROR(SEARCH("archive.org",N33))),NOT(ISERROR(SEARCH("app.box.com",N33))),NOT(ISERROR(SEARCH("islamway.net",N33))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N33))),NOT(ISERROR(SEARCH("tanzil.net",N33))),NOT(ISERROR(SEARCH("alsirah.com",N33))),NOT(ISERROR(SEARCH("i36",N33))),(RIGHT(N33,4)=".pdf"),C33=6,C33=8,C33=9),0,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C33" s="7">
@@ -3412,7 +3412,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C34" s="7">
@@ -3455,7 +3455,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C35" s="7">
@@ -3498,7 +3498,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C36" s="7">
@@ -3541,7 +3541,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C37" s="7">
@@ -3584,7 +3584,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C38" s="7">
@@ -3627,7 +3627,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C39" s="7">
@@ -3670,7 +3670,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C40" s="7">
@@ -3713,7 +3713,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C41" s="7">
@@ -3756,7 +3756,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C42" s="7">
@@ -3799,7 +3799,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C43" s="7">
@@ -3842,7 +3842,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C44" s="7">
@@ -3885,7 +3885,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C45" s="7">
@@ -3928,7 +3928,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C46" s="7">
@@ -3971,7 +3971,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C47" s="7">
@@ -4014,7 +4014,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C48" s="7">
@@ -4057,7 +4057,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C49" s="7">
@@ -4100,7 +4100,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C50" s="7">
@@ -4143,7 +4143,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C51" s="7">
@@ -4186,7 +4186,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C52" s="7">
@@ -4229,7 +4229,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C53" s="7">
@@ -4272,8 +4272,8 @@
         <v>53</v>
       </c>
       <c r="B54" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C54" s="7">
         <v>3</v>
@@ -4317,7 +4317,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C55" s="7">
@@ -4360,8 +4360,8 @@
         <v>55</v>
       </c>
       <c r="B56" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C56" s="7">
         <v>7</v>
@@ -4403,7 +4403,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C57" s="7">
@@ -4446,7 +4446,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C58" s="7">
@@ -4489,8 +4489,8 @@
         <v>58</v>
       </c>
       <c r="B59" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C59" s="7">
         <v>10</v>
@@ -4532,7 +4532,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N60))),NOT(ISERROR(SEARCH("app.box.com",N60))),NOT(ISERROR(SEARCH("islamway.net",N60))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N60))),NOT(ISERROR(SEARCH("tanzil.net",N60))),NOT(ISERROR(SEARCH("alsirah.com",N60))),NOT(ISERROR(SEARCH("i36",N60))),(RIGHT(N60,4)=".pdf"),C60=6,C60=8,C60=9),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C60" s="7">
@@ -4575,7 +4575,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N61))),NOT(ISERROR(SEARCH("app.box.com",N61))),NOT(ISERROR(SEARCH("islamway.net",N61))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N61))),NOT(ISERROR(SEARCH("tanzil.net",N61))),NOT(ISERROR(SEARCH("alsirah.com",N61))),NOT(ISERROR(SEARCH("i36",N61))),(RIGHT(N61,4)=".pdf"),C61=6,C61=8,C61=9),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C61" s="7">
@@ -4618,8 +4618,8 @@
         <v>61</v>
       </c>
       <c r="B62" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C62" s="7">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="12">
-        <f t="shared" ref="B63:B68" si="2">IF(OR(NOT(ISERROR(SEARCH("archive.org",N63))),NOT(ISERROR(SEARCH("app.box.com",N63))),NOT(ISERROR(SEARCH("islamway.net",N63))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N63))),NOT(ISERROR(SEARCH("tanzil.net",N63))),NOT(ISERROR(SEARCH("alsirah.com",N63))),NOT(ISERROR(SEARCH("i36",N63))),(RIGHT(N63,4)=".pdf"),C63=6,C63=8,C63=9),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C63" s="7">
@@ -4706,8 +4706,8 @@
         <v>63</v>
       </c>
       <c r="B64" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C64" s="7">
         <v>10</v>
@@ -4749,7 +4749,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C65" s="7">
@@ -4792,8 +4792,8 @@
         <v>65</v>
       </c>
       <c r="B66" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C66" s="7">
         <v>2</v>
@@ -4837,7 +4837,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B67:B74" si="1">IF(OR(NOT(ISERROR(SEARCH("archive.org",M67))),NOT(ISERROR(SEARCH("app.box.com",M67))),NOT(ISERROR(SEARCH("islamway.net",M67))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M67))),NOT(ISERROR(SEARCH("tanzil.net",M67))),NOT(ISERROR(SEARCH("alsirah.com",M67))),NOT(ISERROR(SEARCH("i36",M67))),(RIGHT(M67,4)=".pdf"),C67=6,C67=8,C67=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C67" s="7">
@@ -4880,7 +4880,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C68" s="7">
@@ -4923,7 +4923,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="12">
-        <f t="shared" ref="B69:B74" si="3">IF(OR(NOT(ISERROR(SEARCH("archive.org",N69))),NOT(ISERROR(SEARCH("app.box.com",N69))),NOT(ISERROR(SEARCH("islamway.net",N69))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N69))),NOT(ISERROR(SEARCH("tanzil.net",N69))),NOT(ISERROR(SEARCH("alsirah.com",N69))),NOT(ISERROR(SEARCH("i36",N69))),(RIGHT(N69,4)=".pdf"),C69=6,C69=8,C69=9),0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C69" s="7">
@@ -4966,7 +4966,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C70" s="7">
@@ -5009,8 +5009,8 @@
         <v>70</v>
       </c>
       <c r="B71" s="12">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="C71" s="7">
         <v>7</v>
@@ -5052,8 +5052,8 @@
         <v>71</v>
       </c>
       <c r="B72" s="12">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="C72" s="7">
         <v>1</v>
@@ -5097,7 +5097,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C73" s="7">
@@ -5140,8 +5140,8 @@
         <v>73</v>
       </c>
       <c r="B74" s="12">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="C74" s="7">
         <v>7</v>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B75" s="14">
         <f>SUBTOTAL(9,B2:B74)</f>
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.8\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD322B8C-A0D1-4922-9CB2-7660E46F5573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="114210" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -686,9 +705,6 @@
     <t>الاستشهاد الصحيح</t>
   </si>
   <si>
-    <t>quote-right</t>
-  </si>
-  <si>
     <t>https://cq.moia.gov.sa/</t>
   </si>
   <si>
@@ -1497,18 +1513,21 @@
   </si>
   <si>
     <t>«الشماريخ في علم التاريخ»</t>
+  </si>
+  <si>
+    <t>quote-left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1676,13 +1695,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1720,7 +1747,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1754,6 +1781,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1788,9 +1816,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1963,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1973,7 +2002,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -1983,12 +2012,12 @@
     <col min="10" max="14" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>86</v>
@@ -2024,10 +2053,10 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2039,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2" s="9">
         <v>1.1299999999999999</v>
@@ -2070,7 +2099,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2082,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F3" s="9">
         <v>1.01</v>
@@ -2113,7 +2142,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2125,38 +2154,38 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F4" s="9">
         <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2168,22 +2197,22 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" s="9">
         <v>10.02</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>83</v>
@@ -2195,11 +2224,11 @@
         <v>85</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2242,7 +2271,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2272,22 +2301,22 @@
         <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2299,10 +2328,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F8" s="9">
         <v>2.09</v>
@@ -2330,7 +2359,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2342,16 +2371,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9" s="9">
         <v>2.0099999999999998</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>94</v>
@@ -2373,7 +2402,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2385,38 +2414,38 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F10" s="9">
         <v>8.0299999999999994</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>194</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2428,10 +2457,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="F11" s="9">
         <v>7.01</v>
@@ -2459,7 +2488,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2471,10 +2500,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12" s="9">
         <v>8.07</v>
@@ -2502,7 +2531,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2514,10 +2543,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F13" s="9">
         <v>8.08</v>
@@ -2529,23 +2558,23 @@
         <v>219</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2557,10 +2586,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" s="9">
         <v>8.09</v>
@@ -2572,7 +2601,7 @@
         <v>189</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>188</v>
@@ -2588,7 +2617,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2600,10 +2629,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="F15" s="9">
         <v>7.07</v>
@@ -2612,7 +2641,7 @@
         <v>101</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>102</v>
@@ -2631,7 +2660,7 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2643,38 +2672,38 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F16" s="9">
         <v>8.0399999999999991</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2686,38 +2715,38 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="F17" s="9">
         <v>7.04</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2729,10 +2758,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F18" s="9">
         <v>8.0500000000000007</v>
@@ -2741,7 +2770,7 @@
         <v>82</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>77</v>
@@ -2760,7 +2789,7 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2772,38 +2801,38 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="F19" s="9">
         <v>7.06</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="K19" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2815,10 +2844,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F20" s="9">
         <v>5.04</v>
@@ -2833,20 +2862,20 @@
         <v>15</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2879,17 +2908,17 @@
         <v>32</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2901,10 +2930,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F22" s="9">
         <v>5.01</v>
@@ -2928,11 +2957,11 @@
         <v>48</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2956,26 +2985,26 @@
         <v>76</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -3018,7 +3047,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3030,10 +3059,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F25" s="9">
         <v>5.03</v>
@@ -3061,7 +3090,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3073,10 +3102,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" s="9">
         <v>1.02</v>
@@ -3103,10 +3132,10 @@
         <v>97</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3118,38 +3147,38 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F27" s="9">
         <v>2.0699999999999998</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3192,7 +3221,7 @@
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3219,7 +3248,7 @@
         <v>163</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>130</v>
@@ -3235,7 +3264,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3278,7 +3307,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3290,10 +3319,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F31" s="9">
         <v>5.0199999999999996</v>
@@ -3317,11 +3346,11 @@
         <v>54</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -3348,7 +3377,7 @@
         <v>151</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>112</v>
@@ -3364,7 +3393,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -3391,7 +3420,7 @@
         <v>178</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>141</v>
@@ -3407,7 +3436,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -3450,7 +3479,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3477,7 +3506,7 @@
         <v>161</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>162</v>
@@ -3493,7 +3522,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3536,7 +3565,7 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3563,7 +3592,7 @@
         <v>143</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>116</v>
@@ -3579,7 +3608,7 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3622,7 +3651,7 @@
       </c>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3649,7 +3678,7 @@
         <v>156</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>126</v>
@@ -3665,7 +3694,7 @@
       </c>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3692,7 +3721,7 @@
         <v>150</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>117</v>
@@ -3708,7 +3737,7 @@
       </c>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3735,7 +3764,7 @@
         <v>154</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>125</v>
@@ -3751,7 +3780,7 @@
       </c>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3794,7 +3823,7 @@
       </c>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3837,7 +3866,7 @@
       </c>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3864,7 +3893,7 @@
         <v>160</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>123</v>
@@ -3880,7 +3909,7 @@
       </c>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3923,7 +3952,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3966,7 +3995,7 @@
       </c>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -4009,7 +4038,7 @@
       </c>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -4036,7 +4065,7 @@
         <v>176</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>140</v>
@@ -4052,7 +4081,7 @@
       </c>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -4079,7 +4108,7 @@
         <v>146</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>121</v>
@@ -4095,7 +4124,7 @@
       </c>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -4107,10 +4136,10 @@
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F50" s="9">
         <v>8.02</v>
@@ -4138,7 +4167,7 @@
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -4150,10 +4179,10 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F51" s="9">
         <v>8.01</v>
@@ -4165,7 +4194,7 @@
         <v>90</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>60</v>
@@ -4181,7 +4210,7 @@
       </c>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -4205,7 +4234,7 @@
         <v>204</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>202</v>
@@ -4224,7 +4253,7 @@
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -4267,7 +4296,7 @@
       </c>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -4309,10 +4338,10 @@
         <v>212</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -4324,10 +4353,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F55" s="9">
         <v>5.05</v>
@@ -4342,20 +4371,20 @@
         <v>106</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -4367,10 +4396,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="F56" s="9">
         <v>7.02</v>
@@ -4379,7 +4408,7 @@
         <v>43</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>15</v>
@@ -4398,7 +4427,7 @@
       </c>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -4410,10 +4439,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F57" s="9">
         <v>8.06</v>
@@ -4422,7 +4451,7 @@
         <v>68</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>197</v>
@@ -4441,7 +4470,7 @@
       </c>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -4484,7 +4513,7 @@
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -4496,38 +4525,38 @@
         <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F59" s="9">
         <v>10.039999999999999</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -4539,38 +4568,38 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F60" s="9">
         <v>2.0499999999999998</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4582,38 +4611,38 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F61" s="9">
         <v>2.0299999999999998</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4625,10 +4654,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F62" s="9">
         <v>1.1100000000000001</v>
@@ -4637,28 +4666,28 @@
         <v>199</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4670,38 +4699,38 @@
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F63" s="9">
         <v>2.08</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4713,38 +4742,38 @@
         <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F64" s="9">
         <v>10.01</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H64" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="I64" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="J64" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4756,38 +4785,38 @@
         <v>10</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F65" s="9">
         <v>10.029999999999999</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="I65" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="K65" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -4799,10 +4828,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F66" s="9">
         <v>2.06</v>
@@ -4814,7 +4843,7 @@
         <v>21</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>19</v>
@@ -4832,7 +4861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4844,10 +4873,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F67" s="9">
         <v>1.1399999999999999</v>
@@ -4875,7 +4904,7 @@
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4887,38 +4916,38 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F68" s="9">
         <v>9.02</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -4930,38 +4959,38 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F69" s="9">
         <v>9.01</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -4973,38 +5002,38 @@
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F70" s="9">
         <v>2.04</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -5016,38 +5045,38 @@
         <v>7</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="F71" s="9">
         <v>7.05</v>
       </c>
       <c r="G71" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -5059,10 +5088,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F72" s="9">
         <v>1.03</v>
@@ -5071,7 +5100,7 @@
         <v>198</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>4</v>
@@ -5089,10 +5118,10 @@
         <v>96</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -5104,38 +5133,38 @@
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F73" s="9">
         <v>2.02</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -5147,10 +5176,10 @@
         <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="F74" s="9">
         <v>7.03</v>
@@ -5159,7 +5188,7 @@
         <v>99</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>15</v>
@@ -5178,7 +5207,7 @@
       </c>
       <c r="N74" s="3"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
         <f>SUBTOTAL(2,A2:A74)</f>
         <v>73</v>
@@ -5189,54 +5218,54 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N74">
-    <sortState ref="A2:L56">
+  <autoFilter ref="A1:N74" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J63" r:id="rId1"/>
-    <hyperlink ref="K63" r:id="rId2"/>
-    <hyperlink ref="L63" r:id="rId3"/>
-    <hyperlink ref="M63" r:id="rId4"/>
-    <hyperlink ref="J7" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="L7" r:id="rId7"/>
-    <hyperlink ref="M7" r:id="rId8"/>
-    <hyperlink ref="J68" r:id="rId9"/>
-    <hyperlink ref="J69" r:id="rId10"/>
-    <hyperlink ref="K69" r:id="rId11"/>
-    <hyperlink ref="L69" r:id="rId12"/>
-    <hyperlink ref="M69" r:id="rId13"/>
-    <hyperlink ref="N7" r:id="rId14"/>
-    <hyperlink ref="N26" r:id="rId15"/>
-    <hyperlink ref="M19" r:id="rId16"/>
-    <hyperlink ref="L19" r:id="rId17"/>
-    <hyperlink ref="K19" r:id="rId18"/>
-    <hyperlink ref="J19" r:id="rId19"/>
-    <hyperlink ref="J4" r:id="rId20"/>
-    <hyperlink ref="K4" r:id="rId21"/>
-    <hyperlink ref="L4" r:id="rId22"/>
-    <hyperlink ref="M4" r:id="rId23"/>
-    <hyperlink ref="L62" r:id="rId24"/>
-    <hyperlink ref="K62" r:id="rId25"/>
-    <hyperlink ref="J62" r:id="rId26"/>
-    <hyperlink ref="M62" r:id="rId27"/>
-    <hyperlink ref="N62" r:id="rId28"/>
-    <hyperlink ref="N72" r:id="rId29"/>
-    <hyperlink ref="J27" r:id="rId30"/>
-    <hyperlink ref="K27" r:id="rId31"/>
-    <hyperlink ref="L27" r:id="rId32"/>
-    <hyperlink ref="M27" r:id="rId33"/>
-    <hyperlink ref="J60" r:id="rId34"/>
-    <hyperlink ref="K60" r:id="rId35"/>
-    <hyperlink ref="L60" r:id="rId36"/>
-    <hyperlink ref="M60" r:id="rId37"/>
-    <hyperlink ref="J17" r:id="rId38"/>
-    <hyperlink ref="K17" r:id="rId39"/>
-    <hyperlink ref="L17" r:id="rId40"/>
-    <hyperlink ref="M17" r:id="rId41"/>
+    <hyperlink ref="J63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K63" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L63" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M63" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J68" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J69" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K69" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L69" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M69" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K4" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L4" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M4" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L62" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K62" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J62" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M62" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="N62" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N72" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L27" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="M27" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K60" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L60" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="M60" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J17" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K17" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L17" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="M17" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5249,7 +5278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5257,92 +5286,92 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="16">
+        <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
+        <v>45091</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>319</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F2" s="16">
-        <f ca="1">DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
-        <v>45091</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>320</v>
       </c>
       <c r="H2" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" s="18" t="s">
-        <v>297</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H2"/>
+  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5355,119 +5384,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>327</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>328</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>330</v>
       </c>
       <c r="N2" s="20">
         <v>31</v>
@@ -5476,10 +5505,10 @@
         <v>31</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R2" s="20">
         <v>30</v>
@@ -5500,41 +5529,41 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="L3" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>335</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>336</v>
       </c>
       <c r="N3" s="20">
         <v>28</v>
@@ -5543,10 +5572,10 @@
         <v>29</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R3" s="20">
         <v>30</v>
@@ -5567,41 +5596,41 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>339</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>340</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K4" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>342</v>
       </c>
       <c r="N4" s="20">
         <v>31</v>
@@ -5610,10 +5639,10 @@
         <v>31</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R4" s="20">
         <v>30</v>
@@ -5634,41 +5663,41 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="M5" s="20" t="s">
         <v>347</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>348</v>
       </c>
       <c r="N5" s="20">
         <v>30</v>
@@ -5677,10 +5706,10 @@
         <v>30</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R5" s="20">
         <v>30</v>
@@ -5701,41 +5730,41 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>351</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>352</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="L6" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="M6" s="20" t="s">
         <v>353</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>354</v>
       </c>
       <c r="N6" s="20">
         <v>31</v>
@@ -5744,10 +5773,10 @@
         <v>31</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R6" s="20">
         <v>30</v>
@@ -5768,41 +5797,41 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>357</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>358</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="L7" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="M7" s="20" t="s">
         <v>359</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>360</v>
       </c>
       <c r="N7" s="20">
         <v>30</v>
@@ -5811,10 +5840,10 @@
         <v>30</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R7" s="20">
         <v>30</v>
@@ -5835,41 +5864,41 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>363</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>364</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="L8" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="M8" s="20" t="s">
         <v>365</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>366</v>
       </c>
       <c r="N8" s="20">
         <v>31</v>
@@ -5878,10 +5907,10 @@
         <v>31</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R8" s="20">
         <v>30</v>
@@ -5902,7 +5931,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -5910,27 +5939,27 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>369</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>370</v>
       </c>
       <c r="N9" s="20">
         <v>31</v>
@@ -5939,10 +5968,10 @@
         <v>31</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R9" s="20">
         <v>30</v>
@@ -5963,7 +5992,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -5971,27 +6000,27 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K10" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="M10" s="20" t="s">
         <v>373</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>374</v>
       </c>
       <c r="N10" s="20">
         <v>30</v>
@@ -6000,10 +6029,10 @@
         <v>30</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R10" s="20">
         <v>30</v>
@@ -6024,7 +6053,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -6032,27 +6061,27 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K11" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="M11" s="20" t="s">
         <v>377</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>378</v>
       </c>
       <c r="N11" s="20">
         <v>31</v>
@@ -6061,10 +6090,10 @@
         <v>31</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R11" s="20">
         <v>30</v>
@@ -6085,7 +6114,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -6093,27 +6122,27 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K12" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>382</v>
       </c>
       <c r="N12" s="20">
         <v>30</v>
@@ -6122,10 +6151,10 @@
         <v>30</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R12" s="20">
         <v>30</v>
@@ -6146,7 +6175,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -6154,27 +6183,27 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K13" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>385</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>386</v>
       </c>
       <c r="N13" s="20">
         <v>31</v>
@@ -6183,10 +6212,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R13" s="20">
         <v>30</v>
@@ -6207,7 +6236,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -6228,10 +6257,10 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="R14" s="20">
         <v>5</v>
@@ -6253,7 +6282,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W14"/>
+  <autoFilter ref="A1:W14" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD322B8C-A0D1-4922-9CB2-7660E46F5573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB489DAF-8376-45DF-AF4E-D1EEB202A9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>https://apps.apple.com/app/jam-alktb-alts-t/id1149785262</t>
   </si>
   <si>
-    <t>https://ar.wikisource.org/wiki/السيرة_الحلبية</t>
-  </si>
-  <si>
     <t>https://www.alsirah.com/</t>
   </si>
   <si>
@@ -906,9 +903,6 @@
     <t>HijriArabicCalendar</t>
   </si>
   <si>
-    <t>https://ketabonline.com/books/228</t>
-  </si>
-  <si>
     <t>ProphetsStories</t>
   </si>
   <si>
@@ -1485,9 +1479,6 @@
     <t>«جمع الجوامع» = «الجامع الكبير»</t>
   </si>
   <si>
-    <t>طبعة @ 2023/06/14 م - 1444/11/25 هـ</t>
-  </si>
-  <si>
     <t>التزكية</t>
   </si>
   <si>
@@ -1516,6 +1507,15 @@
   </si>
   <si>
     <t>quote-left</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/6976</t>
+  </si>
+  <si>
+    <t>https://ar.wikisource.org/wiki/قصص_الأنبياء_لابن_كثير</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/06/24 م - 1444/12/06 هـ</t>
   </si>
 </sst>
 </file>
@@ -2014,31 +2014,31 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -2053,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2068,16 +2068,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" s="9">
         <v>1.1299999999999999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>14</v>
@@ -2086,16 +2086,16 @@
         <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="3"/>
     </row>
@@ -2111,19 +2111,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" s="9">
         <v>1.01</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>4</v>
@@ -2138,7 +2138,7 @@
         <v>7</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N3" s="3"/>
     </row>
@@ -2154,34 +2154,34 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" s="9">
         <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -2197,34 +2197,34 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F5" s="9">
         <v>10.02</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -2240,34 +2240,34 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F6" s="9">
         <v>4.04</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N6" s="3"/>
     </row>
@@ -2283,37 +2283,37 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="9">
         <v>3.01</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2328,34 +2328,34 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F8" s="9">
         <v>2.09</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N8" s="3"/>
     </row>
@@ -2371,19 +2371,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F9" s="9">
         <v>2.0099999999999998</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
@@ -2398,7 +2398,7 @@
         <v>18</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N9" s="3"/>
     </row>
@@ -2414,34 +2414,34 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F10" s="9">
         <v>8.0299999999999994</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N10" s="3"/>
     </row>
@@ -2457,34 +2457,34 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="F11" s="9">
         <v>7.01</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11" s="3"/>
     </row>
@@ -2500,34 +2500,34 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F12" s="9">
         <v>8.07</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="M12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N12" s="3"/>
     </row>
@@ -2543,34 +2543,34 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F13" s="9">
         <v>8.08</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N13" s="3"/>
     </row>
@@ -2586,34 +2586,34 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F14" s="9">
         <v>8.09</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="N14" s="8"/>
     </row>
@@ -2629,34 +2629,34 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="F15" s="9">
         <v>7.07</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="J15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N15" s="3"/>
     </row>
@@ -2672,34 +2672,34 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F16" s="9">
         <v>8.0399999999999991</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N16" s="3"/>
     </row>
@@ -2715,34 +2715,34 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="F17" s="9">
         <v>7.04</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="N17" s="3"/>
     </row>
@@ -2758,34 +2758,34 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F18" s="9">
         <v>8.0500000000000007</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="N18" s="3"/>
     </row>
@@ -2801,34 +2801,34 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="F19" s="9">
         <v>7.06</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N19" s="3"/>
     </row>
@@ -2844,34 +2844,34 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F20" s="9">
         <v>5.04</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N20" s="3"/>
     </row>
@@ -2887,34 +2887,34 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F21" s="9">
         <v>4.01</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="M21" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N21" s="3"/>
     </row>
@@ -2930,34 +2930,34 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F22" s="9">
         <v>5.01</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="M22" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N22" s="3"/>
     </row>
@@ -2973,34 +2973,34 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="9">
         <v>6.01</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N23" s="3"/>
     </row>
@@ -3016,34 +3016,34 @@
         <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="9">
         <v>6.02</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="M24" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N24" s="3"/>
     </row>
@@ -3059,34 +3059,34 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F25" s="9">
         <v>5.03</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N25" s="3"/>
     </row>
@@ -3102,19 +3102,19 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F26" s="9">
         <v>1.02</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>4</v>
@@ -3129,10 +3129,10 @@
         <v>10</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -3147,34 +3147,34 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F27" s="9">
         <v>2.0699999999999998</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N27" s="3"/>
     </row>
@@ -3190,34 +3190,34 @@
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F28" s="9">
         <v>4.05</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N28" s="3"/>
     </row>
@@ -3233,34 +3233,34 @@
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="9">
         <v>6.9640000000000004</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N29" s="8"/>
     </row>
@@ -3276,34 +3276,34 @@
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="9">
         <v>6.2690000000000001</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N30" s="8"/>
     </row>
@@ -3319,34 +3319,34 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F31" s="9">
         <v>5.0199999999999996</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="M31" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N31" s="3"/>
     </row>
@@ -3362,34 +3362,34 @@
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="9">
         <v>6.2489999999999997</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N32" s="8"/>
     </row>
@@ -3405,34 +3405,34 @@
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="9">
         <v>6.9740000000000002</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N33" s="8"/>
     </row>
@@ -3448,34 +3448,34 @@
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F34" s="9">
         <v>6.218</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L34" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L34" s="8" t="s">
+      <c r="M34" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="N34" s="8"/>
     </row>
@@ -3491,34 +3491,34 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="9">
         <v>6.9630000000000001</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H35" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="K35" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N35" s="8"/>
     </row>
@@ -3534,34 +3534,34 @@
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F36" s="9">
         <v>6.2119999999999997</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J36" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L36" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K36" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="L36" s="8" t="s">
+      <c r="M36" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="N36" s="8"/>
     </row>
@@ -3577,34 +3577,34 @@
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37" s="9">
         <v>6.2160000000000002</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N37" s="8"/>
     </row>
@@ -3620,34 +3620,34 @@
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F38" s="9">
         <v>6.9660000000000002</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J38" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L38" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K38" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L38" s="8" t="s">
+      <c r="M38" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="N38" s="8"/>
     </row>
@@ -3663,34 +3663,34 @@
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F39" s="9">
         <v>6.9610000000000003</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N39" s="8"/>
     </row>
@@ -3706,34 +3706,34 @@
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F40" s="9">
         <v>6.2130000000000001</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N40" s="8"/>
     </row>
@@ -3749,34 +3749,34 @@
         <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F41" s="9">
         <v>6.97</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N41" s="8"/>
     </row>
@@ -3792,34 +3792,34 @@
         <v>6</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F42" s="9">
         <v>6.9619999999999997</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L42" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K42" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="L42" s="8" t="s">
+      <c r="M42" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="N42" s="8"/>
     </row>
@@ -3835,34 +3835,34 @@
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="9">
         <v>6.9649999999999999</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N43" s="8"/>
     </row>
@@ -3878,34 +3878,34 @@
         <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F44" s="9">
         <v>6.2519999999999998</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N44" s="8"/>
     </row>
@@ -3921,34 +3921,34 @@
         <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F45" s="9">
         <v>6.2530000000000001</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N45" s="8"/>
     </row>
@@ -3964,34 +3964,34 @@
         <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F46" s="9">
         <v>6.9710000000000001</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J46" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L46" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="K46" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="L46" s="8" t="s">
+      <c r="M46" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="N46" s="8"/>
     </row>
@@ -4007,34 +4007,34 @@
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F47" s="9">
         <v>6.968</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N47" s="8"/>
     </row>
@@ -4050,34 +4050,34 @@
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F48" s="9">
         <v>6.9729999999999999</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N48" s="8"/>
     </row>
@@ -4093,34 +4093,34 @@
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F49" s="9">
         <v>6.2220000000000004</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N49" s="8"/>
     </row>
@@ -4136,34 +4136,34 @@
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F50" s="9">
         <v>8.02</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="M50" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N50" s="3"/>
     </row>
@@ -4179,34 +4179,34 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F51" s="9">
         <v>8.01</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H51" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="I51" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="N51" s="3"/>
     </row>
@@ -4222,34 +4222,34 @@
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F52" s="9">
         <v>4.03</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="N52" s="3"/>
     </row>
@@ -4265,34 +4265,34 @@
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F53" s="9">
         <v>4.0199999999999996</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N53" s="3"/>
     </row>
@@ -4308,37 +4308,37 @@
         <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F54" s="9">
         <v>3.03</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="I54" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="J54" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -4353,34 +4353,34 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F55" s="9">
         <v>5.05</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="I55" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="J55" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N55" s="3"/>
     </row>
@@ -4396,34 +4396,34 @@
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="F56" s="9">
         <v>7.02</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N56" s="3"/>
     </row>
@@ -4439,34 +4439,34 @@
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F57" s="9">
         <v>8.06</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="M57" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="N57" s="3"/>
     </row>
@@ -4482,34 +4482,34 @@
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F58" s="9">
         <v>6.9669999999999996</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N58" s="8"/>
     </row>
@@ -4525,34 +4525,34 @@
         <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F59" s="9">
         <v>10.039999999999999</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N59" s="3"/>
     </row>
@@ -4568,34 +4568,34 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F60" s="9">
         <v>2.0499999999999998</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N60" s="3"/>
     </row>
@@ -4611,34 +4611,34 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F61" s="9">
         <v>2.0299999999999998</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N61" s="3"/>
     </row>
@@ -4654,37 +4654,37 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F62" s="9">
         <v>1.1100000000000001</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -4699,34 +4699,34 @@
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F63" s="9">
         <v>2.08</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>287</v>
+        <v>489</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>287</v>
+        <v>489</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>287</v>
+        <v>489</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>287</v>
+        <v>489</v>
       </c>
       <c r="N63" s="3"/>
     </row>
@@ -4742,34 +4742,34 @@
         <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F64" s="9">
         <v>10.01</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H64" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="I64" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="J64" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N64" s="3"/>
     </row>
@@ -4785,34 +4785,34 @@
         <v>10</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F65" s="9">
         <v>10.029999999999999</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="I65" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="K65" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N65" s="3"/>
     </row>
@@ -4828,22 +4828,22 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F66" s="9">
         <v>2.06</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>19</v>
@@ -4855,10 +4855,10 @@
         <v>19</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>19</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -4873,34 +4873,34 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F67" s="9">
         <v>1.1399999999999999</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="I67" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J67" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="K67" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N67" s="3"/>
     </row>
@@ -4916,34 +4916,34 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F68" s="9">
         <v>9.02</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N68" s="3"/>
     </row>
@@ -4959,34 +4959,34 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F69" s="9">
         <v>9.01</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N69" s="3"/>
     </row>
@@ -5002,34 +5002,34 @@
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F70" s="9">
         <v>2.04</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N70" s="3"/>
     </row>
@@ -5045,34 +5045,34 @@
         <v>7</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="F71" s="9">
         <v>7.05</v>
       </c>
       <c r="G71" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N71" s="3"/>
     </row>
@@ -5088,19 +5088,19 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F72" s="9">
         <v>1.03</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>4</v>
@@ -5115,10 +5115,10 @@
         <v>13</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -5133,34 +5133,34 @@
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F73" s="9">
         <v>2.02</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N73" s="3"/>
     </row>
@@ -5176,34 +5176,34 @@
         <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="F74" s="9">
         <v>7.03</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N74" s="3"/>
     </row>
@@ -5226,50 +5226,51 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K63" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L63" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M63" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J68" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J69" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K69" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L69" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M69" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="N7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="N26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K4" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L4" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M4" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L62" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K62" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J62" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M62" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="N62" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="N72" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L27" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M27" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K60" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="L60" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="M60" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J17" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K17" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L17" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="M17" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J68" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J69" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K69" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L69" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M69" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J4" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L62" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K62" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M62" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="N62" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N72" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="M27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J60" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K60" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L60" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="M60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J17" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K17" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L17" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="M17" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N66" r:id="rId39" xr:uid="{D473252B-1C37-4414-9DE7-06EE1ED8A040}"/>
+    <hyperlink ref="K63" r:id="rId40" xr:uid="{C0AB8E18-2FA6-4219-825F-5A7A7A71B982}"/>
+    <hyperlink ref="L63" r:id="rId41" xr:uid="{4B2637CB-88C6-4147-9AC0-82EC14C789C5}"/>
+    <hyperlink ref="M63" r:id="rId42" xr:uid="{77434E65-A1C7-44D8-9075-36C62416E91E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId42"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId43"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -5294,52 +5295,52 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F2" s="16">
         <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
-        <v>45091</v>
+        <v>45101</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H2" s="11">
         <v>0</v>
@@ -5347,22 +5348,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5393,73 +5394,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -5467,36 +5468,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>325</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>327</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N2" s="20">
         <v>31</v>
@@ -5505,10 +5506,10 @@
         <v>31</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R2" s="20">
         <v>30</v>
@@ -5534,36 +5535,36 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>331</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>333</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N3" s="20">
         <v>28</v>
@@ -5572,10 +5573,10 @@
         <v>29</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="R3" s="20">
         <v>30</v>
@@ -5601,36 +5602,36 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>337</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>339</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N4" s="20">
         <v>31</v>
@@ -5639,10 +5640,10 @@
         <v>31</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="R4" s="20">
         <v>30</v>
@@ -5668,36 +5669,36 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>345</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N5" s="20">
         <v>30</v>
@@ -5706,10 +5707,10 @@
         <v>30</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="R5" s="20">
         <v>30</v>
@@ -5735,36 +5736,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>349</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>351</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N6" s="20">
         <v>31</v>
@@ -5773,10 +5774,10 @@
         <v>31</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="R6" s="20">
         <v>30</v>
@@ -5802,36 +5803,36 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>355</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>357</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N7" s="20">
         <v>30</v>
@@ -5840,10 +5841,10 @@
         <v>30</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R7" s="20">
         <v>30</v>
@@ -5869,36 +5870,36 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>361</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>363</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N8" s="20">
         <v>31</v>
@@ -5907,10 +5908,10 @@
         <v>31</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R8" s="20">
         <v>30</v>
@@ -5939,27 +5940,27 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N9" s="20">
         <v>31</v>
@@ -5968,10 +5969,10 @@
         <v>31</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R9" s="20">
         <v>30</v>
@@ -6000,27 +6001,27 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N10" s="20">
         <v>30</v>
@@ -6029,10 +6030,10 @@
         <v>30</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="R10" s="20">
         <v>30</v>
@@ -6061,27 +6062,27 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N11" s="20">
         <v>31</v>
@@ -6090,10 +6091,10 @@
         <v>31</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R11" s="20">
         <v>30</v>
@@ -6122,27 +6123,27 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N12" s="20">
         <v>30</v>
@@ -6151,10 +6152,10 @@
         <v>30</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="R12" s="20">
         <v>30</v>
@@ -6183,27 +6184,27 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N13" s="20">
         <v>31</v>
@@ -6212,10 +6213,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="R13" s="20">
         <v>30</v>
@@ -6257,10 +6258,10 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="R14" s="20">
         <v>5</v>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB489DAF-8376-45DF-AF4E-D1EEB202A9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735F2050-07F3-4AA7-8B36-8A9EC42F9B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Calendars!$A$1:$W$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Complements!$A$1:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$75</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Calendars!$A:$A,Calendars!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="497">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -744,12 +744,6 @@
     <t>Tools</t>
   </si>
   <si>
-    <t>Various</t>
-  </si>
-  <si>
-    <t>شتى</t>
-  </si>
-  <si>
     <t>https://shamela.ws/book/84</t>
   </si>
   <si>
@@ -1515,7 +1509,31 @@
     <t>https://ar.wikisource.org/wiki/قصص_الأنبياء_لابن_كثير</t>
   </si>
   <si>
-    <t>طبعة @ 2023/06/24 م - 1444/12/06 هـ</t>
+    <t>https://archive.org/details/4_20220806_20220806</t>
+  </si>
+  <si>
+    <t>https://ar.wikipedia.org/wiki/فن_إسلامي</t>
+  </si>
+  <si>
+    <t>«موسوعة العمارة والآثار والفنون الإسلامية»</t>
+  </si>
+  <si>
+    <t>IslamicArt</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/06/27 م - 1444/12/09 هـ</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>ثقافة</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>متنوع</t>
   </si>
 </sst>
 </file>
@@ -1993,7 +2011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2017,7 +2035,7 @@
         <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>85</v>
@@ -2053,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2068,10 +2086,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F2" s="9">
         <v>1.1299999999999999</v>
@@ -2111,10 +2129,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F3" s="9">
         <v>1.01</v>
@@ -2154,34 +2172,34 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F4" s="9">
         <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -2194,25 +2212,25 @@
         <v>0</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>226</v>
       </c>
       <c r="F5" s="9">
-        <v>10.02</v>
+        <v>11.02</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>82</v>
@@ -2224,7 +2242,7 @@
         <v>84</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -2301,19 +2319,19 @@
         <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2328,10 +2346,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F8" s="9">
         <v>2.09</v>
@@ -2371,16 +2389,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F9" s="9">
         <v>2.0099999999999998</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>93</v>
@@ -2423,25 +2441,25 @@
         <v>8.0299999999999994</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>193</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N10" s="3"/>
     </row>
@@ -2457,10 +2475,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>233</v>
+        <v>495</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>234</v>
+        <v>496</v>
       </c>
       <c r="F11" s="9">
         <v>7.01</v>
@@ -2558,7 +2576,7 @@
         <v>218</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>220</v>
@@ -2601,7 +2619,7 @@
         <v>188</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>187</v>
@@ -2629,19 +2647,19 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>233</v>
+        <v>495</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>234</v>
+        <v>496</v>
       </c>
       <c r="F15" s="9">
-        <v>7.07</v>
+        <v>7.05</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>101</v>
@@ -2681,25 +2699,25 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N16" s="3"/>
     </row>
@@ -2712,37 +2730,37 @@
         <v>1</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>233</v>
+        <v>493</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>234</v>
+        <v>494</v>
       </c>
       <c r="F17" s="9">
-        <v>7.04</v>
+        <v>10.01</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>486</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N17" s="3"/>
     </row>
@@ -2770,7 +2788,7 @@
         <v>81</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>76</v>
@@ -2801,34 +2819,34 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>233</v>
+        <v>495</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>234</v>
+        <v>496</v>
       </c>
       <c r="F19" s="9">
-        <v>7.06</v>
+        <v>7.04</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N19" s="3"/>
     </row>
@@ -2844,10 +2862,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F20" s="9">
         <v>5.04</v>
@@ -2862,16 +2880,16 @@
         <v>15</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N20" s="3"/>
     </row>
@@ -2908,13 +2926,13 @@
         <v>31</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N21" s="3"/>
     </row>
@@ -2930,10 +2948,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F22" s="9">
         <v>5.01</v>
@@ -2957,7 +2975,7 @@
         <v>47</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N22" s="3"/>
     </row>
@@ -3059,10 +3077,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F25" s="9">
         <v>5.03</v>
@@ -3102,10 +3120,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F26" s="9">
         <v>1.02</v>
@@ -3132,7 +3150,7 @@
         <v>96</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -3147,34 +3165,34 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F27" s="9">
         <v>2.0699999999999998</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N27" s="3"/>
     </row>
@@ -3248,7 +3266,7 @@
         <v>162</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>129</v>
@@ -3319,10 +3337,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F31" s="9">
         <v>5.0199999999999996</v>
@@ -3346,7 +3364,7 @@
         <v>53</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N31" s="3"/>
     </row>
@@ -3377,7 +3395,7 @@
         <v>150</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>111</v>
@@ -3420,7 +3438,7 @@
         <v>177</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>140</v>
@@ -3506,7 +3524,7 @@
         <v>160</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>161</v>
@@ -3592,7 +3610,7 @@
         <v>142</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>115</v>
@@ -3678,7 +3696,7 @@
         <v>155</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>125</v>
@@ -3721,7 +3739,7 @@
         <v>149</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>116</v>
@@ -3764,7 +3782,7 @@
         <v>153</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>124</v>
@@ -3893,7 +3911,7 @@
         <v>159</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>122</v>
@@ -4065,7 +4083,7 @@
         <v>175</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>139</v>
@@ -4108,7 +4126,7 @@
         <v>145</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>120</v>
@@ -4194,7 +4212,7 @@
         <v>89</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>59</v>
@@ -4338,7 +4356,7 @@
         <v>211</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -4353,10 +4371,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F55" s="9">
         <v>5.05</v>
@@ -4371,16 +4389,16 @@
         <v>105</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N55" s="3"/>
     </row>
@@ -4396,10 +4414,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>233</v>
+        <v>495</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>234</v>
+        <v>496</v>
       </c>
       <c r="F56" s="9">
         <v>7.02</v>
@@ -4408,7 +4426,7 @@
         <v>42</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>15</v>
@@ -4451,7 +4469,7 @@
         <v>67</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>196</v>
@@ -4522,22 +4540,22 @@
         <v>0</v>
       </c>
       <c r="C59" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>226</v>
       </c>
       <c r="F59" s="9">
-        <v>10.039999999999999</v>
+        <v>11.04</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>225</v>
@@ -4568,34 +4586,34 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F60" s="9">
         <v>2.0499999999999998</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N60" s="3"/>
     </row>
@@ -4611,34 +4629,34 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F61" s="9">
         <v>2.0299999999999998</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N61" s="3"/>
     </row>
@@ -4654,10 +4672,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F62" s="9">
         <v>1.1100000000000001</v>
@@ -4666,25 +4684,25 @@
         <v>198</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -4699,34 +4717,34 @@
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F63" s="9">
         <v>2.08</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N63" s="3"/>
     </row>
@@ -4739,37 +4757,37 @@
         <v>0</v>
       </c>
       <c r="C64" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>226</v>
       </c>
       <c r="F64" s="9">
-        <v>10.01</v>
+        <v>11.01</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="J64" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N64" s="3"/>
     </row>
@@ -4782,37 +4800,37 @@
         <v>1</v>
       </c>
       <c r="C65" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>226</v>
       </c>
       <c r="F65" s="9">
-        <v>10.029999999999999</v>
+        <v>11.03</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="K65" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N65" s="3"/>
     </row>
@@ -4828,10 +4846,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F66" s="9">
         <v>2.06</v>
@@ -4843,7 +4861,7 @@
         <v>20</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>19</v>
@@ -4858,7 +4876,7 @@
         <v>19</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -4866,17 +4884,17 @@
         <v>66</v>
       </c>
       <c r="B67" s="12">
-        <f t="shared" ref="B67:B74" si="1">IF(OR(NOT(ISERROR(SEARCH("archive.org",M67))),NOT(ISERROR(SEARCH("app.box.com",M67))),NOT(ISERROR(SEARCH("islamway.net",M67))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M67))),NOT(ISERROR(SEARCH("tanzil.net",M67))),NOT(ISERROR(SEARCH("alsirah.com",M67))),NOT(ISERROR(SEARCH("i36",M67))),(RIGHT(M67,4)=".pdf"),C67=6,C67=8,C67=9),0,1)</f>
+        <f t="shared" ref="B67:B73" si="1">IF(OR(NOT(ISERROR(SEARCH("archive.org",M67))),NOT(ISERROR(SEARCH("app.box.com",M67))),NOT(ISERROR(SEARCH("islamway.net",M67))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M67))),NOT(ISERROR(SEARCH("tanzil.net",M67))),NOT(ISERROR(SEARCH("alsirah.com",M67))),NOT(ISERROR(SEARCH("i36",M67))),(RIGHT(M67,4)=".pdf"),C67=6,C67=8,C67=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F67" s="9">
         <v>1.1399999999999999</v>
@@ -4916,34 +4934,34 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F68" s="9">
         <v>9.02</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N68" s="3"/>
     </row>
@@ -4959,34 +4977,34 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F69" s="9">
         <v>9.01</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N69" s="3"/>
     </row>
@@ -5002,34 +5020,34 @@
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F70" s="9">
         <v>2.04</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N70" s="3"/>
     </row>
@@ -5042,16 +5060,16 @@
         <v>0</v>
       </c>
       <c r="C71" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>233</v>
+        <v>493</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>234</v>
+        <v>494</v>
       </c>
       <c r="F71" s="9">
-        <v>7.05</v>
+        <v>10.02</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>228</v>
@@ -5088,10 +5106,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F72" s="9">
         <v>1.03</v>
@@ -5100,7 +5118,7 @@
         <v>197</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>4</v>
@@ -5118,7 +5136,7 @@
         <v>95</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -5133,34 +5151,34 @@
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F73" s="9">
         <v>2.02</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N73" s="3"/>
     </row>
@@ -5169,56 +5187,101 @@
         <v>73</v>
       </c>
       <c r="B74" s="12">
-        <f t="shared" si="1"/>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",M74))),NOT(ISERROR(SEARCH("app.box.com",M74))),NOT(ISERROR(SEARCH("islamway.net",M74))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M74))),NOT(ISERROR(SEARCH("tanzil.net",M74))),NOT(ISERROR(SEARCH("alsirah.com",M74))),NOT(ISERROR(SEARCH("i36",M74))),(RIGHT(M74,4)=".pdf"),C74=6,C74=8,C74=9),0,1)</f>
         <v>0</v>
       </c>
       <c r="C74" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>233</v>
+        <v>493</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>234</v>
+        <v>494</v>
       </c>
       <c r="F74" s="9">
-        <v>7.03</v>
+        <v>10.3</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>98</v>
+        <v>491</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>244</v>
+        <v>490</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J74" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+      <c r="B75" s="12">
+        <f t="shared" ref="B75" si="2">IF(OR(NOT(ISERROR(SEARCH("archive.org",M75))),NOT(ISERROR(SEARCH("app.box.com",M75))),NOT(ISERROR(SEARCH("islamway.net",M75))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M75))),NOT(ISERROR(SEARCH("tanzil.net",M75))),NOT(ISERROR(SEARCH("alsirah.com",M75))),NOT(ISERROR(SEARCH("i36",M75))),(RIGHT(M75,4)=".pdf"),C75=6,C75=8,C75=9),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="7">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F75" s="9">
+        <v>7.03</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="L75" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="M75" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="13">
-        <f>SUBTOTAL(2,A2:A74)</f>
-        <v>73</v>
-      </c>
-      <c r="B75" s="14">
-        <f>SUBTOTAL(9,B2:B74)</f>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="13">
+        <f>SUBTOTAL(2,A2:A75)</f>
+        <v>74</v>
+      </c>
+      <c r="B76" s="14">
+        <f>SUBTOTAL(9,B2:B75)</f>
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N74" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:N75" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
@@ -5267,10 +5330,11 @@
     <hyperlink ref="K63" r:id="rId40" xr:uid="{C0AB8E18-2FA6-4219-825F-5A7A7A71B982}"/>
     <hyperlink ref="L63" r:id="rId41" xr:uid="{4B2637CB-88C6-4147-9AC0-82EC14C789C5}"/>
     <hyperlink ref="M63" r:id="rId42" xr:uid="{77434E65-A1C7-44D8-9075-36C62416E91E}"/>
+    <hyperlink ref="N74" r:id="rId43" xr:uid="{6F427B92-8219-4B09-B7CD-01D8A7C2BD49}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId43"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId44"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -5295,52 +5359,52 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F2" s="16">
         <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H2" s="11">
         <v>0</v>
@@ -5348,22 +5412,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5394,73 +5458,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -5468,36 +5532,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>323</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>325</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N2" s="20">
         <v>31</v>
@@ -5506,10 +5570,10 @@
         <v>31</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="R2" s="20">
         <v>30</v>
@@ -5535,36 +5599,36 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>331</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N3" s="20">
         <v>28</v>
@@ -5573,10 +5637,10 @@
         <v>29</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="R3" s="20">
         <v>30</v>
@@ -5602,36 +5666,36 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>335</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>337</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N4" s="20">
         <v>31</v>
@@ -5640,10 +5704,10 @@
         <v>31</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R4" s="20">
         <v>30</v>
@@ -5669,36 +5733,36 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>343</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N5" s="20">
         <v>30</v>
@@ -5707,10 +5771,10 @@
         <v>30</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R5" s="20">
         <v>30</v>
@@ -5736,36 +5800,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>347</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>349</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N6" s="20">
         <v>31</v>
@@ -5774,10 +5838,10 @@
         <v>31</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R6" s="20">
         <v>30</v>
@@ -5803,36 +5867,36 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>353</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>355</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N7" s="20">
         <v>30</v>
@@ -5841,10 +5905,10 @@
         <v>30</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="R7" s="20">
         <v>30</v>
@@ -5870,36 +5934,36 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>359</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>361</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N8" s="20">
         <v>31</v>
@@ -5908,10 +5972,10 @@
         <v>31</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="R8" s="20">
         <v>30</v>
@@ -5940,27 +6004,27 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="N9" s="20">
         <v>31</v>
@@ -5969,10 +6033,10 @@
         <v>31</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="R9" s="20">
         <v>30</v>
@@ -6001,27 +6065,27 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N10" s="20">
         <v>30</v>
@@ -6030,10 +6094,10 @@
         <v>30</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R10" s="20">
         <v>30</v>
@@ -6062,27 +6126,27 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N11" s="20">
         <v>31</v>
@@ -6091,10 +6155,10 @@
         <v>31</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R11" s="20">
         <v>30</v>
@@ -6123,27 +6187,27 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N12" s="20">
         <v>30</v>
@@ -6152,10 +6216,10 @@
         <v>30</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R12" s="20">
         <v>30</v>
@@ -6184,27 +6248,27 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N13" s="20">
         <v>31</v>
@@ -6213,10 +6277,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="R13" s="20">
         <v>30</v>
@@ -6258,10 +6322,10 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="R14" s="20">
         <v>5</v>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a2251e49424f27c/275/My Files/My Programs/موسوعات إسلامية_عربية/_Sprints/AppGyver/_db/i360db/0.9.8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735F2050-07F3-4AA7-8B36-8A9EC42F9B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{735F2050-07F3-4AA7-8B36-8A9EC42F9B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00F21B4F-DCE0-4D19-8DEA-F6A70ED6895C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1515,9 +1515,6 @@
     <t>https://ar.wikipedia.org/wiki/فن_إسلامي</t>
   </si>
   <si>
-    <t>«موسوعة العمارة والآثار والفنون الإسلامية»</t>
-  </si>
-  <si>
     <t>IslamicArt</t>
   </si>
   <si>
@@ -1534,6 +1531,9 @@
   </si>
   <si>
     <t>متنوع</t>
+  </si>
+  <si>
+    <t>«موسوعة العمارة و الآثار و الفنون الإسلامية»</t>
   </si>
 </sst>
 </file>
@@ -2475,10 +2475,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="F11" s="9">
         <v>7.01</v>
@@ -2647,10 +2647,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="F15" s="9">
         <v>7.05</v>
@@ -2733,10 +2733,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F17" s="9">
         <v>10.01</v>
@@ -2819,10 +2819,10 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="F19" s="9">
         <v>7.04</v>
@@ -4414,10 +4414,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="F56" s="9">
         <v>7.02</v>
@@ -4555,7 +4555,7 @@
         <v>286</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>225</v>
@@ -5063,10 +5063,10 @@
         <v>10</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F71" s="9">
         <v>10.02</v>
@@ -5194,19 +5194,19 @@
         <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F74" s="9">
         <v>10.3</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>15</v>
@@ -5239,10 +5239,10 @@
         <v>7</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="F75" s="9">
         <v>7.03</v>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a2251e49424f27c/275/My Files/My Programs/موسوعات إسلامية_عربية/_Sprints/AppGyver/_db/i360db/0.9.8/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{735F2050-07F3-4AA7-8B36-8A9EC42F9B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00F21B4F-DCE0-4D19-8DEA-F6A70ED6895C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -25,25 +19,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="500">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -102,9 +83,6 @@
     <t>https://apps.apple.com/app/jam-alktb-alts-t/id1149785262</t>
   </si>
   <si>
-    <t>https://www.alsirah.com/</t>
-  </si>
-  <si>
     <t>السيرة النبوية</t>
   </si>
   <si>
@@ -1518,9 +1496,6 @@
     <t>IslamicArt</t>
   </si>
   <si>
-    <t>طبعة @ 2023/06/27 م - 1444/12/09 هـ</t>
-  </si>
-  <si>
     <t>Culture</t>
   </si>
   <si>
@@ -1534,18 +1509,33 @@
   </si>
   <si>
     <t>«موسوعة العمارة و الآثار و الفنون الإسلامية»</t>
+  </si>
+  <si>
+    <t>https://altafsir.com/</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/07/03 م - 1444/12/15 هـ</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.itgsolutions.sera</t>
+  </si>
+  <si>
+    <t>https://alsirah.com/</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/app/al-sirah-al-nabaweyya-bwabt/id1164145998</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1713,21 +1703,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1765,7 +1747,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1799,7 +1781,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1834,10 +1815,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2010,7 +1990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2020,7 +2000,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -2030,33 +2010,33 @@
     <col min="10" max="14" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -2071,10 +2051,10 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2086,16 +2066,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2" s="9">
         <v>1.1299999999999999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>14</v>
@@ -2104,20 +2084,20 @@
         <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2129,19 +2109,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F3" s="9">
         <v>1.01</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>4</v>
@@ -2156,11 +2136,13 @@
         <v>7</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2172,38 +2154,38 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F4" s="9">
         <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2215,38 +2197,38 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F5" s="9">
         <v>11.02</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2258,38 +2240,38 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="F6" s="9">
         <v>4.04</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2301,40 +2283,40 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="9">
         <v>3.01</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2346,38 +2328,38 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F8" s="9">
         <v>2.09</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2389,19 +2371,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F9" s="9">
         <v>2.0099999999999998</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
@@ -2416,11 +2398,11 @@
         <v>18</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2432,38 +2414,38 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F10" s="9">
         <v>8.0299999999999994</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2475,38 +2457,38 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F11" s="9">
         <v>7.01</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2518,38 +2500,38 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F12" s="9">
         <v>8.07</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="M12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2561,38 +2543,38 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" s="9">
         <v>8.08</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2604,38 +2586,38 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F14" s="9">
         <v>8.09</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="K14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2647,38 +2629,38 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F15" s="9">
         <v>7.05</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2690,38 +2672,38 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F16" s="9">
         <v>8.0399999999999991</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2733,38 +2715,38 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F17" s="9">
         <v>10.01</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2776,38 +2758,38 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F18" s="9">
         <v>8.0500000000000007</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2819,38 +2801,38 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F19" s="9">
         <v>7.04</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>467</v>
-      </c>
       <c r="K19" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2862,38 +2844,38 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F20" s="9">
         <v>5.04</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2905,38 +2887,38 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="F21" s="9">
         <v>4.01</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="M21" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2948,38 +2930,38 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F22" s="9">
         <v>5.01</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="M22" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2991,38 +2973,38 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="9">
         <v>6.01</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -3034,38 +3016,38 @@
         <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" s="9">
         <v>6.02</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="M24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3077,38 +3059,38 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F25" s="9">
         <v>5.03</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3120,19 +3102,19 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F26" s="9">
         <v>1.02</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>4</v>
@@ -3147,13 +3129,13 @@
         <v>10</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3165,38 +3147,38 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F27" s="9">
         <v>2.0699999999999998</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3208,38 +3190,38 @@
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="F28" s="9">
         <v>4.05</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3251,38 +3233,38 @@
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="9">
         <v>6.9640000000000004</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3294,38 +3276,38 @@
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="9">
         <v>6.2690000000000001</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3337,38 +3319,38 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F31" s="9">
         <v>5.0199999999999996</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="M31" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -3380,38 +3362,38 @@
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="9">
         <v>6.2489999999999997</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -3423,38 +3405,38 @@
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F33" s="9">
         <v>6.9740000000000002</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -3466,38 +3448,38 @@
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F34" s="9">
         <v>6.218</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J34" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L34" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L34" s="8" t="s">
+      <c r="M34" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="M34" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3509,38 +3491,38 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F35" s="9">
         <v>6.9630000000000001</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H35" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="K35" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3552,38 +3534,38 @@
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F36" s="9">
         <v>6.2119999999999997</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="K36" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="L36" s="8" t="s">
+      <c r="M36" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="M36" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3595,38 +3577,38 @@
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F37" s="9">
         <v>6.2160000000000002</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3638,38 +3620,38 @@
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F38" s="9">
         <v>6.9660000000000002</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J38" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L38" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="K38" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L38" s="8" t="s">
+      <c r="M38" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="M38" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3681,38 +3663,38 @@
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F39" s="9">
         <v>6.9610000000000003</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3724,38 +3706,38 @@
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F40" s="9">
         <v>6.2130000000000001</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3767,38 +3749,38 @@
         <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F41" s="9">
         <v>6.97</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3810,38 +3792,38 @@
         <v>6</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F42" s="9">
         <v>6.9619999999999997</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J42" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L42" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="K42" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L42" s="8" t="s">
+      <c r="M42" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="M42" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3853,38 +3835,38 @@
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43" s="9">
         <v>6.9649999999999999</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3896,38 +3878,38 @@
         <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F44" s="9">
         <v>6.2519999999999998</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3939,38 +3921,38 @@
         <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F45" s="9">
         <v>6.2530000000000001</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3982,38 +3964,38 @@
         <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F46" s="9">
         <v>6.9710000000000001</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J46" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L46" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K46" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="L46" s="8" t="s">
+      <c r="M46" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="M46" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -4025,38 +4007,38 @@
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F47" s="9">
         <v>6.968</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -4068,38 +4050,38 @@
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F48" s="9">
         <v>6.9729999999999999</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -4111,38 +4093,38 @@
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F49" s="9">
         <v>6.2220000000000004</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -4154,38 +4136,38 @@
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F50" s="9">
         <v>8.02</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="M50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -4197,38 +4179,38 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F51" s="9">
         <v>8.01</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H51" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="I51" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M51" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -4240,38 +4222,38 @@
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="F52" s="9">
         <v>4.03</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -4283,38 +4265,38 @@
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="F53" s="9">
         <v>4.0199999999999996</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -4326,40 +4308,40 @@
         <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F54" s="9">
         <v>3.03</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="I54" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="J54" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -4371,38 +4353,38 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F55" s="9">
         <v>5.05</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="I55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="J55" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -4414,38 +4396,38 @@
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F56" s="9">
         <v>7.02</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -4457,38 +4439,38 @@
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F57" s="9">
         <v>8.06</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="M57" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -4500,38 +4482,38 @@
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F58" s="9">
         <v>6.9669999999999996</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -4543,38 +4525,38 @@
         <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F59" s="9">
         <v>11.04</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -4586,38 +4568,38 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F60" s="9">
         <v>2.0499999999999998</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4629,38 +4611,38 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F61" s="9">
         <v>2.0299999999999998</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4672,40 +4654,40 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F62" s="9">
         <v>1.1100000000000001</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4717,38 +4699,38 @@
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F63" s="9">
         <v>2.08</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4760,38 +4742,38 @@
         <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F64" s="9">
         <v>11.01</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H64" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="I64" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="J64" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4803,38 +4785,38 @@
         <v>11</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F65" s="9">
         <v>11.03</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="I65" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="K65" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -4846,40 +4828,40 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F66" s="9">
         <v>2.06</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>19</v>
+        <v>497</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>19</v>
+        <v>498</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>19</v>
+        <v>499</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>19</v>
+        <v>498</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4891,38 +4873,38 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F67" s="9">
         <v>1.1399999999999999</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="I67" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J67" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="K67" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4934,38 +4916,38 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F68" s="9">
         <v>9.02</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -4977,38 +4959,38 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F69" s="9">
         <v>9.01</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -5020,38 +5002,38 @@
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F70" s="9">
         <v>2.04</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -5063,38 +5045,38 @@
         <v>10</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F71" s="9">
         <v>10.02</v>
       </c>
       <c r="G71" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -5106,19 +5088,19 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F72" s="9">
         <v>1.03</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>4</v>
@@ -5133,13 +5115,13 @@
         <v>13</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -5151,38 +5133,38 @@
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F73" s="9">
         <v>2.02</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -5194,83 +5176,83 @@
         <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F74" s="9">
         <v>10.3</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J74" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="N74" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="K74" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="11">
         <v>74</v>
       </c>
       <c r="B75" s="12">
-        <f t="shared" ref="B75" si="2">IF(OR(NOT(ISERROR(SEARCH("archive.org",M75))),NOT(ISERROR(SEARCH("app.box.com",M75))),NOT(ISERROR(SEARCH("islamway.net",M75))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M75))),NOT(ISERROR(SEARCH("tanzil.net",M75))),NOT(ISERROR(SEARCH("alsirah.com",M75))),NOT(ISERROR(SEARCH("i36",M75))),(RIGHT(M75,4)=".pdf"),C75=6,C75=8,C75=9),0,1)</f>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",M75))),NOT(ISERROR(SEARCH("app.box.com",M75))),NOT(ISERROR(SEARCH("islamway.net",M75))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M75))),NOT(ISERROR(SEARCH("tanzil.net",M75))),NOT(ISERROR(SEARCH("alsirah.com",M75))),NOT(ISERROR(SEARCH("i36",M75))),(RIGHT(M75,4)=".pdf"),C75=6,C75=8,C75=9),0,1)</f>
         <v>0</v>
       </c>
       <c r="C75" s="7">
         <v>7</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F75" s="9">
         <v>7.03</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N75" s="3"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="A76" s="13">
         <f>SUBTOTAL(2,A2:A75)</f>
         <v>74</v>
@@ -5281,60 +5263,65 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N75" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
+  <autoFilter ref="A1:N75">
+    <sortState ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J68" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J69" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K69" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L69" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M69" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="N7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="N26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J4" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L62" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K62" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M62" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="N62" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="N72" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J60" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K60" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="L60" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="M60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J17" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K17" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L17" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="M17" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="N66" r:id="rId39" xr:uid="{D473252B-1C37-4414-9DE7-06EE1ED8A040}"/>
-    <hyperlink ref="K63" r:id="rId40" xr:uid="{C0AB8E18-2FA6-4219-825F-5A7A7A71B982}"/>
-    <hyperlink ref="L63" r:id="rId41" xr:uid="{4B2637CB-88C6-4147-9AC0-82EC14C789C5}"/>
-    <hyperlink ref="M63" r:id="rId42" xr:uid="{77434E65-A1C7-44D8-9075-36C62416E91E}"/>
-    <hyperlink ref="N74" r:id="rId43" xr:uid="{6F427B92-8219-4B09-B7CD-01D8A7C2BD49}"/>
+    <hyperlink ref="J63" r:id="rId1"/>
+    <hyperlink ref="J7" r:id="rId2"/>
+    <hyperlink ref="K7" r:id="rId3"/>
+    <hyperlink ref="L7" r:id="rId4"/>
+    <hyperlink ref="M7" r:id="rId5"/>
+    <hyperlink ref="J68" r:id="rId6"/>
+    <hyperlink ref="J69" r:id="rId7"/>
+    <hyperlink ref="K69" r:id="rId8"/>
+    <hyperlink ref="L69" r:id="rId9"/>
+    <hyperlink ref="M69" r:id="rId10"/>
+    <hyperlink ref="N7" r:id="rId11"/>
+    <hyperlink ref="N26" r:id="rId12"/>
+    <hyperlink ref="M19" r:id="rId13"/>
+    <hyperlink ref="L19" r:id="rId14"/>
+    <hyperlink ref="K19" r:id="rId15"/>
+    <hyperlink ref="J19" r:id="rId16"/>
+    <hyperlink ref="J4" r:id="rId17"/>
+    <hyperlink ref="K4" r:id="rId18"/>
+    <hyperlink ref="L4" r:id="rId19"/>
+    <hyperlink ref="M4" r:id="rId20"/>
+    <hyperlink ref="L62" r:id="rId21"/>
+    <hyperlink ref="K62" r:id="rId22"/>
+    <hyperlink ref="J62" r:id="rId23"/>
+    <hyperlink ref="M62" r:id="rId24"/>
+    <hyperlink ref="N62" r:id="rId25"/>
+    <hyperlink ref="N72" r:id="rId26"/>
+    <hyperlink ref="J27" r:id="rId27"/>
+    <hyperlink ref="K27" r:id="rId28"/>
+    <hyperlink ref="L27" r:id="rId29"/>
+    <hyperlink ref="M27" r:id="rId30"/>
+    <hyperlink ref="J60" r:id="rId31"/>
+    <hyperlink ref="K60" r:id="rId32"/>
+    <hyperlink ref="L60" r:id="rId33"/>
+    <hyperlink ref="M60" r:id="rId34"/>
+    <hyperlink ref="J17" r:id="rId35"/>
+    <hyperlink ref="K17" r:id="rId36"/>
+    <hyperlink ref="L17" r:id="rId37"/>
+    <hyperlink ref="M17" r:id="rId38"/>
+    <hyperlink ref="N66" r:id="rId39"/>
+    <hyperlink ref="K63" r:id="rId40"/>
+    <hyperlink ref="L63" r:id="rId41"/>
+    <hyperlink ref="M63" r:id="rId42"/>
+    <hyperlink ref="N74" r:id="rId43"/>
+    <hyperlink ref="N3" r:id="rId44"/>
+    <hyperlink ref="J66" r:id="rId45"/>
+    <hyperlink ref="L66" r:id="rId46"/>
+    <hyperlink ref="K66" r:id="rId47"/>
+    <hyperlink ref="M66" r:id="rId48"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId44"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId49"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -5343,7 +5330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5351,92 +5338,92 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="16">
+        <f ca="1">DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
+        <v>45110</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>314</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F2" s="16">
-        <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
-        <v>45104</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>315</v>
       </c>
       <c r="H2" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="18" t="s">
-        <v>292</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:H2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5449,119 +5436,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>322</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>323</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>324</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>325</v>
       </c>
       <c r="N2" s="20">
         <v>31</v>
@@ -5570,10 +5557,10 @@
         <v>31</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R2" s="20">
         <v>30</v>
@@ -5594,41 +5581,41 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>328</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>329</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="L3" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>330</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>331</v>
       </c>
       <c r="N3" s="20">
         <v>28</v>
@@ -5637,10 +5624,10 @@
         <v>29</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R3" s="20">
         <v>30</v>
@@ -5661,41 +5648,41 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>334</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>335</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K4" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>336</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>337</v>
       </c>
       <c r="N4" s="20">
         <v>31</v>
@@ -5704,10 +5691,10 @@
         <v>31</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R4" s="20">
         <v>30</v>
@@ -5728,41 +5715,41 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>340</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>341</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="M5" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>343</v>
       </c>
       <c r="N5" s="20">
         <v>30</v>
@@ -5771,10 +5758,10 @@
         <v>30</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R5" s="20">
         <v>30</v>
@@ -5795,41 +5782,41 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>346</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>347</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="L6" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="M6" s="20" t="s">
         <v>348</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>349</v>
       </c>
       <c r="N6" s="20">
         <v>31</v>
@@ -5838,10 +5825,10 @@
         <v>31</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R6" s="20">
         <v>30</v>
@@ -5862,41 +5849,41 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>352</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>353</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="L7" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="M7" s="20" t="s">
         <v>354</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>355</v>
       </c>
       <c r="N7" s="20">
         <v>30</v>
@@ -5905,10 +5892,10 @@
         <v>30</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R7" s="20">
         <v>30</v>
@@ -5929,41 +5916,41 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>358</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>359</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="L8" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="M8" s="20" t="s">
         <v>360</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>361</v>
       </c>
       <c r="N8" s="20">
         <v>31</v>
@@ -5972,10 +5959,10 @@
         <v>31</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R8" s="20">
         <v>30</v>
@@ -5996,7 +5983,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -6004,27 +5991,27 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>365</v>
       </c>
       <c r="N9" s="20">
         <v>31</v>
@@ -6033,10 +6020,10 @@
         <v>31</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R9" s="20">
         <v>30</v>
@@ -6057,7 +6044,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -6065,27 +6052,27 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K10" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="M10" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>369</v>
       </c>
       <c r="N10" s="20">
         <v>30</v>
@@ -6094,10 +6081,10 @@
         <v>30</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R10" s="20">
         <v>30</v>
@@ -6118,7 +6105,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -6126,27 +6113,27 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K11" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="M11" s="20" t="s">
         <v>372</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>373</v>
       </c>
       <c r="N11" s="20">
         <v>31</v>
@@ -6155,10 +6142,10 @@
         <v>31</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R11" s="20">
         <v>30</v>
@@ -6179,7 +6166,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -6187,27 +6174,27 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K12" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>376</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>377</v>
       </c>
       <c r="N12" s="20">
         <v>30</v>
@@ -6216,10 +6203,10 @@
         <v>30</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R12" s="20">
         <v>30</v>
@@ -6240,7 +6227,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -6248,27 +6235,27 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K13" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>380</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>381</v>
       </c>
       <c r="N13" s="20">
         <v>31</v>
@@ -6277,10 +6264,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R13" s="20">
         <v>30</v>
@@ -6301,7 +6288,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -6322,10 +6309,10 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R14" s="20">
         <v>5</v>
@@ -6347,7 +6334,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W14" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:W14"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -1511,9 +1511,6 @@
     <t>«موسوعة العمارة و الآثار و الفنون الإسلامية»</t>
   </si>
   <si>
-    <t>https://altafsir.com/</t>
-  </si>
-  <si>
     <t>طبعة @ 2023/07/03 م - 1444/12/15 هـ</t>
   </si>
   <si>
@@ -1524,6 +1521,9 @@
   </si>
   <si>
     <t>https://apps.apple.com/app/al-sirah-al-nabaweyya-bwabt/id1164145998</t>
+  </si>
+  <si>
+    <t>https://altafsir.com/quran.asp?languageid=1</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2139,7 @@
         <v>93</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4537,7 +4537,7 @@
         <v>285</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>224</v>
@@ -4846,16 +4846,16 @@
         <v>4</v>
       </c>
       <c r="J66" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="L66" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>499</v>
-      </c>
       <c r="M66" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>485</v>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="501">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -1524,6 +1524,9 @@
   </si>
   <si>
     <t>https://altafsir.com/quran.asp?languageid=1</t>
+  </si>
+  <si>
+    <t>https://ar.wikisource.org/wiki/مصنف_الصنعاني</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",M2))),NOT(ISERROR(SEARCH("app.box.com",M2))),NOT(ISERROR(SEARCH("islamway.net",M2))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M2))),NOT(ISERROR(SEARCH("tanzil.net",M2))),NOT(ISERROR(SEARCH("alsirah.com",M2))),NOT(ISERROR(SEARCH("i36",M2))),(RIGHT(M2,4)=".pdf"),C2=6,C2=8,C2=9),0,1)</f>
+        <f t="shared" ref="B2:B64" si="0">IF(OR(NOT(ISERROR(SEARCH("archive.org",M2))),NOT(ISERROR(SEARCH("app.box.com",M2))),NOT(ISERROR(SEARCH("islamway.net",M2))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M2))),NOT(ISERROR(SEARCH("tanzil.net",M2))),NOT(ISERROR(SEARCH("alsirah.com",M2))),NOT(ISERROR(SEARCH("altafsir.com",M2))),NOT(ISERROR(SEARCH("tafsir.app",M2))),NOT(ISERROR(SEARCH("fm6oa.org",M2))),NOT(ISERROR(SEARCH("privacypolicies.com",M2))),NOT(ISERROR(SEARCH("i36",M2))),(RIGHT(M2,4)=".pdf"),C2=6,C2=8,C2=9),0,1)</f>
         <v>0</v>
       </c>
       <c r="C2" s="7">
@@ -2102,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <f t="shared" ref="B3:B66" si="0">IF(OR(NOT(ISERROR(SEARCH("archive.org",M3))),NOT(ISERROR(SEARCH("app.box.com",M3))),NOT(ISERROR(SEARCH("islamway.net",M3))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M3))),NOT(ISERROR(SEARCH("tanzil.net",M3))),NOT(ISERROR(SEARCH("alsirah.com",M3))),NOT(ISERROR(SEARCH("i36",M3))),(RIGHT(M3,4)=".pdf"),C3=6,C3=8,C3=9),0,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C3" s="7">
@@ -4629,18 +4632,20 @@
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="N61" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K61" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="11">
@@ -4778,8 +4783,8 @@
         <v>64</v>
       </c>
       <c r="B65" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",M65))),NOT(ISERROR(SEARCH("app.box.com",M65))),NOT(ISERROR(SEARCH("islamway.net",M65))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M65))),NOT(ISERROR(SEARCH("tanzil.net",M65))),NOT(ISERROR(SEARCH("alsirah.com",M65))),NOT(ISERROR(SEARCH("altafsir.com",M65))),NOT(ISERROR(SEARCH("tafsir.app",M65))),NOT(ISERROR(SEARCH("fm6oa.org",M65))),NOT(ISERROR(SEARCH("privacypolicies.com",M65))),NOT(ISERROR(SEARCH("i36",M65))),(RIGHT(M65,4)=".pdf"),C65=6,C65=8,C65=9),0,1)</f>
+        <v>0</v>
       </c>
       <c r="C65" s="7">
         <v>11</v>
@@ -4821,7 +4826,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B66:B75" si="1">IF(OR(NOT(ISERROR(SEARCH("archive.org",M66))),NOT(ISERROR(SEARCH("app.box.com",M66))),NOT(ISERROR(SEARCH("islamway.net",M66))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M66))),NOT(ISERROR(SEARCH("tanzil.net",M66))),NOT(ISERROR(SEARCH("alsirah.com",M66))),NOT(ISERROR(SEARCH("altafsir.com",M66))),NOT(ISERROR(SEARCH("tafsir.app",M66))),NOT(ISERROR(SEARCH("fm6oa.org",M66))),NOT(ISERROR(SEARCH("privacypolicies.com",M66))),NOT(ISERROR(SEARCH("i36",M66))),(RIGHT(M66,4)=".pdf"),C66=6,C66=8,C66=9),0,1)</f>
         <v>0</v>
       </c>
       <c r="C66" s="7">
@@ -4866,7 +4871,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="12">
-        <f t="shared" ref="B67:B73" si="1">IF(OR(NOT(ISERROR(SEARCH("archive.org",M67))),NOT(ISERROR(SEARCH("app.box.com",M67))),NOT(ISERROR(SEARCH("islamway.net",M67))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M67))),NOT(ISERROR(SEARCH("tanzil.net",M67))),NOT(ISERROR(SEARCH("alsirah.com",M67))),NOT(ISERROR(SEARCH("i36",M67))),(RIGHT(M67,4)=".pdf"),C67=6,C67=8,C67=9),0,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C67" s="7">
@@ -5169,7 +5174,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",M74))),NOT(ISERROR(SEARCH("app.box.com",M74))),NOT(ISERROR(SEARCH("islamway.net",M74))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M74))),NOT(ISERROR(SEARCH("tanzil.net",M74))),NOT(ISERROR(SEARCH("alsirah.com",M74))),NOT(ISERROR(SEARCH("i36",M74))),(RIGHT(M74,4)=".pdf"),C74=6,C74=8,C74=9),0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C74" s="7">
@@ -5214,7 +5219,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",M75))),NOT(ISERROR(SEARCH("app.box.com",M75))),NOT(ISERROR(SEARCH("islamway.net",M75))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M75))),NOT(ISERROR(SEARCH("tanzil.net",M75))),NOT(ISERROR(SEARCH("alsirah.com",M75))),NOT(ISERROR(SEARCH("i36",M75))),(RIGHT(M75,4)=".pdf"),C75=6,C75=8,C75=9),0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C75" s="7">
@@ -5259,7 +5264,7 @@
       </c>
       <c r="B76" s="14">
         <f>SUBTOTAL(9,B2:B75)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="500">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -722,9 +722,6 @@
     <t>Tools</t>
   </si>
   <si>
-    <t>https://shamela.ws/book/84</t>
-  </si>
-  <si>
     <t>القرآن الكريم و علومه</t>
   </si>
   <si>
@@ -743,9 +740,6 @@
     <t>HadithText-Workbook1</t>
   </si>
   <si>
-    <t>https://shamela.ws/book/333</t>
-  </si>
-  <si>
     <t>https://shamela.ws/book/11430</t>
   </si>
   <si>
@@ -1527,6 +1521,9 @@
   </si>
   <si>
     <t>https://ar.wikisource.org/wiki/مصنف_الصنعاني</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/6996</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +1994,7 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -2018,7 +2015,7 @@
         <v>91</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>84</v>
@@ -2054,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2069,10 +2066,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2" s="9">
         <v>1.1299999999999999</v>
@@ -2112,10 +2109,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F3" s="9">
         <v>1.01</v>
@@ -2142,7 +2139,7 @@
         <v>93</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2157,34 +2154,34 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" s="9">
         <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -2200,7 +2197,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>225</v>
@@ -2209,13 +2206,13 @@
         <v>11.02</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>81</v>
@@ -2227,7 +2224,7 @@
         <v>83</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -2304,19 +2301,19 @@
         <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2331,10 +2328,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F8" s="9">
         <v>2.09</v>
@@ -2374,16 +2371,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F9" s="9">
         <v>2.0099999999999998</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>92</v>
@@ -2426,25 +2423,25 @@
         <v>8.0299999999999994</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>192</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N10" s="3"/>
     </row>
@@ -2460,10 +2457,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F11" s="9">
         <v>7.01</v>
@@ -2561,7 +2558,7 @@
         <v>217</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>219</v>
@@ -2604,7 +2601,7 @@
         <v>187</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>186</v>
@@ -2632,10 +2629,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F15" s="9">
         <v>7.05</v>
@@ -2644,7 +2641,7 @@
         <v>99</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>100</v>
@@ -2684,25 +2681,25 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N16" s="3"/>
     </row>
@@ -2718,34 +2715,34 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F17" s="9">
         <v>10.01</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>483</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="N17" s="3"/>
     </row>
@@ -2773,7 +2770,7 @@
         <v>80</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>75</v>
@@ -2804,34 +2801,34 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F19" s="9">
         <v>7.04</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N19" s="3"/>
     </row>
@@ -2847,10 +2844,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F20" s="9">
         <v>5.04</v>
@@ -2865,16 +2862,16 @@
         <v>15</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N20" s="3"/>
     </row>
@@ -2911,13 +2908,13 @@
         <v>30</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N21" s="3"/>
     </row>
@@ -2933,10 +2930,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F22" s="9">
         <v>5.01</v>
@@ -2960,7 +2957,7 @@
         <v>46</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N22" s="3"/>
     </row>
@@ -3062,10 +3059,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F25" s="9">
         <v>5.03</v>
@@ -3105,10 +3102,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F26" s="9">
         <v>1.02</v>
@@ -3135,7 +3132,7 @@
         <v>95</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3150,34 +3147,34 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F27" s="9">
         <v>2.0699999999999998</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="N27" s="3"/>
     </row>
@@ -3251,7 +3248,7 @@
         <v>161</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>128</v>
@@ -3322,10 +3319,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F31" s="9">
         <v>5.0199999999999996</v>
@@ -3349,7 +3346,7 @@
         <v>52</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N31" s="3"/>
     </row>
@@ -3380,7 +3377,7 @@
         <v>149</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>110</v>
@@ -3423,7 +3420,7 @@
         <v>176</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>139</v>
@@ -3509,7 +3506,7 @@
         <v>159</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>160</v>
@@ -3595,7 +3592,7 @@
         <v>141</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>114</v>
@@ -3681,7 +3678,7 @@
         <v>154</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>124</v>
@@ -3724,7 +3721,7 @@
         <v>148</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>115</v>
@@ -3767,7 +3764,7 @@
         <v>152</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>123</v>
@@ -3896,7 +3893,7 @@
         <v>158</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>121</v>
@@ -4068,7 +4065,7 @@
         <v>174</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>138</v>
@@ -4111,7 +4108,7 @@
         <v>144</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>119</v>
@@ -4197,7 +4194,7 @@
         <v>88</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>58</v>
@@ -4341,7 +4338,7 @@
         <v>210</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -4356,10 +4353,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F55" s="9">
         <v>5.05</v>
@@ -4374,16 +4371,16 @@
         <v>104</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N55" s="3"/>
     </row>
@@ -4399,10 +4396,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F56" s="9">
         <v>7.02</v>
@@ -4411,7 +4408,7 @@
         <v>41</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>15</v>
@@ -4454,7 +4451,7 @@
         <v>66</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>195</v>
@@ -4528,7 +4525,7 @@
         <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>225</v>
@@ -4537,10 +4534,10 @@
         <v>11.04</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>224</v>
@@ -4571,34 +4568,34 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F60" s="9">
         <v>2.0499999999999998</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N60" s="3"/>
     </row>
@@ -4614,38 +4611,36 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F61" s="9">
         <v>2.0299999999999998</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="11">
@@ -4659,10 +4654,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F62" s="9">
         <v>1.1100000000000001</v>
@@ -4671,25 +4666,25 @@
         <v>197</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4704,34 +4699,34 @@
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F63" s="9">
         <v>2.08</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="N63" s="3"/>
     </row>
@@ -4747,7 +4742,7 @@
         <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>225</v>
@@ -4756,25 +4751,25 @@
         <v>11.01</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="J64" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N64" s="3"/>
     </row>
@@ -4790,7 +4785,7 @@
         <v>11</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>225</v>
@@ -4799,25 +4794,25 @@
         <v>11.03</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="K65" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N65" s="3"/>
     </row>
@@ -4833,10 +4828,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F66" s="9">
         <v>2.06</v>
@@ -4851,19 +4846,19 @@
         <v>4</v>
       </c>
       <c r="J66" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>498</v>
-      </c>
       <c r="M66" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4878,10 +4873,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F67" s="9">
         <v>1.1399999999999999</v>
@@ -4921,34 +4916,34 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F68" s="9">
         <v>9.02</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N68" s="3"/>
     </row>
@@ -4964,34 +4959,34 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F69" s="9">
         <v>9.01</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N69" s="3"/>
     </row>
@@ -5007,34 +5002,34 @@
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F70" s="9">
         <v>2.04</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>239</v>
+        <v>499</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>239</v>
+        <v>499</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>239</v>
+        <v>499</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>239</v>
+        <v>499</v>
       </c>
       <c r="N70" s="3"/>
     </row>
@@ -5050,10 +5045,10 @@
         <v>10</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F71" s="9">
         <v>10.02</v>
@@ -5093,10 +5088,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F72" s="9">
         <v>1.03</v>
@@ -5105,7 +5100,7 @@
         <v>196</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>4</v>
@@ -5123,7 +5118,7 @@
         <v>94</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -5138,34 +5133,34 @@
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F73" s="9">
         <v>2.02</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N73" s="3"/>
     </row>
@@ -5181,37 +5176,37 @@
         <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F74" s="9">
         <v>10.3</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -5226,10 +5221,10 @@
         <v>7</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F75" s="9">
         <v>7.03</v>
@@ -5238,7 +5233,7 @@
         <v>97</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>15</v>
@@ -5323,10 +5318,14 @@
     <hyperlink ref="L66" r:id="rId46"/>
     <hyperlink ref="K66" r:id="rId47"/>
     <hyperlink ref="M66" r:id="rId48"/>
+    <hyperlink ref="J70" r:id="rId49"/>
+    <hyperlink ref="K70" r:id="rId50"/>
+    <hyperlink ref="L70" r:id="rId51"/>
+    <hyperlink ref="M70" r:id="rId52"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId49"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId53"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -5351,52 +5350,52 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F2" s="16">
         <f ca="1">DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
         <v>45110</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H2" s="11">
         <v>0</v>
@@ -5404,22 +5403,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5450,73 +5449,73 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -5524,36 +5523,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>322</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N2" s="20">
         <v>31</v>
@@ -5562,10 +5561,10 @@
         <v>31</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R2" s="20">
         <v>30</v>
@@ -5591,36 +5590,36 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>326</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>328</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N3" s="20">
         <v>28</v>
@@ -5629,10 +5628,10 @@
         <v>29</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R3" s="20">
         <v>30</v>
@@ -5658,36 +5657,36 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>332</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N4" s="20">
         <v>31</v>
@@ -5696,10 +5695,10 @@
         <v>31</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R4" s="20">
         <v>30</v>
@@ -5725,36 +5724,36 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>338</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>340</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N5" s="20">
         <v>30</v>
@@ -5763,10 +5762,10 @@
         <v>30</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R5" s="20">
         <v>30</v>
@@ -5792,36 +5791,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>344</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N6" s="20">
         <v>31</v>
@@ -5830,10 +5829,10 @@
         <v>31</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="R6" s="20">
         <v>30</v>
@@ -5859,36 +5858,36 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>350</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>352</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N7" s="20">
         <v>30</v>
@@ -5897,10 +5896,10 @@
         <v>30</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R7" s="20">
         <v>30</v>
@@ -5926,36 +5925,36 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>356</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>358</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N8" s="20">
         <v>31</v>
@@ -5964,10 +5963,10 @@
         <v>31</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="R8" s="20">
         <v>30</v>
@@ -5996,27 +5995,27 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N9" s="20">
         <v>31</v>
@@ -6025,10 +6024,10 @@
         <v>31</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="R9" s="20">
         <v>30</v>
@@ -6057,27 +6056,27 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N10" s="20">
         <v>30</v>
@@ -6086,10 +6085,10 @@
         <v>30</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="R10" s="20">
         <v>30</v>
@@ -6118,27 +6117,27 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N11" s="20">
         <v>31</v>
@@ -6147,10 +6146,10 @@
         <v>31</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R11" s="20">
         <v>30</v>
@@ -6179,27 +6178,27 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N12" s="20">
         <v>30</v>
@@ -6208,10 +6207,10 @@
         <v>30</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R12" s="20">
         <v>30</v>
@@ -6240,27 +6239,27 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N13" s="20">
         <v>31</v>
@@ -6269,10 +6268,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="R13" s="20">
         <v>30</v>
@@ -6314,10 +6313,10 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="R14" s="20">
         <v>5</v>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="499">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -1515,9 +1515,6 @@
   </si>
   <si>
     <t>https://apps.apple.com/app/al-sirah-al-nabaweyya-bwabt/id1164145998</t>
-  </si>
-  <si>
-    <t>https://altafsir.com/quran.asp?languageid=1</t>
   </si>
   <si>
     <t>https://ar.wikisource.org/wiki/مصنف_الصنعاني</t>
@@ -1994,7 +1991,7 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -2138,9 +2135,7 @@
       <c r="M3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>497</v>
-      </c>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="11">
@@ -4629,16 +4624,16 @@
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N61" s="3"/>
     </row>
@@ -5020,16 +5015,16 @@
         <v>15</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N70" s="3"/>
     </row>
@@ -5313,19 +5308,18 @@
     <hyperlink ref="L63" r:id="rId41"/>
     <hyperlink ref="M63" r:id="rId42"/>
     <hyperlink ref="N74" r:id="rId43"/>
-    <hyperlink ref="N3" r:id="rId44"/>
-    <hyperlink ref="J66" r:id="rId45"/>
-    <hyperlink ref="L66" r:id="rId46"/>
-    <hyperlink ref="K66" r:id="rId47"/>
-    <hyperlink ref="M66" r:id="rId48"/>
-    <hyperlink ref="J70" r:id="rId49"/>
-    <hyperlink ref="K70" r:id="rId50"/>
-    <hyperlink ref="L70" r:id="rId51"/>
-    <hyperlink ref="M70" r:id="rId52"/>
+    <hyperlink ref="J66" r:id="rId44"/>
+    <hyperlink ref="L66" r:id="rId45"/>
+    <hyperlink ref="K66" r:id="rId46"/>
+    <hyperlink ref="M66" r:id="rId47"/>
+    <hyperlink ref="J70" r:id="rId48"/>
+    <hyperlink ref="K70" r:id="rId49"/>
+    <hyperlink ref="L70" r:id="rId50"/>
+    <hyperlink ref="M70" r:id="rId51"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId53"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId52"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12">
-        <f t="shared" ref="B2:B64" si="0">IF(OR(NOT(ISERROR(SEARCH("archive.org",M2))),NOT(ISERROR(SEARCH("app.box.com",M2))),NOT(ISERROR(SEARCH("islamway.net",M2))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M2))),NOT(ISERROR(SEARCH("tanzil.net",M2))),NOT(ISERROR(SEARCH("alsirah.com",M2))),NOT(ISERROR(SEARCH("altafsir.com",M2))),NOT(ISERROR(SEARCH("tafsir.app",M2))),NOT(ISERROR(SEARCH("fm6oa.org",M2))),NOT(ISERROR(SEARCH("privacypolicies.com",M2))),NOT(ISERROR(SEARCH("i36",M2))),(RIGHT(M2,4)=".pdf"),C2=6,C2=8,C2=9),0,1)</f>
+        <f>IF(OR(NOT(ISERROR(SEARCH("i36",M2))),NOT(ISERROR(SEARCH("alsirah.com",M2))),NOT(ISERROR(SEARCH("altafsir.com",M2))),NOT(ISERROR(SEARCH("app.box.com",M2))),NOT(ISERROR(SEARCH("archive.org",M2))),NOT(ISERROR(SEARCH("dorar.net",M2))),NOT(ISERROR(SEARCH("fm6oa.org",M2))),NOT(ISERROR(SEARCH("ihsanetwork.org",M2))),NOT(ISERROR(SEARCH("islamway.net",M2))),NOT(ISERROR(SEARCH("privacypolicies.com",M2))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M2))),NOT(ISERROR(SEARCH("tafsir.app",M2))),NOT(ISERROR(SEARCH("tanzil.net",M2))),(RIGHT(M2,4)=".pdf"),C2=6,C2=8,C2=9),0,1)</f>
         <v>0</v>
       </c>
       <c r="C2" s="7">
@@ -2099,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B3:B66" si="0">IF(OR(NOT(ISERROR(SEARCH("i36",M3))),NOT(ISERROR(SEARCH("alsirah.com",M3))),NOT(ISERROR(SEARCH("altafsir.com",M3))),NOT(ISERROR(SEARCH("app.box.com",M3))),NOT(ISERROR(SEARCH("archive.org",M3))),NOT(ISERROR(SEARCH("dorar.net",M3))),NOT(ISERROR(SEARCH("fm6oa.org",M3))),NOT(ISERROR(SEARCH("ihsanetwork.org",M3))),NOT(ISERROR(SEARCH("islamway.net",M3))),NOT(ISERROR(SEARCH("privacypolicies.com",M3))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M3))),NOT(ISERROR(SEARCH("tafsir.app",M3))),NOT(ISERROR(SEARCH("tanzil.net",M3))),(RIGHT(M3,4)=".pdf"),C3=6,C3=8,C3=9),0,1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="7">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B9" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -4773,7 +4773,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",M65))),NOT(ISERROR(SEARCH("app.box.com",M65))),NOT(ISERROR(SEARCH("islamway.net",M65))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M65))),NOT(ISERROR(SEARCH("tanzil.net",M65))),NOT(ISERROR(SEARCH("alsirah.com",M65))),NOT(ISERROR(SEARCH("altafsir.com",M65))),NOT(ISERROR(SEARCH("tafsir.app",M65))),NOT(ISERROR(SEARCH("fm6oa.org",M65))),NOT(ISERROR(SEARCH("privacypolicies.com",M65))),NOT(ISERROR(SEARCH("i36",M65))),(RIGHT(M65,4)=".pdf"),C65=6,C65=8,C65=9),0,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C65" s="7">
@@ -4816,7 +4816,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="12">
-        <f t="shared" ref="B66:B75" si="1">IF(OR(NOT(ISERROR(SEARCH("archive.org",M66))),NOT(ISERROR(SEARCH("app.box.com",M66))),NOT(ISERROR(SEARCH("islamway.net",M66))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M66))),NOT(ISERROR(SEARCH("tanzil.net",M66))),NOT(ISERROR(SEARCH("alsirah.com",M66))),NOT(ISERROR(SEARCH("altafsir.com",M66))),NOT(ISERROR(SEARCH("tafsir.app",M66))),NOT(ISERROR(SEARCH("fm6oa.org",M66))),NOT(ISERROR(SEARCH("privacypolicies.com",M66))),NOT(ISERROR(SEARCH("i36",M66))),(RIGHT(M66,4)=".pdf"),C66=6,C66=8,C66=9),0,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C66" s="7">
@@ -4861,7 +4861,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B67:B75" si="1">IF(OR(NOT(ISERROR(SEARCH("i36",M67))),NOT(ISERROR(SEARCH("alsirah.com",M67))),NOT(ISERROR(SEARCH("altafsir.com",M67))),NOT(ISERROR(SEARCH("app.box.com",M67))),NOT(ISERROR(SEARCH("archive.org",M67))),NOT(ISERROR(SEARCH("dorar.net",M67))),NOT(ISERROR(SEARCH("fm6oa.org",M67))),NOT(ISERROR(SEARCH("ihsanetwork.org",M67))),NOT(ISERROR(SEARCH("islamway.net",M67))),NOT(ISERROR(SEARCH("privacypolicies.com",M67))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M67))),NOT(ISERROR(SEARCH("tafsir.app",M67))),NOT(ISERROR(SEARCH("tanzil.net",M67))),(RIGHT(M67,4)=".pdf"),C67=6,C67=8,C67=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C67" s="7">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="B76" s="14">
         <f>SUBTOTAL(9,B2:B75)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="501">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -1521,6 +1521,12 @@
   </si>
   <si>
     <t>https://ketabonline.com/books/6996</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/1686</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/228</t>
   </si>
 </sst>
 </file>
@@ -4624,18 +4630,20 @@
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="N61" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="K61" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="11">
@@ -4712,18 +4720,20 @@
         <v>15</v>
       </c>
       <c r="J63" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="N63" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="11">
@@ -5265,61 +5275,66 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J63" r:id="rId1"/>
-    <hyperlink ref="J7" r:id="rId2"/>
-    <hyperlink ref="K7" r:id="rId3"/>
-    <hyperlink ref="L7" r:id="rId4"/>
-    <hyperlink ref="M7" r:id="rId5"/>
-    <hyperlink ref="J68" r:id="rId6"/>
-    <hyperlink ref="J69" r:id="rId7"/>
-    <hyperlink ref="K69" r:id="rId8"/>
-    <hyperlink ref="L69" r:id="rId9"/>
-    <hyperlink ref="M69" r:id="rId10"/>
-    <hyperlink ref="N7" r:id="rId11"/>
-    <hyperlink ref="N26" r:id="rId12"/>
-    <hyperlink ref="M19" r:id="rId13"/>
-    <hyperlink ref="L19" r:id="rId14"/>
-    <hyperlink ref="K19" r:id="rId15"/>
-    <hyperlink ref="J19" r:id="rId16"/>
-    <hyperlink ref="J4" r:id="rId17"/>
-    <hyperlink ref="K4" r:id="rId18"/>
-    <hyperlink ref="L4" r:id="rId19"/>
-    <hyperlink ref="M4" r:id="rId20"/>
-    <hyperlink ref="L62" r:id="rId21"/>
-    <hyperlink ref="K62" r:id="rId22"/>
-    <hyperlink ref="J62" r:id="rId23"/>
-    <hyperlink ref="M62" r:id="rId24"/>
-    <hyperlink ref="N62" r:id="rId25"/>
-    <hyperlink ref="N72" r:id="rId26"/>
-    <hyperlink ref="J27" r:id="rId27"/>
-    <hyperlink ref="K27" r:id="rId28"/>
-    <hyperlink ref="L27" r:id="rId29"/>
-    <hyperlink ref="M27" r:id="rId30"/>
-    <hyperlink ref="J60" r:id="rId31"/>
-    <hyperlink ref="K60" r:id="rId32"/>
-    <hyperlink ref="L60" r:id="rId33"/>
-    <hyperlink ref="M60" r:id="rId34"/>
-    <hyperlink ref="J17" r:id="rId35"/>
-    <hyperlink ref="K17" r:id="rId36"/>
-    <hyperlink ref="L17" r:id="rId37"/>
-    <hyperlink ref="M17" r:id="rId38"/>
-    <hyperlink ref="N66" r:id="rId39"/>
-    <hyperlink ref="K63" r:id="rId40"/>
-    <hyperlink ref="L63" r:id="rId41"/>
-    <hyperlink ref="M63" r:id="rId42"/>
-    <hyperlink ref="N74" r:id="rId43"/>
-    <hyperlink ref="J66" r:id="rId44"/>
-    <hyperlink ref="L66" r:id="rId45"/>
-    <hyperlink ref="K66" r:id="rId46"/>
-    <hyperlink ref="M66" r:id="rId47"/>
-    <hyperlink ref="J70" r:id="rId48"/>
-    <hyperlink ref="K70" r:id="rId49"/>
-    <hyperlink ref="L70" r:id="rId50"/>
-    <hyperlink ref="M70" r:id="rId51"/>
+    <hyperlink ref="J7" r:id="rId1"/>
+    <hyperlink ref="K7" r:id="rId2"/>
+    <hyperlink ref="L7" r:id="rId3"/>
+    <hyperlink ref="M7" r:id="rId4"/>
+    <hyperlink ref="J68" r:id="rId5"/>
+    <hyperlink ref="J69" r:id="rId6"/>
+    <hyperlink ref="K69" r:id="rId7"/>
+    <hyperlink ref="L69" r:id="rId8"/>
+    <hyperlink ref="M69" r:id="rId9"/>
+    <hyperlink ref="N7" r:id="rId10"/>
+    <hyperlink ref="N26" r:id="rId11"/>
+    <hyperlink ref="M19" r:id="rId12"/>
+    <hyperlink ref="L19" r:id="rId13"/>
+    <hyperlink ref="K19" r:id="rId14"/>
+    <hyperlink ref="J19" r:id="rId15"/>
+    <hyperlink ref="J4" r:id="rId16"/>
+    <hyperlink ref="K4" r:id="rId17"/>
+    <hyperlink ref="L4" r:id="rId18"/>
+    <hyperlink ref="M4" r:id="rId19"/>
+    <hyperlink ref="L62" r:id="rId20"/>
+    <hyperlink ref="K62" r:id="rId21"/>
+    <hyperlink ref="J62" r:id="rId22"/>
+    <hyperlink ref="M62" r:id="rId23"/>
+    <hyperlink ref="N62" r:id="rId24"/>
+    <hyperlink ref="N72" r:id="rId25"/>
+    <hyperlink ref="J27" r:id="rId26"/>
+    <hyperlink ref="K27" r:id="rId27"/>
+    <hyperlink ref="L27" r:id="rId28"/>
+    <hyperlink ref="M27" r:id="rId29"/>
+    <hyperlink ref="J60" r:id="rId30"/>
+    <hyperlink ref="K60" r:id="rId31"/>
+    <hyperlink ref="L60" r:id="rId32"/>
+    <hyperlink ref="M60" r:id="rId33"/>
+    <hyperlink ref="J17" r:id="rId34"/>
+    <hyperlink ref="K17" r:id="rId35"/>
+    <hyperlink ref="L17" r:id="rId36"/>
+    <hyperlink ref="M17" r:id="rId37"/>
+    <hyperlink ref="N66" r:id="rId38"/>
+    <hyperlink ref="M63" r:id="rId39"/>
+    <hyperlink ref="N74" r:id="rId40"/>
+    <hyperlink ref="J66" r:id="rId41"/>
+    <hyperlink ref="L66" r:id="rId42"/>
+    <hyperlink ref="K66" r:id="rId43"/>
+    <hyperlink ref="M66" r:id="rId44"/>
+    <hyperlink ref="J70" r:id="rId45"/>
+    <hyperlink ref="K70" r:id="rId46"/>
+    <hyperlink ref="L70" r:id="rId47"/>
+    <hyperlink ref="M70" r:id="rId48"/>
+    <hyperlink ref="M61" r:id="rId49"/>
+    <hyperlink ref="L61" r:id="rId50"/>
+    <hyperlink ref="K61" r:id="rId51"/>
+    <hyperlink ref="J61" r:id="rId52"/>
+    <hyperlink ref="N63" r:id="rId53"/>
+    <hyperlink ref="L63" r:id="rId54"/>
+    <hyperlink ref="K63" r:id="rId55"/>
+    <hyperlink ref="J63" r:id="rId56"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId52"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId57"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.8\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADD4E4D-A45F-4B31-B168-7ED00964E056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="114210" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -341,15 +360,6 @@
     <t>key</t>
   </si>
   <si>
-    <t>https://shamela.ws/book/12393</t>
-  </si>
-  <si>
-    <t>https://shamela.ws/book/7636</t>
-  </si>
-  <si>
-    <t>https://shamela.ws/book/2771</t>
-  </si>
-  <si>
     <t>دار الإفتاء المصرية</t>
   </si>
   <si>
@@ -749,9 +759,6 @@
     <t>«الجداول الجامعة في العلوم النافعة»</t>
   </si>
   <si>
-    <t>https://shamela.ws/book/127677</t>
-  </si>
-  <si>
     <t>HadithText1</t>
   </si>
   <si>
@@ -938,9 +945,6 @@
     <t>ArabiaPortal</t>
   </si>
   <si>
-    <t>https://shamela.ws/book/9987</t>
-  </si>
-  <si>
     <t>HadithSciences&amp;Terminology</t>
   </si>
   <si>
@@ -1505,9 +1509,6 @@
     <t>«موسوعة العمارة و الآثار و الفنون الإسلامية»</t>
   </si>
   <si>
-    <t>طبعة @ 2023/07/03 م - 1444/12/15 هـ</t>
-  </si>
-  <si>
     <t>https://play.google.com/store/apps/details?id=com.itgsolutions.sera</t>
   </si>
   <si>
@@ -1527,18 +1528,36 @@
   </si>
   <si>
     <t>https://ketabonline.com/books/228</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/96933</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/7023</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/3468</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/5769</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/1317</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/07/04 م - 1444/12/16 هـ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1706,13 +1725,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1750,7 +1777,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1784,6 +1811,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1818,9 +1846,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1993,7 +2022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2003,7 +2032,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -2013,12 +2042,12 @@
     <col min="10" max="14" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>84</v>
@@ -2054,10 +2083,10 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2069,10 +2098,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F2" s="9">
         <v>1.1299999999999999</v>
@@ -2100,7 +2129,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2112,19 +2141,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F3" s="9">
         <v>1.01</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>4</v>
@@ -2143,7 +2172,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2155,38 +2184,38 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F4" s="9">
         <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2198,22 +2227,22 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F5" s="9">
         <v>11.02</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>81</v>
@@ -2225,11 +2254,11 @@
         <v>83</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2259,20 +2288,20 @@
         <v>104</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>107</v>
+        <v>497</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>107</v>
+        <v>497</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>107</v>
+        <v>497</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>107</v>
+        <v>497</v>
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2302,22 +2331,22 @@
         <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2329,10 +2358,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F8" s="9">
         <v>2.09</v>
@@ -2347,20 +2376,20 @@
         <v>104</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>106</v>
+        <v>498</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>106</v>
+        <v>498</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>106</v>
+        <v>498</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>106</v>
+        <v>498</v>
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2372,16 +2401,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F9" s="9">
         <v>2.0099999999999998</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>92</v>
@@ -2403,7 +2432,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2415,38 +2444,38 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F10" s="9">
         <v>8.0299999999999994</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2458,10 +2487,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F11" s="9">
         <v>7.01</v>
@@ -2489,7 +2518,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2501,10 +2530,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F12" s="9">
         <v>8.07</v>
@@ -2516,7 +2545,7 @@
         <v>53</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>54</v>
@@ -2532,7 +2561,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2544,38 +2573,38 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F13" s="9">
         <v>8.08</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="K13" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2587,38 +2616,38 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F14" s="9">
         <v>8.09</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2630,10 +2659,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F15" s="9">
         <v>7.05</v>
@@ -2642,7 +2671,7 @@
         <v>99</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>100</v>
@@ -2661,7 +2690,7 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2673,38 +2702,38 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F16" s="9">
         <v>8.0399999999999991</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2716,38 +2745,38 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F17" s="9">
         <v>10.01</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2759,10 +2788,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F18" s="9">
         <v>8.0500000000000007</v>
@@ -2771,7 +2800,7 @@
         <v>80</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>75</v>
@@ -2790,7 +2819,7 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2802,38 +2831,38 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F19" s="9">
         <v>7.04</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2845,10 +2874,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F20" s="9">
         <v>5.04</v>
@@ -2863,20 +2892,20 @@
         <v>15</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2897,10 +2926,10 @@
         <v>4.01</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>4</v>
@@ -2909,17 +2938,17 @@
         <v>30</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2931,10 +2960,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F22" s="9">
         <v>5.01</v>
@@ -2958,11 +2987,11 @@
         <v>46</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2986,26 +3015,26 @@
         <v>74</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -3026,10 +3055,10 @@
         <v>6.02</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>4</v>
@@ -3048,7 +3077,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3060,10 +3089,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F25" s="9">
         <v>5.03</v>
@@ -3091,7 +3120,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3103,19 +3132,19 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F26" s="9">
         <v>1.02</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>4</v>
@@ -3133,10 +3162,10 @@
         <v>95</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3148,38 +3177,38 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F27" s="9">
         <v>2.0699999999999998</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3200,29 +3229,29 @@
         <v>4.05</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3243,29 +3272,29 @@
         <v>6.9640000000000004</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3286,29 +3315,29 @@
         <v>6.2690000000000001</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3320,10 +3349,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F31" s="9">
         <v>5.0199999999999996</v>
@@ -3347,11 +3376,11 @@
         <v>52</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -3372,29 +3401,29 @@
         <v>6.2489999999999997</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -3415,29 +3444,29 @@
         <v>6.9740000000000002</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -3458,29 +3487,29 @@
         <v>6.218</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3501,29 +3530,29 @@
         <v>6.9630000000000001</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3544,29 +3573,29 @@
         <v>6.2119999999999997</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3587,29 +3616,29 @@
         <v>6.2160000000000002</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3630,29 +3659,29 @@
         <v>6.9660000000000002</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3673,29 +3702,29 @@
         <v>6.9610000000000003</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3716,29 +3745,29 @@
         <v>6.2130000000000001</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3759,29 +3788,29 @@
         <v>6.97</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3802,29 +3831,29 @@
         <v>6.9619999999999997</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3845,10 +3874,10 @@
         <v>6.9649999999999999</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>4</v>
@@ -3857,17 +3886,17 @@
         <v>30</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3888,29 +3917,29 @@
         <v>6.2519999999999998</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3931,29 +3960,29 @@
         <v>6.2530000000000001</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3974,29 +4003,29 @@
         <v>6.9710000000000001</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -4017,29 +4046,29 @@
         <v>6.968</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -4060,29 +4089,29 @@
         <v>6.9729999999999999</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -4103,29 +4132,29 @@
         <v>6.2220000000000004</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -4137,22 +4166,22 @@
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F50" s="9">
         <v>8.02</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>89</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>63</v>
@@ -4168,7 +4197,7 @@
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -4180,10 +4209,10 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F51" s="9">
         <v>8.01</v>
@@ -4195,7 +4224,7 @@
         <v>88</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>58</v>
@@ -4211,7 +4240,7 @@
       </c>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -4232,29 +4261,29 @@
         <v>4.03</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -4275,29 +4304,29 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -4327,22 +4356,22 @@
         <v>104</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -4354,10 +4383,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F55" s="9">
         <v>5.05</v>
@@ -4372,20 +4401,20 @@
         <v>104</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -4397,10 +4426,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F56" s="9">
         <v>7.02</v>
@@ -4409,7 +4438,7 @@
         <v>41</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>15</v>
@@ -4428,7 +4457,7 @@
       </c>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -4440,10 +4469,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F57" s="9">
         <v>8.06</v>
@@ -4452,10 +4481,10 @@
         <v>66</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>67</v>
@@ -4471,7 +4500,7 @@
       </c>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -4492,29 +4521,29 @@
         <v>6.9669999999999996</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -4526,38 +4555,38 @@
         <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F59" s="9">
         <v>11.04</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -4569,38 +4598,38 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F60" s="9">
         <v>2.0499999999999998</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>304</v>
+        <v>496</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>304</v>
+        <v>496</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>304</v>
+        <v>496</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>304</v>
+        <v>496</v>
       </c>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4612,40 +4641,40 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F61" s="9">
         <v>2.0299999999999998</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4657,40 +4686,40 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F62" s="9">
         <v>1.1100000000000001</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="N62" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4702,40 +4731,40 @@
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F63" s="9">
         <v>2.08</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4747,38 +4776,38 @@
         <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F64" s="9">
         <v>11.01</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4790,38 +4819,38 @@
         <v>11</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F65" s="9">
         <v>11.03</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -4833,10 +4862,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F66" s="9">
         <v>2.06</v>
@@ -4851,22 +4880,22 @@
         <v>4</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4878,10 +4907,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F67" s="9">
         <v>1.1399999999999999</v>
@@ -4896,20 +4925,20 @@
         <v>104</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>105</v>
+        <v>499</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>105</v>
+        <v>499</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>105</v>
+        <v>499</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>105</v>
+        <v>499</v>
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4921,38 +4950,38 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F68" s="9">
         <v>9.02</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -4964,38 +4993,38 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F69" s="9">
         <v>9.01</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -5007,38 +5036,38 @@
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F70" s="9">
         <v>2.04</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -5050,38 +5079,38 @@
         <v>10</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F71" s="9">
         <v>10.02</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -5093,19 +5122,19 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F72" s="9">
         <v>1.03</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>4</v>
@@ -5123,10 +5152,10 @@
         <v>94</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -5138,38 +5167,38 @@
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F73" s="9">
         <v>2.02</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>241</v>
+        <v>495</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>241</v>
+        <v>495</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>241</v>
+        <v>495</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>241</v>
+        <v>495</v>
       </c>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -5181,40 +5210,40 @@
         <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F74" s="9">
         <v>10.3</v>
       </c>
       <c r="G74" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>492</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -5226,10 +5255,10 @@
         <v>7</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F75" s="9">
         <v>7.03</v>
@@ -5238,7 +5267,7 @@
         <v>97</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>15</v>
@@ -5257,7 +5286,7 @@
       </c>
       <c r="N75" s="3"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="13">
         <f>SUBTOTAL(2,A2:A75)</f>
         <v>74</v>
@@ -5268,73 +5297,89 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N75">
-    <sortState ref="A2:L56">
+  <autoFilter ref="A1:N75" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1"/>
-    <hyperlink ref="K7" r:id="rId2"/>
-    <hyperlink ref="L7" r:id="rId3"/>
-    <hyperlink ref="M7" r:id="rId4"/>
-    <hyperlink ref="J68" r:id="rId5"/>
-    <hyperlink ref="J69" r:id="rId6"/>
-    <hyperlink ref="K69" r:id="rId7"/>
-    <hyperlink ref="L69" r:id="rId8"/>
-    <hyperlink ref="M69" r:id="rId9"/>
-    <hyperlink ref="N7" r:id="rId10"/>
-    <hyperlink ref="N26" r:id="rId11"/>
-    <hyperlink ref="M19" r:id="rId12"/>
-    <hyperlink ref="L19" r:id="rId13"/>
-    <hyperlink ref="K19" r:id="rId14"/>
-    <hyperlink ref="J19" r:id="rId15"/>
-    <hyperlink ref="J4" r:id="rId16"/>
-    <hyperlink ref="K4" r:id="rId17"/>
-    <hyperlink ref="L4" r:id="rId18"/>
-    <hyperlink ref="M4" r:id="rId19"/>
-    <hyperlink ref="L62" r:id="rId20"/>
-    <hyperlink ref="K62" r:id="rId21"/>
-    <hyperlink ref="J62" r:id="rId22"/>
-    <hyperlink ref="M62" r:id="rId23"/>
-    <hyperlink ref="N62" r:id="rId24"/>
-    <hyperlink ref="N72" r:id="rId25"/>
-    <hyperlink ref="J27" r:id="rId26"/>
-    <hyperlink ref="K27" r:id="rId27"/>
-    <hyperlink ref="L27" r:id="rId28"/>
-    <hyperlink ref="M27" r:id="rId29"/>
-    <hyperlink ref="J60" r:id="rId30"/>
-    <hyperlink ref="K60" r:id="rId31"/>
-    <hyperlink ref="L60" r:id="rId32"/>
-    <hyperlink ref="M60" r:id="rId33"/>
-    <hyperlink ref="J17" r:id="rId34"/>
-    <hyperlink ref="K17" r:id="rId35"/>
-    <hyperlink ref="L17" r:id="rId36"/>
-    <hyperlink ref="M17" r:id="rId37"/>
-    <hyperlink ref="N66" r:id="rId38"/>
-    <hyperlink ref="M63" r:id="rId39"/>
-    <hyperlink ref="N74" r:id="rId40"/>
-    <hyperlink ref="J66" r:id="rId41"/>
-    <hyperlink ref="L66" r:id="rId42"/>
-    <hyperlink ref="K66" r:id="rId43"/>
-    <hyperlink ref="M66" r:id="rId44"/>
-    <hyperlink ref="J70" r:id="rId45"/>
-    <hyperlink ref="K70" r:id="rId46"/>
-    <hyperlink ref="L70" r:id="rId47"/>
-    <hyperlink ref="M70" r:id="rId48"/>
-    <hyperlink ref="M61" r:id="rId49"/>
-    <hyperlink ref="L61" r:id="rId50"/>
-    <hyperlink ref="K61" r:id="rId51"/>
-    <hyperlink ref="J61" r:id="rId52"/>
-    <hyperlink ref="N63" r:id="rId53"/>
-    <hyperlink ref="L63" r:id="rId54"/>
-    <hyperlink ref="K63" r:id="rId55"/>
-    <hyperlink ref="J63" r:id="rId56"/>
+    <hyperlink ref="J7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J68" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J69" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K69" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L69" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M69" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J4" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K4" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L62" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K62" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J62" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N62" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="N72" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="L27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J60" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="M17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="N66" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="M63" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="N74" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J66" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L66" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K66" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="M66" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J70" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K70" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L70" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="M70" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="M61" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J61" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="N63" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L63" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K63" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J73" r:id="rId54" xr:uid="{2501B1C9-6FF8-4AC2-B4F3-28E5D3A5F122}"/>
+    <hyperlink ref="K73" r:id="rId55" xr:uid="{DD3D95C7-2274-4581-9734-679BCD3F4575}"/>
+    <hyperlink ref="L73" r:id="rId56" xr:uid="{599B4BDC-25F9-418E-8994-83A1AC92310B}"/>
+    <hyperlink ref="M73" r:id="rId57" xr:uid="{6A321ABC-D74F-40DB-B5E2-B4A97CF705A7}"/>
+    <hyperlink ref="K60" r:id="rId58" xr:uid="{2A4F2ABF-D6B2-47FF-B351-B2E552E41972}"/>
+    <hyperlink ref="L60" r:id="rId59" xr:uid="{23FCC267-06F3-4369-A99D-A190AC327C30}"/>
+    <hyperlink ref="M60" r:id="rId60" xr:uid="{28EB3E0F-C46A-4F32-816F-20F72A760E74}"/>
+    <hyperlink ref="J6" r:id="rId61" xr:uid="{52E080D6-1C8C-4C00-BB48-438FB9E0CE02}"/>
+    <hyperlink ref="K6" r:id="rId62" xr:uid="{17CAA8B7-68C0-4FFA-AE0E-2BBEEFCEF093}"/>
+    <hyperlink ref="L6" r:id="rId63" xr:uid="{827DB5EB-1632-4989-B3FE-951723EC54D0}"/>
+    <hyperlink ref="M6" r:id="rId64" xr:uid="{F8B67730-06BB-4258-8A25-894FC34490D4}"/>
+    <hyperlink ref="J8" r:id="rId65" xr:uid="{6C353FC0-21A3-4AFA-A45B-A091EE116274}"/>
+    <hyperlink ref="K8" r:id="rId66" xr:uid="{6A735F67-2FE5-4DF0-BDD2-15FE5BD7EB78}"/>
+    <hyperlink ref="L8" r:id="rId67" xr:uid="{8FC5285A-7F4C-4326-97D7-173B6043C389}"/>
+    <hyperlink ref="M8" r:id="rId68" xr:uid="{1D2EEF9C-D756-457D-9FAD-307BCE82D2BD}"/>
+    <hyperlink ref="M67" r:id="rId69" xr:uid="{C6778EDB-211A-46E2-A140-9B3E5AF5257F}"/>
+    <hyperlink ref="L67" r:id="rId70" xr:uid="{2FC2589D-05FF-4B49-BA6B-F2943855F318}"/>
+    <hyperlink ref="K67" r:id="rId71" xr:uid="{6F38C51C-F51E-4B66-8745-A1F83A51FADA}"/>
+    <hyperlink ref="J67" r:id="rId72" xr:uid="{BF83B88D-6F36-42E9-B744-63FFAB46E046}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId57"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId73"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -5343,7 +5388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5351,92 +5396,92 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F2" s="16">
-        <f ca="1">DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
-        <v>45110</v>
+        <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
+        <v>45111</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H2" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H2"/>
+  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5449,119 +5494,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="N2" s="20">
         <v>31</v>
@@ -5570,10 +5615,10 @@
         <v>31</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="R2" s="20">
         <v>30</v>
@@ -5594,41 +5639,41 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N3" s="20">
         <v>28</v>
@@ -5637,10 +5682,10 @@
         <v>29</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="R3" s="20">
         <v>30</v>
@@ -5661,41 +5706,41 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="N4" s="20">
         <v>31</v>
@@ -5704,10 +5749,10 @@
         <v>31</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="R4" s="20">
         <v>30</v>
@@ -5728,41 +5773,41 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="N5" s="20">
         <v>30</v>
@@ -5771,10 +5816,10 @@
         <v>30</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="R5" s="20">
         <v>30</v>
@@ -5795,41 +5840,41 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="N6" s="20">
         <v>31</v>
@@ -5838,10 +5883,10 @@
         <v>31</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="R6" s="20">
         <v>30</v>
@@ -5862,41 +5907,41 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="N7" s="20">
         <v>30</v>
@@ -5905,10 +5950,10 @@
         <v>30</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="R7" s="20">
         <v>30</v>
@@ -5929,41 +5974,41 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N8" s="20">
         <v>31</v>
@@ -5972,10 +6017,10 @@
         <v>31</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="R8" s="20">
         <v>30</v>
@@ -5996,7 +6041,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -6004,27 +6049,27 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="N9" s="20">
         <v>31</v>
@@ -6033,10 +6078,10 @@
         <v>31</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="R9" s="20">
         <v>30</v>
@@ -6057,7 +6102,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -6065,27 +6110,27 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="N10" s="20">
         <v>30</v>
@@ -6094,10 +6139,10 @@
         <v>30</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="R10" s="20">
         <v>30</v>
@@ -6118,7 +6163,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -6126,27 +6171,27 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N11" s="20">
         <v>31</v>
@@ -6155,10 +6200,10 @@
         <v>31</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="R11" s="20">
         <v>30</v>
@@ -6179,7 +6224,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -6187,27 +6232,27 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="N12" s="20">
         <v>30</v>
@@ -6216,10 +6261,10 @@
         <v>30</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="R12" s="20">
         <v>30</v>
@@ -6240,7 +6285,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -6248,27 +6293,27 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="N13" s="20">
         <v>31</v>
@@ -6277,10 +6322,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="R13" s="20">
         <v>30</v>
@@ -6301,7 +6346,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -6322,10 +6367,10 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="R14" s="20">
         <v>5</v>
@@ -6347,7 +6392,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W14"/>
+  <autoFilter ref="A1:W14" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADD4E4D-A45F-4B31-B168-7ED00964E056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -25,25 +19,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="502">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -1545,19 +1526,22 @@
     <t>https://ketabonline.com/books/1317</t>
   </si>
   <si>
-    <t>طبعة @ 2023/07/04 م - 1444/12/16 هـ</t>
+    <t>https://ar.wikipedia.org/wiki/أذكار_الصباح_والمساء</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/07/05 م - 1444/12/17 هـ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1725,21 +1709,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1777,7 +1753,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1811,7 +1787,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1846,10 +1821,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2022,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2032,7 +2006,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -2042,7 +2016,7 @@
     <col min="10" max="14" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
@@ -2086,7 +2060,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2129,7 +2103,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2172,7 +2146,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2215,7 +2189,7 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2258,7 +2232,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2301,7 +2275,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2346,7 +2320,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2389,7 +2363,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2432,7 +2406,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2475,7 +2449,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2518,7 +2492,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2561,7 +2535,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2604,7 +2578,7 @@
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2647,7 +2621,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2690,7 +2664,7 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2733,7 +2707,7 @@
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2776,7 +2750,7 @@
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2819,7 +2793,7 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2862,7 +2836,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2905,7 +2879,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2948,7 +2922,7 @@
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2989,9 +2963,11 @@
       <c r="M22" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -3034,7 +3010,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -3077,7 +3053,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3120,7 +3096,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3165,7 +3141,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3208,7 +3184,7 @@
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3251,7 +3227,7 @@
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3294,7 +3270,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3337,7 +3313,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3380,7 +3356,7 @@
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -3423,7 +3399,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -3466,7 +3442,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -3509,7 +3485,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3552,7 +3528,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3595,7 +3571,7 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3638,7 +3614,7 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3681,7 +3657,7 @@
       </c>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3724,7 +3700,7 @@
       </c>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3767,7 +3743,7 @@
       </c>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3810,7 +3786,7 @@
       </c>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3853,7 +3829,7 @@
       </c>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3896,7 +3872,7 @@
       </c>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3939,7 +3915,7 @@
       </c>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3982,7 +3958,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -4025,7 +4001,7 @@
       </c>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -4068,7 +4044,7 @@
       </c>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -4111,7 +4087,7 @@
       </c>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -4154,7 +4130,7 @@
       </c>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -4197,7 +4173,7 @@
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -4240,7 +4216,7 @@
       </c>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -4283,7 +4259,7 @@
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -4326,7 +4302,7 @@
       </c>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -4371,7 +4347,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -4414,7 +4390,7 @@
       </c>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -4457,7 +4433,7 @@
       </c>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -4500,7 +4476,7 @@
       </c>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -4543,7 +4519,7 @@
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -4567,7 +4543,7 @@
         <v>279</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>221</v>
@@ -4586,7 +4562,7 @@
       </c>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -4629,7 +4605,7 @@
       </c>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4674,7 +4650,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4719,7 +4695,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4764,7 +4740,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4807,7 +4783,7 @@
       </c>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4850,7 +4826,7 @@
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -4895,7 +4871,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4938,7 +4914,7 @@
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4981,7 +4957,7 @@
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -5024,7 +5000,7 @@
       </c>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -5067,7 +5043,7 @@
       </c>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -5110,7 +5086,7 @@
       </c>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -5155,7 +5131,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -5198,7 +5174,7 @@
       </c>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -5243,7 +5219,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -5286,7 +5262,7 @@
       </c>
       <c r="N75" s="3"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="A76" s="13">
         <f>SUBTOTAL(2,A2:A75)</f>
         <v>74</v>
@@ -5297,89 +5273,90 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N75" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
+  <autoFilter ref="A1:N75">
+    <sortState ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J68" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J69" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K69" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L69" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M69" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="N7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="N26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J4" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K4" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="M4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L62" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K62" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J62" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="N62" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="N72" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="L27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J60" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="L17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="M17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="N66" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="M63" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="N74" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J66" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L66" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K66" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="M66" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J70" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K70" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L70" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="M70" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="M61" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="L61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J61" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="N63" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="L63" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K63" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J73" r:id="rId54" xr:uid="{2501B1C9-6FF8-4AC2-B4F3-28E5D3A5F122}"/>
-    <hyperlink ref="K73" r:id="rId55" xr:uid="{DD3D95C7-2274-4581-9734-679BCD3F4575}"/>
-    <hyperlink ref="L73" r:id="rId56" xr:uid="{599B4BDC-25F9-418E-8994-83A1AC92310B}"/>
-    <hyperlink ref="M73" r:id="rId57" xr:uid="{6A321ABC-D74F-40DB-B5E2-B4A97CF705A7}"/>
-    <hyperlink ref="K60" r:id="rId58" xr:uid="{2A4F2ABF-D6B2-47FF-B351-B2E552E41972}"/>
-    <hyperlink ref="L60" r:id="rId59" xr:uid="{23FCC267-06F3-4369-A99D-A190AC327C30}"/>
-    <hyperlink ref="M60" r:id="rId60" xr:uid="{28EB3E0F-C46A-4F32-816F-20F72A760E74}"/>
-    <hyperlink ref="J6" r:id="rId61" xr:uid="{52E080D6-1C8C-4C00-BB48-438FB9E0CE02}"/>
-    <hyperlink ref="K6" r:id="rId62" xr:uid="{17CAA8B7-68C0-4FFA-AE0E-2BBEEFCEF093}"/>
-    <hyperlink ref="L6" r:id="rId63" xr:uid="{827DB5EB-1632-4989-B3FE-951723EC54D0}"/>
-    <hyperlink ref="M6" r:id="rId64" xr:uid="{F8B67730-06BB-4258-8A25-894FC34490D4}"/>
-    <hyperlink ref="J8" r:id="rId65" xr:uid="{6C353FC0-21A3-4AFA-A45B-A091EE116274}"/>
-    <hyperlink ref="K8" r:id="rId66" xr:uid="{6A735F67-2FE5-4DF0-BDD2-15FE5BD7EB78}"/>
-    <hyperlink ref="L8" r:id="rId67" xr:uid="{8FC5285A-7F4C-4326-97D7-173B6043C389}"/>
-    <hyperlink ref="M8" r:id="rId68" xr:uid="{1D2EEF9C-D756-457D-9FAD-307BCE82D2BD}"/>
-    <hyperlink ref="M67" r:id="rId69" xr:uid="{C6778EDB-211A-46E2-A140-9B3E5AF5257F}"/>
-    <hyperlink ref="L67" r:id="rId70" xr:uid="{2FC2589D-05FF-4B49-BA6B-F2943855F318}"/>
-    <hyperlink ref="K67" r:id="rId71" xr:uid="{6F38C51C-F51E-4B66-8745-A1F83A51FADA}"/>
-    <hyperlink ref="J67" r:id="rId72" xr:uid="{BF83B88D-6F36-42E9-B744-63FFAB46E046}"/>
+    <hyperlink ref="J7" r:id="rId1"/>
+    <hyperlink ref="K7" r:id="rId2"/>
+    <hyperlink ref="L7" r:id="rId3"/>
+    <hyperlink ref="M7" r:id="rId4"/>
+    <hyperlink ref="J68" r:id="rId5"/>
+    <hyperlink ref="J69" r:id="rId6"/>
+    <hyperlink ref="K69" r:id="rId7"/>
+    <hyperlink ref="L69" r:id="rId8"/>
+    <hyperlink ref="M69" r:id="rId9"/>
+    <hyperlink ref="N7" r:id="rId10"/>
+    <hyperlink ref="N26" r:id="rId11"/>
+    <hyperlink ref="M19" r:id="rId12"/>
+    <hyperlink ref="L19" r:id="rId13"/>
+    <hyperlink ref="K19" r:id="rId14"/>
+    <hyperlink ref="J19" r:id="rId15"/>
+    <hyperlink ref="J4" r:id="rId16"/>
+    <hyperlink ref="K4" r:id="rId17"/>
+    <hyperlink ref="L4" r:id="rId18"/>
+    <hyperlink ref="M4" r:id="rId19"/>
+    <hyperlink ref="L62" r:id="rId20"/>
+    <hyperlink ref="K62" r:id="rId21"/>
+    <hyperlink ref="J62" r:id="rId22"/>
+    <hyperlink ref="M62" r:id="rId23"/>
+    <hyperlink ref="N62" r:id="rId24"/>
+    <hyperlink ref="N72" r:id="rId25"/>
+    <hyperlink ref="J27" r:id="rId26"/>
+    <hyperlink ref="K27" r:id="rId27"/>
+    <hyperlink ref="L27" r:id="rId28"/>
+    <hyperlink ref="M27" r:id="rId29"/>
+    <hyperlink ref="J60" r:id="rId30"/>
+    <hyperlink ref="J17" r:id="rId31"/>
+    <hyperlink ref="K17" r:id="rId32"/>
+    <hyperlink ref="L17" r:id="rId33"/>
+    <hyperlink ref="M17" r:id="rId34"/>
+    <hyperlink ref="N66" r:id="rId35"/>
+    <hyperlink ref="M63" r:id="rId36"/>
+    <hyperlink ref="N74" r:id="rId37"/>
+    <hyperlink ref="J66" r:id="rId38"/>
+    <hyperlink ref="L66" r:id="rId39"/>
+    <hyperlink ref="K66" r:id="rId40"/>
+    <hyperlink ref="M66" r:id="rId41"/>
+    <hyperlink ref="J70" r:id="rId42"/>
+    <hyperlink ref="K70" r:id="rId43"/>
+    <hyperlink ref="L70" r:id="rId44"/>
+    <hyperlink ref="M70" r:id="rId45"/>
+    <hyperlink ref="M61" r:id="rId46"/>
+    <hyperlink ref="L61" r:id="rId47"/>
+    <hyperlink ref="K61" r:id="rId48"/>
+    <hyperlink ref="J61" r:id="rId49"/>
+    <hyperlink ref="N63" r:id="rId50"/>
+    <hyperlink ref="L63" r:id="rId51"/>
+    <hyperlink ref="K63" r:id="rId52"/>
+    <hyperlink ref="J63" r:id="rId53"/>
+    <hyperlink ref="J73" r:id="rId54"/>
+    <hyperlink ref="K73" r:id="rId55"/>
+    <hyperlink ref="L73" r:id="rId56"/>
+    <hyperlink ref="M73" r:id="rId57"/>
+    <hyperlink ref="K60" r:id="rId58"/>
+    <hyperlink ref="L60" r:id="rId59"/>
+    <hyperlink ref="M60" r:id="rId60"/>
+    <hyperlink ref="J6" r:id="rId61"/>
+    <hyperlink ref="K6" r:id="rId62"/>
+    <hyperlink ref="L6" r:id="rId63"/>
+    <hyperlink ref="M6" r:id="rId64"/>
+    <hyperlink ref="J8" r:id="rId65"/>
+    <hyperlink ref="K8" r:id="rId66"/>
+    <hyperlink ref="L8" r:id="rId67"/>
+    <hyperlink ref="M8" r:id="rId68"/>
+    <hyperlink ref="M67" r:id="rId69"/>
+    <hyperlink ref="L67" r:id="rId70"/>
+    <hyperlink ref="K67" r:id="rId71"/>
+    <hyperlink ref="J67" r:id="rId72"/>
+    <hyperlink ref="N22" r:id="rId73"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId73"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId74"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -5388,7 +5365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5396,13 +5373,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>265</v>
       </c>
@@ -5428,7 +5405,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>268</v>
       </c>
@@ -5445,8 +5422,8 @@
         <v>266</v>
       </c>
       <c r="F2" s="16">
-        <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
-        <v>45111</v>
+        <f ca="1">DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
+        <v>45112</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>307</v>
@@ -5455,14 +5432,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
         <v>464</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5" s="18" t="s">
         <v>284</v>
       </c>
@@ -5470,18 +5447,18 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="C6" s="18" t="s">
         <v>285</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:H2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5494,14 +5471,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>463</v>
       </c>
@@ -5572,7 +5549,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -5639,7 +5616,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -5706,7 +5683,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -5773,7 +5750,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -5840,7 +5817,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -5907,7 +5884,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -5974,7 +5951,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -6041,7 +6018,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -6102,7 +6079,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -6163,7 +6140,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -6224,7 +6201,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -6285,7 +6262,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -6346,7 +6323,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -6392,7 +6369,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W14" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:W14"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/i360db/0.9.8/i360db.xlsx
+++ b/i360db/0.9.8/i360db.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Calendars!$A$1:$W$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Complements!$A$1:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$76</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Calendars!$A:$A,Calendars!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="505">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -1530,6 +1530,15 @@
   </si>
   <si>
     <t>طبعة @ 2023/07/05 م - 1444/12/17 هـ</t>
+  </si>
+  <si>
+    <t>«معجم اللغة العربية المعاصرة»</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/books/3519</t>
+  </si>
+  <si>
+    <t>ArabicDictionary</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +2006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2065,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("i36",M2))),NOT(ISERROR(SEARCH("alsirah.com",M2))),NOT(ISERROR(SEARCH("altafsir.com",M2))),NOT(ISERROR(SEARCH("app.box.com",M2))),NOT(ISERROR(SEARCH("archive.org",M2))),NOT(ISERROR(SEARCH("dorar.net",M2))),NOT(ISERROR(SEARCH("fm6oa.org",M2))),NOT(ISERROR(SEARCH("ihsanetwork.org",M2))),NOT(ISERROR(SEARCH("islamway.net",M2))),NOT(ISERROR(SEARCH("privacypolicies.com",M2))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M2))),NOT(ISERROR(SEARCH("tafsir.app",M2))),NOT(ISERROR(SEARCH("tanzil.net",M2))),(RIGHT(M2,4)=".pdf"),C2=6,C2=8,C2=9),0,1)</f>
+        <f>IF(OR(NOT(ISERROR(SEARCH("i36",M2))),NOT(ISERROR(SEARCH("alsirah.com",M2))),NOT(ISERROR(SEARCH("altafsir.com",M2))),NOT(ISERROR(SEARCH("app.box.com",M2))),NOT(ISERROR(SEARCH("archive.org",M2))),NOT(ISERROR(SEARCH("dorar.net",M2))),NOT(ISERROR(SEARCH("fm6oa.org",M2))),NOT(ISERROR(SEARCH("ihsanetwork.org",M2))),NOT(ISERROR(SEARCH("islamway.net",M2))),NOT(ISERROR(SEARCH("privacypolicies.com",M2))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M2))),NOT(ISERROR(SEARCH("tafsir.app",M2))),NOT(ISERROR(SEARCH("tanzil.net",M2))),(RIGHT(M2,4)=".pdf"),C2=6,C2=8,C2=11),0,1)</f>
         <v>0</v>
       </c>
       <c r="C2" s="7">
@@ -2108,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <f t="shared" ref="B3:B66" si="0">IF(OR(NOT(ISERROR(SEARCH("i36",M3))),NOT(ISERROR(SEARCH("alsirah.com",M3))),NOT(ISERROR(SEARCH("altafsir.com",M3))),NOT(ISERROR(SEARCH("app.box.com",M3))),NOT(ISERROR(SEARCH("archive.org",M3))),NOT(ISERROR(SEARCH("dorar.net",M3))),NOT(ISERROR(SEARCH("fm6oa.org",M3))),NOT(ISERROR(SEARCH("ihsanetwork.org",M3))),NOT(ISERROR(SEARCH("islamway.net",M3))),NOT(ISERROR(SEARCH("privacypolicies.com",M3))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M3))),NOT(ISERROR(SEARCH("tafsir.app",M3))),NOT(ISERROR(SEARCH("tanzil.net",M3))),(RIGHT(M3,4)=".pdf"),C3=6,C3=8,C3=9),0,1)</f>
+        <f t="shared" ref="B3:B66" si="0">IF(OR(NOT(ISERROR(SEARCH("i36",M3))),NOT(ISERROR(SEARCH("alsirah.com",M3))),NOT(ISERROR(SEARCH("altafsir.com",M3))),NOT(ISERROR(SEARCH("app.box.com",M3))),NOT(ISERROR(SEARCH("archive.org",M3))),NOT(ISERROR(SEARCH("dorar.net",M3))),NOT(ISERROR(SEARCH("fm6oa.org",M3))),NOT(ISERROR(SEARCH("ihsanetwork.org",M3))),NOT(ISERROR(SEARCH("islamway.net",M3))),NOT(ISERROR(SEARCH("privacypolicies.com",M3))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M3))),NOT(ISERROR(SEARCH("tafsir.app",M3))),NOT(ISERROR(SEARCH("tanzil.net",M3))),(RIGHT(M3,4)=".pdf"),C3=6,C3=8,C3=11),0,1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="7">
@@ -4876,7 +4885,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="12">
-        <f t="shared" ref="B67:B75" si="1">IF(OR(NOT(ISERROR(SEARCH("i36",M67))),NOT(ISERROR(SEARCH("alsirah.com",M67))),NOT(ISERROR(SEARCH("altafsir.com",M67))),NOT(ISERROR(SEARCH("app.box.com",M67))),NOT(ISERROR(SEARCH("archive.org",M67))),NOT(ISERROR(SEARCH("dorar.net",M67))),NOT(ISERROR(SEARCH("fm6oa.org",M67))),NOT(ISERROR(SEARCH("ihsanetwork.org",M67))),NOT(ISERROR(SEARCH("islamway.net",M67))),NOT(ISERROR(SEARCH("privacypolicies.com",M67))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M67))),NOT(ISERROR(SEARCH("tafsir.app",M67))),NOT(ISERROR(SEARCH("tanzil.net",M67))),(RIGHT(M67,4)=".pdf"),C67=6,C67=8,C67=9),0,1)</f>
+        <f t="shared" ref="B67:B75" si="1">IF(OR(NOT(ISERROR(SEARCH("i36",M67))),NOT(ISERROR(SEARCH("alsirah.com",M67))),NOT(ISERROR(SEARCH("altafsir.com",M67))),NOT(ISERROR(SEARCH("app.box.com",M67))),NOT(ISERROR(SEARCH("archive.org",M67))),NOT(ISERROR(SEARCH("dorar.net",M67))),NOT(ISERROR(SEARCH("fm6oa.org",M67))),NOT(ISERROR(SEARCH("ihsanetwork.org",M67))),NOT(ISERROR(SEARCH("islamway.net",M67))),NOT(ISERROR(SEARCH("privacypolicies.com",M67))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M67))),NOT(ISERROR(SEARCH("tafsir.app",M67))),NOT(ISERROR(SEARCH("tanzil.net",M67))),(RIGHT(M67,4)=".pdf"),C67=6,C67=8,C67=11),0,1)</f>
         <v>1</v>
       </c>
       <c r="C67" s="7">
@@ -4919,8 +4928,8 @@
         <v>67</v>
       </c>
       <c r="B68" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(OR(NOT(ISERROR(SEARCH("i36",M68))),NOT(ISERROR(SEARCH("alsirah.com",M68))),NOT(ISERROR(SEARCH("altafsir.com",M68))),NOT(ISERROR(SEARCH("app.box.com",M68))),NOT(ISERROR(SEARCH("archive.org",M68))),NOT(ISERROR(SEARCH("dorar.net",M68))),NOT(ISERROR(SEARCH("fm6oa.org",M68))),NOT(ISERROR(SEARCH("ihsanetwork.org",M68))),NOT(ISERROR(SEARCH("islamway.net",M68))),NOT(ISERROR(SEARCH("privacypolicies.com",M68))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M68))),NOT(ISERROR(SEARCH("tafsir.app",M68))),NOT(ISERROR(SEARCH("tanzil.net",M68))),(RIGHT(M68,4)=".pdf"),C68=6,C68=8,C68=11),0,1)</f>
+        <v>1</v>
       </c>
       <c r="C68" s="7">
         <v>9</v>
@@ -4932,28 +4941,28 @@
         <v>302</v>
       </c>
       <c r="F68" s="9">
-        <v>9.02</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>298</v>
+        <v>504</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>296</v>
+        <v>502</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>286</v>
+        <v>15</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>295</v>
+        <v>503</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>295</v>
+        <v>503</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>295</v>
+        <v>503</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>295</v>
+        <v>503</v>
       </c>
       <c r="N68" s="3"/>
     </row>
@@ -4962,7 +4971,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="12">
-        <f t="shared" si="1"/>
+        <f>IF(OR(NOT(ISERROR(SEARCH("i36",M69))),NOT(ISERROR(SEARCH("alsirah.com",M69))),NOT(ISERROR(SEARCH("altafsir.com",M69))),NOT(ISERROR(SEARCH("app.box.com",M69))),NOT(ISERROR(SEARCH("archive.org",M69))),NOT(ISERROR(SEARCH("dorar.net",M69))),NOT(ISERROR(SEARCH("fm6oa.org",M69))),NOT(ISERROR(SEARCH("ihsanetwork.org",M69))),NOT(ISERROR(SEARCH("islamway.net",M69))),NOT(ISERROR(SEARCH("privacypolicies.com",M69))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M69))),NOT(ISERROR(SEARCH("tafsir.app",M69))),NOT(ISERROR(SEARCH("tanzil.net",M69))),(RIGHT(M69,4)=".pdf"),C69=6,C69=8,C69=11),0,1)</f>
         <v>0</v>
       </c>
       <c r="C69" s="7">
@@ -4975,28 +4984,28 @@
         <v>302</v>
       </c>
       <c r="F69" s="9">
-        <v>9.01</v>
+        <v>9.02</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>286</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N69" s="3"/>
     </row>
@@ -5263,17 +5272,60 @@
       <c r="N75" s="3"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="13">
-        <f>SUBTOTAL(2,A2:A75)</f>
-        <v>74</v>
-      </c>
-      <c r="B76" s="14">
-        <f>SUBTOTAL(9,B2:B75)</f>
-        <v>21</v>
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12">
+        <f>IF(OR(NOT(ISERROR(SEARCH("i36",M76))),NOT(ISERROR(SEARCH("alsirah.com",M76))),NOT(ISERROR(SEARCH("altafsir.com",M76))),NOT(ISERROR(SEARCH("app.box.com",M76))),NOT(ISERROR(SEARCH("archive.org",M76))),NOT(ISERROR(SEARCH("dorar.net",M76))),NOT(ISERROR(SEARCH("fm6oa.org",M76))),NOT(ISERROR(SEARCH("ihsanetwork.org",M76))),NOT(ISERROR(SEARCH("islamway.net",M76))),NOT(ISERROR(SEARCH("privacypolicies.com",M76))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M76))),NOT(ISERROR(SEARCH("tafsir.app",M76))),NOT(ISERROR(SEARCH("tanzil.net",M76))),(RIGHT(M76,4)=".pdf"),C76=6,C76=8,C76=11),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C76" s="7">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F76" s="9">
+        <v>9.01</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="13">
+        <f>SUBTOTAL(2,A2:A76)</f>
+        <v>75</v>
+      </c>
+      <c r="B77" s="14">
+        <f>SUBTOTAL(9,B2:B76)</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N75">
+  <autoFilter ref="A1:N76">
     <sortState ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
@@ -5284,79 +5336,83 @@
     <hyperlink ref="K7" r:id="rId2"/>
     <hyperlink ref="L7" r:id="rId3"/>
     <hyperlink ref="M7" r:id="rId4"/>
-    <hyperlink ref="J68" r:id="rId5"/>
-    <hyperlink ref="J69" r:id="rId6"/>
-    <hyperlink ref="K69" r:id="rId7"/>
-    <hyperlink ref="L69" r:id="rId8"/>
-    <hyperlink ref="M69" r:id="rId9"/>
-    <hyperlink ref="N7" r:id="rId10"/>
-    <hyperlink ref="N26" r:id="rId11"/>
-    <hyperlink ref="M19" r:id="rId12"/>
-    <hyperlink ref="L19" r:id="rId13"/>
-    <hyperlink ref="K19" r:id="rId14"/>
-    <hyperlink ref="J19" r:id="rId15"/>
-    <hyperlink ref="J4" r:id="rId16"/>
-    <hyperlink ref="K4" r:id="rId17"/>
-    <hyperlink ref="L4" r:id="rId18"/>
-    <hyperlink ref="M4" r:id="rId19"/>
-    <hyperlink ref="L62" r:id="rId20"/>
-    <hyperlink ref="K62" r:id="rId21"/>
-    <hyperlink ref="J62" r:id="rId22"/>
-    <hyperlink ref="M62" r:id="rId23"/>
-    <hyperlink ref="N62" r:id="rId24"/>
-    <hyperlink ref="N72" r:id="rId25"/>
-    <hyperlink ref="J27" r:id="rId26"/>
-    <hyperlink ref="K27" r:id="rId27"/>
-    <hyperlink ref="L27" r:id="rId28"/>
-    <hyperlink ref="M27" r:id="rId29"/>
-    <hyperlink ref="J60" r:id="rId30"/>
-    <hyperlink ref="J17" r:id="rId31"/>
-    <hyperlink ref="K17" r:id="rId32"/>
-    <hyperlink ref="L17" r:id="rId33"/>
-    <hyperlink ref="M17" r:id="rId34"/>
-    <hyperlink ref="N66" r:id="rId35"/>
-    <hyperlink ref="M63" r:id="rId36"/>
-    <hyperlink ref="N74" r:id="rId37"/>
-    <hyperlink ref="J66" r:id="rId38"/>
-    <hyperlink ref="L66" r:id="rId39"/>
-    <hyperlink ref="K66" r:id="rId40"/>
-    <hyperlink ref="M66" r:id="rId41"/>
-    <hyperlink ref="J70" r:id="rId42"/>
-    <hyperlink ref="K70" r:id="rId43"/>
-    <hyperlink ref="L70" r:id="rId44"/>
-    <hyperlink ref="M70" r:id="rId45"/>
-    <hyperlink ref="M61" r:id="rId46"/>
-    <hyperlink ref="L61" r:id="rId47"/>
-    <hyperlink ref="K61" r:id="rId48"/>
-    <hyperlink ref="J61" r:id="rId49"/>
-    <hyperlink ref="N63" r:id="rId50"/>
-    <hyperlink ref="L63" r:id="rId51"/>
-    <hyperlink ref="K63" r:id="rId52"/>
-    <hyperlink ref="J63" r:id="rId53"/>
-    <hyperlink ref="J73" r:id="rId54"/>
-    <hyperlink ref="K73" r:id="rId55"/>
-    <hyperlink ref="L73" r:id="rId56"/>
-    <hyperlink ref="M73" r:id="rId57"/>
-    <hyperlink ref="K60" r:id="rId58"/>
-    <hyperlink ref="L60" r:id="rId59"/>
-    <hyperlink ref="M60" r:id="rId60"/>
-    <hyperlink ref="J6" r:id="rId61"/>
-    <hyperlink ref="K6" r:id="rId62"/>
-    <hyperlink ref="L6" r:id="rId63"/>
-    <hyperlink ref="M6" r:id="rId64"/>
-    <hyperlink ref="J8" r:id="rId65"/>
-    <hyperlink ref="K8" r:id="rId66"/>
-    <hyperlink ref="L8" r:id="rId67"/>
-    <hyperlink ref="M8" r:id="rId68"/>
-    <hyperlink ref="M67" r:id="rId69"/>
-    <hyperlink ref="L67" r:id="rId70"/>
-    <hyperlink ref="K67" r:id="rId71"/>
-    <hyperlink ref="J67" r:id="rId72"/>
-    <hyperlink ref="N22" r:id="rId73"/>
+    <hyperlink ref="N7" r:id="rId5"/>
+    <hyperlink ref="N26" r:id="rId6"/>
+    <hyperlink ref="M19" r:id="rId7"/>
+    <hyperlink ref="L19" r:id="rId8"/>
+    <hyperlink ref="K19" r:id="rId9"/>
+    <hyperlink ref="J19" r:id="rId10"/>
+    <hyperlink ref="J4" r:id="rId11"/>
+    <hyperlink ref="K4" r:id="rId12"/>
+    <hyperlink ref="L4" r:id="rId13"/>
+    <hyperlink ref="M4" r:id="rId14"/>
+    <hyperlink ref="L62" r:id="rId15"/>
+    <hyperlink ref="K62" r:id="rId16"/>
+    <hyperlink ref="J62" r:id="rId17"/>
+    <hyperlink ref="M62" r:id="rId18"/>
+    <hyperlink ref="N62" r:id="rId19"/>
+    <hyperlink ref="N72" r:id="rId20"/>
+    <hyperlink ref="J27" r:id="rId21"/>
+    <hyperlink ref="K27" r:id="rId22"/>
+    <hyperlink ref="L27" r:id="rId23"/>
+    <hyperlink ref="M27" r:id="rId24"/>
+    <hyperlink ref="J60" r:id="rId25"/>
+    <hyperlink ref="J17" r:id="rId26"/>
+    <hyperlink ref="K17" r:id="rId27"/>
+    <hyperlink ref="L17" r:id="rId28"/>
+    <hyperlink ref="M17" r:id="rId29"/>
+    <hyperlink ref="N66" r:id="rId30"/>
+    <hyperlink ref="M63" r:id="rId31"/>
+    <hyperlink ref="N74" r:id="rId32"/>
+    <hyperlink ref="J66" r:id="rId33"/>
+    <hyperlink ref="L66" r:id="rId34"/>
+    <hyperlink ref="K66" r:id="rId35"/>
+    <hyperlink ref="M66" r:id="rId36"/>
+    <hyperlink ref="J70" r:id="rId37"/>
+    <hyperlink ref="K70" r:id="rId38"/>
+    <hyperlink ref="L70" r:id="rId39"/>
+    <hyperlink ref="M70" r:id="rId40"/>
+    <hyperlink ref="M61" r:id="rId41"/>
+    <hyperlink ref="L61" r:id="rId42"/>
+    <hyperlink ref="K61" r:id="rId43"/>
+    <hyperlink ref="J61" r:id="rId44"/>
+    <hyperlink ref="N63" r:id="rId45"/>
+    <hyperlink ref="L63" r:id="rId46"/>
+    <hyperlink ref="K63" r:id="rId47"/>
+    <hyperlink ref="J63" r:id="rId48"/>
+    <hyperlink ref="J73" r:id="rId49"/>
+    <hyperlink ref="K73" r:id="rId50"/>
+    <hyperlink ref="L73" r:id="rId51"/>
+    <hyperlink ref="M73" r:id="rId52"/>
+    <hyperlink ref="K60" r:id="rId53"/>
+    <hyperlink ref="L60" r:id="rId54"/>
+    <hyperlink ref="M60" r:id="rId55"/>
+    <hyperlink ref="J6" r:id="rId56"/>
+    <hyperlink ref="K6" r:id="rId57"/>
+    <hyperlink ref="L6" r:id="rId58"/>
+    <hyperlink ref="M6" r:id="rId59"/>
+    <hyperlink ref="J8" r:id="rId60"/>
+    <hyperlink ref="K8" r:id="rId61"/>
+    <hyperlink ref="L8" r:id="rId62"/>
+    <hyperlink ref="M8" r:id="rId63"/>
+    <hyperlink ref="M67" r:id="rId64"/>
+    <hyperlink ref="L67" r:id="rId65"/>
+    <hyperlink ref="K67" r:id="rId66"/>
+    <hyperlink ref="J67" r:id="rId67"/>
+    <hyperlink ref="N22" r:id="rId68"/>
+    <hyperlink ref="J68" r:id="rId69"/>
+    <hyperlink ref="K68" r:id="rId70"/>
+    <hyperlink ref="L68" r:id="rId71"/>
+    <hyperlink ref="M68" r:id="rId72"/>
+    <hyperlink ref="J76" r:id="rId73"/>
+    <hyperlink ref="K76" r:id="rId74"/>
+    <hyperlink ref="L76" r:id="rId75"/>
+    <hyperlink ref="M76" r:id="rId76"/>
+    <hyperlink ref="J69" r:id="rId77"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId74"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId78"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
